--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="126">
   <si>
     <t>SL#</t>
   </si>
@@ -110,6 +110,9 @@
     <t>Rajesh Ghosh</t>
   </si>
   <si>
+    <t>Bugs</t>
+  </si>
+  <si>
     <t>T2</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>José Pedro Teles</t>
   </si>
   <si>
+    <t>Exception</t>
+  </si>
+  <si>
     <t>T3</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>4H</t>
   </si>
   <si>
+    <t>Improvement</t>
+  </si>
+  <si>
     <t>T4</t>
   </si>
   <si>
@@ -195,6 +204,9 @@
   </si>
   <si>
     <t>Product Category Section</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
   <si>
     <t>T13</t>
@@ -558,8 +570,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane xSplit="3.0" ySplit="2.0" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
+      <selection activeCell="D3" sqref="D3" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -622,269 +636,308 @@
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -896,22 +949,25 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -923,33 +979,36 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
@@ -963,14 +1022,17 @@
       <c r="G23" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="H23" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
@@ -979,44 +1041,50 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H25" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>12</v>
@@ -1024,229 +1092,259 @@
       <c r="G26" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H26" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="H30" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H31" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>11</v>
@@ -1254,225 +1352,250 @@
       <c r="G40" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H40" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="55">
       <c r="D55" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
@@ -1480,7 +1603,7 @@
         <v>38.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
@@ -1491,17 +1614,17 @@
     </row>
     <row r="59">
       <c r="D59" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="D60" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="C61" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D61">
         <f>35/5</f>

--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
   <si>
     <t>SL#</t>
   </si>
@@ -95,15 +95,15 @@
     <t>SUB TASKS</t>
   </si>
   <si>
+    <t>(In Hours)</t>
+  </si>
+  <si>
     <t>T1</t>
   </si>
   <si>
     <t>Database design</t>
   </si>
   <si>
-    <t>2D</t>
-  </si>
-  <si>
     <t>Cansu Salkıç</t>
   </si>
   <si>
@@ -119,9 +119,6 @@
     <t>Test server configaration (Local Share server)</t>
   </si>
   <si>
-    <t>5H</t>
-  </si>
-  <si>
     <t>José Pedro Teles</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Preparing Deployment Environment</t>
   </si>
   <si>
-    <t>4H</t>
-  </si>
-  <si>
     <t>Improvement</t>
   </si>
   <si>
@@ -152,18 +146,12 @@
     <t>Navbar</t>
   </si>
   <si>
-    <t>6H</t>
-  </si>
-  <si>
     <t>T6</t>
   </si>
   <si>
     <t>Product Slider</t>
   </si>
   <si>
-    <t>1D</t>
-  </si>
-  <si>
     <t>T7</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
     <t>Filtering Option / Serach Product</t>
   </si>
   <si>
-    <t>1D4H</t>
-  </si>
-  <si>
     <t>Marina Camilo</t>
   </si>
   <si>
@@ -233,9 +218,6 @@
     <t>Checkout and payment page</t>
   </si>
   <si>
-    <t>3H</t>
-  </si>
-  <si>
     <t>T18</t>
   </si>
   <si>
@@ -293,9 +275,6 @@
     <t>Product Upload implementation</t>
   </si>
   <si>
-    <t>1D3H</t>
-  </si>
-  <si>
     <t>T28</t>
   </si>
   <si>
@@ -447,13 +426,31 @@
   </si>
   <si>
     <t>Estimated time for 5 people:</t>
+  </si>
+  <si>
+    <t>Time to Finish:</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Assigne</t>
+  </si>
+  <si>
+    <t>No. of Tasks</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Type of Tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -486,8 +483,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +513,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF434343"/>
+        <bgColor rgb="FF434343"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -519,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -550,6 +563,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -558,12 +581,626 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Type of Tasks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="109618"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$18:$A$21</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$18:$B$21</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Evolution of the Solution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366CC"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$10:$A$15</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$10:$B$15</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DC3912"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$10:$A$15</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$C$10:$C$15</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$10:$A$15</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$D$10:$D$15</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1369079399"/>
+        <c:axId val="421997995"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1369079399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421997995"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="421997995"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369079399"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Reporters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="109618"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="990099"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$3:$A$7</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$3:$B$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Evolution of the solution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$52</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$52</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="200689036"/>
+        <c:axId val="1190272221"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200689036"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190272221"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1190272221"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200689036"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,20 +1252,25 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+      <c r="D3" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.0</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
@@ -647,66 +1289,66 @@
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
+      <c r="D5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
+      <c r="D7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.0</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
@@ -715,21 +1357,21 @@
         <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.0</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
@@ -738,21 +1380,21 @@
         <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -761,19 +1403,19 @@
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.0</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>12</v>
@@ -787,154 +1429,154 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15.0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5.0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8.0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8.0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>13</v>
@@ -949,25 +1591,25 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8.0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -979,42 +1621,42 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8.0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="D23" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16.0</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
@@ -1023,68 +1665,68 @@
         <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="D24" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>16.0</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>16</v>
+        <v>59</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5.0</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="D26" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8.0</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>12</v>
@@ -1093,30 +1735,30 @@
         <v>11</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8.0</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>12</v>
@@ -1130,19 +1772,19 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="D29" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>11.0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>12</v>
@@ -1153,19 +1795,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5.0</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>12</v>
@@ -1174,177 +1816,177 @@
         <v>13</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3.0</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4.0</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>27</v>
+        <v>80</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6.0</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>21</v>
+        <v>82</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4.0</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="D38" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8.0</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4.0</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>54</v>
+        <v>88</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.0</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>11</v>
@@ -1353,118 +1995,118 @@
         <v>11</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3.0</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
+        <v>95</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5.0</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>21</v>
+        <v>97</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4.0</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>27</v>
+        <v>101</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6.0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>13</v>
@@ -1472,22 +2114,22 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>30</v>
+        <v>103</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8.0</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>13</v>
@@ -1495,22 +2137,22 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>27</v>
+        <v>105</v>
+      </c>
+      <c r="D49" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6.0</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>13</v>
@@ -1518,22 +2160,22 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>54</v>
+        <v>107</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3.0</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>13</v>
@@ -1541,22 +2183,22 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>21</v>
+        <v>109</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4.0</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>13</v>
@@ -1564,38 +2206,38 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4.0</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
       <c r="D55" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
@@ -1603,7 +2245,7 @@
         <v>38.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
@@ -1614,17 +2256,17 @@
     </row>
     <row r="59">
       <c r="D59" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="D60" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="C61" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D61">
         <f>35/5</f>
@@ -1643,7 +2285,1202 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1">
+        <f>sum(Sheet1!D3:D52)</f>
+        <v>249</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12">
+        <f>COUNTIF(Sheet1!$G$3:$G$52,A3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12">
+        <f>COUNTIF(Sheet1!$G$3:$G$52,A4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12">
+        <f>COUNTIF(Sheet1!$G$3:$G$52,A5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="12">
+        <f>COUNTIF(Sheet1!$G$3:$G$52,A6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12">
+        <f>COUNTIF(Sheet1!$G$3:$G$52,A7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12">
+        <f>COUNTIF(Sheet1!$F$3:$F$52,A11)</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUMIF(Sheet1!$F$3:$F$52,A11,Sheet1!$D$3:$D$52)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="12">
+        <f>COUNTIF(Sheet1!$F$3:$F$52,A12)</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="11">
+        <f>SUMIF(Sheet1!$F$3:$F$52,A12,Sheet1!$D$3:$D$52)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <f>COUNTIF(Sheet1!$F$3:$F$52,A13)</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="11">
+        <f>SUMIF(Sheet1!$F$3:$F$52,A13,Sheet1!$D$3:$D$52)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <f>COUNTIF(Sheet1!$F$3:$F$52,A14)</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="11">
+        <f>SUMIF(Sheet1!$F$3:$F$52,A14,Sheet1!$D$3:$D$52)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="12">
+        <f>COUNTIF(Sheet1!$F$3:$F$52,A15)</f>
+        <v>7</v>
+      </c>
+      <c r="C15" s="11">
+        <f>SUMIF(Sheet1!$F$3:$F$52,A15,Sheet1!$D$3:$D$52)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="12">
+        <f>COUNTIF(Sheet1!$H$3:$H$52,A18)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <f>COUNTIF(Sheet1!$H$3:$H$52,A19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12">
+        <f>COUNTIF(Sheet1!$H$3:$H$52,A20)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="12">
+        <f>COUNTIF(Sheet1!$H$3:$H$52,A21)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
   <si>
     <t>SL#</t>
   </si>
@@ -90,6 +90,30 @@
   </si>
   <si>
     <t>Type  of the task</t>
+  </si>
+  <si>
+    <t>Summery of Ticket</t>
+  </si>
+  <si>
+    <t>Dropdown Component</t>
+  </si>
+  <si>
+    <t>Priority of Ticket</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Fix Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Attachment</t>
   </si>
   <si>
     <t>SUB TASKS</t>
@@ -532,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -541,6 +565,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -760,11 +787,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1369079399"/>
-        <c:axId val="421997995"/>
+        <c:axId val="1489547280"/>
+        <c:axId val="1691937077"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1369079399"/>
+        <c:axId val="1489547280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,10 +823,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421997995"/>
+        <c:crossAx val="1691937077"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421997995"/>
+        <c:axId val="1691937077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +857,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1369079399"/>
+        <c:crossAx val="1489547280"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1010,11 +1037,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="200689036"/>
-        <c:axId val="1190272221"/>
+        <c:axId val="466646604"/>
+        <c:axId val="1746407028"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200689036"/>
+        <c:axId val="466646604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,10 +1056,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190272221"/>
+        <c:crossAx val="1746407028"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1190272221"/>
+        <c:axId val="1746407028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1090,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200689036"/>
+        <c:crossAx val="466646604"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1221,6 +1248,14 @@
     <col customWidth="1" min="5" max="5" width="20.29"/>
     <col customWidth="1" min="6" max="6" width="22.43"/>
     <col customWidth="1" min="7" max="8" width="18.71"/>
+    <col customWidth="1" min="9" max="9" width="25.86"/>
+    <col customWidth="1" min="10" max="10" width="27.14"/>
+    <col customWidth="1" min="11" max="11" width="16.0"/>
+    <col customWidth="1" min="12" max="12" width="17.86"/>
+    <col customWidth="1" min="13" max="13" width="21.71"/>
+    <col customWidth="1" min="14" max="14" width="24.29"/>
+    <col customWidth="1" min="15" max="15" width="20.71"/>
+    <col customWidth="1" min="16" max="16" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1245,1007 +1280,1031 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
         <v>16.0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>5.0</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
         <v>5.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>2.0</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3">
+      <c r="H20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="4">
         <v>4.0</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="E35" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="G44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="H49" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="4">
         <v>4.0</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="E51" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="G51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="4">
         <v>4.0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E52" s="4">
         <v>4.0</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="F52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="55">
-      <c r="D55" s="3" t="s">
-        <v>112</v>
+      <c r="D55" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>114</v>
+      <c r="B56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>38.0</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>115</v>
+      <c r="D57" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="58">
@@ -2255,18 +2314,18 @@
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="3" t="s">
-        <v>116</v>
+      <c r="D59" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="60">
-      <c r="D60" s="3" t="s">
-        <v>117</v>
+      <c r="D60" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="61">
-      <c r="C61" s="3" t="s">
-        <v>118</v>
+      <c r="C61" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D61">
         <f>35/5</f>
@@ -2290,1190 +2349,1190 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>119</v>
+      <c r="A1" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B1">
         <f>sum(Sheet1!D3:D52)</f>
         <v>249</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>120</v>
+      <c r="C1" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="13">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A3)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="13">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A6)</f>
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>121</v>
+      <c r="A9" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>123</v>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A11)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <f>SUMIF(Sheet1!$F$3:$F$52,A11,Sheet1!$D$3:$D$52)</f>
         <v>51</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A12)</f>
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <f>SUMIF(Sheet1!$F$3:$F$52,A12,Sheet1!$D$3:$D$52)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="A13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A13)</f>
         <v>6</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <f>SUMIF(Sheet1!$F$3:$F$52,A13,Sheet1!$D$3:$D$52)</f>
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A14)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <f>SUMIF(Sheet1!$F$3:$F$52,A14,Sheet1!$D$3:$D$52)</f>
         <v>52</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="13">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A15)</f>
         <v>7</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <f>SUMIF(Sheet1!$F$3:$F$52,A15,Sheet1!$D$3:$D$52)</f>
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>124</v>
+      <c r="A17" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="12">
+      <c r="A18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A18)</f>
         <v>11</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="A19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="13">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A19)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12">
+      <c r="A20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A20)</f>
         <v>11</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="A21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="13">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A21)</f>
         <v>14</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
     </row>
     <row r="87">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
     </row>
     <row r="90">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
     </row>
     <row r="92">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
     </row>
     <row r="106">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
     </row>
     <row r="115">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
     </row>
     <row r="127">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
     </row>
     <row r="128">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
     </row>
     <row r="140">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
     </row>
     <row r="142">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
     </row>
     <row r="160">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
     </row>
     <row r="163">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
     </row>
     <row r="202">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
     </row>
     <row r="219">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
     </row>
     <row r="223">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
     </row>
     <row r="224">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
     </row>
     <row r="232">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
     </row>
     <row r="242">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
     </row>
     <row r="244">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
     </row>
     <row r="251">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
     </row>
     <row r="252">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="3"/>
-      <c r="B263" s="3"/>
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
     </row>
     <row r="265">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
     </row>
     <row r="268">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
     </row>
     <row r="269">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
     </row>
     <row r="273">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="179">
   <si>
     <t>SL#</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Type  of the task</t>
   </si>
   <si>
-    <t>Summery of Ticket</t>
+    <t>Summary of Ticket</t>
   </si>
   <si>
     <t>Dropdown Component</t>
@@ -122,6 +122,9 @@
     <t>(In Hours)</t>
   </si>
   <si>
+    <t>Project starts 11/6</t>
+  </si>
+  <si>
     <t>T1</t>
   </si>
   <si>
@@ -134,55 +137,97 @@
     <t>Rajesh Ghosh</t>
   </si>
   <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Design and implemente the database for the project</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Test server configaration (Local Share server)</t>
+  </si>
+  <si>
+    <t>José Pedro Teles</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Configurat the server to implement</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Preparing Deployment Environment</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Set the enviroment for people to work</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>Login, logout, company logo, filter, categories</t>
+  </si>
+  <si>
+    <t>Web page were a user can see a log in option, the company logo, a filter option and categories from the shop</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>Product Slider</t>
+  </si>
+  <si>
+    <t>Define Relevant Products and show each one of them after a period of time</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Rectangle in the middle of the page that displays information about featured products</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>Blog section</t>
+  </si>
+  <si>
+    <t>Part of the Home page where people can comment and ask help to buy products</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
     <t>Bugs</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Test server configaration (Local Share server)</t>
-  </si>
-  <si>
-    <t>José Pedro Teles</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>Preparing Deployment Environment</t>
-  </si>
-  <si>
-    <t>Improvement</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>Navbar</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>Product Slider</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>Blog section</t>
-  </si>
-  <si>
-    <t>Footer</t>
+    <t>Categories as contact us, sitemap</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <t>T9</t>
@@ -200,6 +245,9 @@
     <t>Marina Camilo</t>
   </si>
   <si>
+    <t>Full Text Search Database Products</t>
+  </si>
+  <si>
     <t>T11</t>
   </si>
   <si>
@@ -209,6 +257,9 @@
     <t>Victor Padi</t>
   </si>
   <si>
+    <t>Top Selling Products carousel</t>
+  </si>
+  <si>
     <t>T12</t>
   </si>
   <si>
@@ -218,6 +269,9 @@
     <t>Task</t>
   </si>
   <si>
+    <t>Products' miniatures, adjusted by the page dimensions</t>
+  </si>
+  <si>
     <t>T13</t>
   </si>
   <si>
@@ -230,30 +284,45 @@
     <t>Product Descriptoin Section</t>
   </si>
   <si>
+    <t>Section where people can get more info about the product. How is it works? When is it recommend? How should be used? Components and benefits</t>
+  </si>
+  <si>
     <t>T15</t>
   </si>
   <si>
     <t>Buying Option / Add to cart section</t>
   </si>
   <si>
+    <t>Make sure that when you open a new page the cart is the same. If anyone is log in, it keeps the card until the user drops it. Make sure that when a product is selected is on the shopping card section. It has to be possible to change the quantity of a product</t>
+  </si>
+  <si>
     <t>T16</t>
   </si>
   <si>
     <t>Checkout and payment page</t>
   </si>
   <si>
+    <t>Get the total cost of the items of the cart in different coins. Confirm Deliver adress. Check the payment method.</t>
+  </si>
+  <si>
     <t>T18</t>
   </si>
   <si>
     <t>Blog page</t>
   </si>
   <si>
+    <t>Do a comment, change and delete user's loged in comments. See comments from other users, comment others users posts, give reactions to others user posts.</t>
+  </si>
+  <si>
     <t>T20</t>
   </si>
   <si>
     <t>Events page</t>
   </si>
   <si>
+    <t>Creat, update and delete admin's events. See next evets.</t>
+  </si>
+  <si>
     <t>T21</t>
   </si>
   <si>
@@ -263,24 +332,36 @@
     <t>Inventory Management</t>
   </si>
   <si>
+    <t>Check stock in the store. Know the last bought products and their destiny. See statics of the goods sold. Control the stock requests. Annswer the question of the clients</t>
+  </si>
+  <si>
     <t>T22</t>
   </si>
   <si>
     <t>Payment Getway integration</t>
   </si>
   <si>
+    <t>Conect to the payment portal. Check when the payment is done in the portal.</t>
+  </si>
+  <si>
     <t>T23</t>
   </si>
   <si>
     <t>Confirmation and Shipment</t>
   </si>
   <si>
+    <t>Update the status order.</t>
+  </si>
+  <si>
     <t>T24</t>
   </si>
   <si>
     <t>Coupons and offers implementation</t>
   </si>
   <si>
+    <t>Generate unique numbers of coupons. Create a section to receive any coupon or offer. Check the validation of the coupon/offer</t>
+  </si>
+  <si>
     <t>T25</t>
   </si>
   <si>
@@ -293,19 +374,25 @@
     <t>Admin Login and Registration</t>
   </si>
   <si>
+    <t>Login should be visible during the site movimentation. Form for registration with name, last name, email and password. Add to the database the ew user.</t>
+  </si>
+  <si>
     <t>T27</t>
   </si>
   <si>
     <t>Product Upload implementation</t>
   </si>
   <si>
+    <t>Form with description, image, cost, and extra information sections. Add to the database the new poduct. It should be visible to users after filling the form</t>
+  </si>
+  <si>
     <t>T28</t>
   </si>
   <si>
     <t xml:space="preserve">Offer and product update </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Form with description, image, cost, and extra information sections. Update the database about the existing poduct. It should be visible to users after filling the form.</t>
   </si>
   <si>
     <t>T29</t>
@@ -314,6 +401,9 @@
     <t>Admin Logout</t>
   </si>
   <si>
+    <t>After closing the browser or click a botton, the admin account should be unacessible</t>
+  </si>
+  <si>
     <t>T30</t>
   </si>
   <si>
@@ -332,42 +422,63 @@
     <t>User Login and Logout</t>
   </si>
   <si>
+    <t xml:space="preserve">Login should be visible during the site movimentation. Ater click the logout botton or close the browser the user account should be unacessible </t>
+  </si>
+  <si>
     <t>T34</t>
   </si>
   <si>
     <t>User Registration</t>
   </si>
   <si>
+    <t>Form for reistration with name last name, email and password. Add to the database the ew user.</t>
+  </si>
+  <si>
     <t>T35</t>
   </si>
   <si>
     <t>Report Problem System</t>
   </si>
   <si>
+    <t>Form with type of question, and a descrition section. When submited it should be attached the client ID and the name of the user.</t>
+  </si>
+  <si>
     <t>T36</t>
   </si>
   <si>
     <t>Set Profile</t>
   </si>
   <si>
+    <t>Add a image to the account. Also, define the addres of the user</t>
+  </si>
+  <si>
     <t>T37</t>
   </si>
   <si>
     <t>Update Profile</t>
   </si>
   <si>
+    <t>Form whereit should be possible to change the password, adress and image</t>
+  </si>
+  <si>
     <t>T38</t>
   </si>
   <si>
     <t>My Orders Section</t>
   </si>
   <si>
+    <t>List the orders that the user already had</t>
+  </si>
+  <si>
     <t>T39</t>
   </si>
   <si>
     <t>Description of Order Section</t>
   </si>
   <si>
+    <t xml:space="preserve">Show the product list of the order that user seected </t>
+  </si>
+  <si>
     <t>T40</t>
   </si>
   <si>
@@ -383,12 +494,18 @@
     <t>Form to send message Section</t>
   </si>
   <si>
+    <t>Form with name, email, and description area.</t>
+  </si>
+  <si>
     <t>T43</t>
   </si>
   <si>
     <t>Formal contacts Section with map</t>
   </si>
   <si>
+    <t>Map with the address of the store. Email and phone of the store</t>
+  </si>
+  <si>
     <t>T44</t>
   </si>
   <si>
@@ -401,34 +518,55 @@
     <t>Testing Shopping Cart</t>
   </si>
   <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Test if we the product selected is in the shopping cart. Check if the shopping cart is the same when I log in in a different enviroment</t>
+  </si>
+  <si>
     <t>T46</t>
   </si>
   <si>
     <t>Search Form, Sorting, Filtering, Pagination</t>
   </si>
   <si>
+    <t>Test if the Full Text Searching is working as it should be</t>
+  </si>
+  <si>
     <t>T47</t>
   </si>
   <si>
     <t>Create account and Login Test</t>
   </si>
   <si>
+    <t>Create account, and see if it is succefully loged in. Also check if we restart the browser we need to log in again</t>
+  </si>
+  <si>
     <t>T48</t>
   </si>
   <si>
     <t>Payments</t>
   </si>
   <si>
+    <t>Check if the payment section knows if the payment is already done</t>
+  </si>
+  <si>
     <t>T49</t>
   </si>
   <si>
     <t>Post Purchase Test</t>
   </si>
   <si>
+    <t>Check if user can purchase products.</t>
+  </si>
+  <si>
     <t>T50</t>
   </si>
   <si>
     <t>Go Live / Deployment</t>
+  </si>
+  <si>
+    <t>Prepare server to receive a bigger amount of requests and lauch a version of the product</t>
   </si>
   <si>
     <t>Total Time:</t>
@@ -474,6 +612,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="166" formatCode="m-d"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="10.0"/>
@@ -556,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -581,14 +724,29 @@
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -787,11 +945,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1489547280"/>
-        <c:axId val="1691937077"/>
+        <c:axId val="1305043545"/>
+        <c:axId val="743746004"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1489547280"/>
+        <c:axId val="1305043545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,10 +981,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691937077"/>
+        <c:crossAx val="743746004"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691937077"/>
+        <c:axId val="743746004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +1015,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489547280"/>
+        <c:crossAx val="1305043545"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1037,11 +1195,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="466646604"/>
-        <c:axId val="1746407028"/>
+        <c:axId val="2104878673"/>
+        <c:axId val="1367673364"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466646604"/>
+        <c:axId val="2104878673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,10 +1214,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1746407028"/>
+        <c:crossAx val="1367673364"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1746407028"/>
+        <c:axId val="1367673364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1248,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466646604"/>
+        <c:crossAx val="2104878673"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1234,10 +1392,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3.0" ySplit="2.0" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <pane xSplit="2.0" ySplit="2.0" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
       <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="D3" sqref="D3" pane="bottomRight"/>
+      <selection activeCell="C3" sqref="C3" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -1250,11 +1408,11 @@
     <col customWidth="1" min="7" max="8" width="18.71"/>
     <col customWidth="1" min="9" max="9" width="25.86"/>
     <col customWidth="1" min="10" max="10" width="27.14"/>
-    <col customWidth="1" min="11" max="11" width="16.0"/>
-    <col customWidth="1" min="12" max="12" width="17.86"/>
+    <col customWidth="1" hidden="1" min="11" max="11" width="21.14"/>
+    <col customWidth="1" hidden="1" min="12" max="12" width="17.86"/>
     <col customWidth="1" min="13" max="13" width="21.71"/>
     <col customWidth="1" min="14" max="14" width="24.29"/>
-    <col customWidth="1" min="15" max="15" width="20.71"/>
+    <col customWidth="1" min="15" max="15" width="41.71"/>
     <col customWidth="1" min="16" max="16" width="20.0"/>
   </cols>
   <sheetData>
@@ -1317,13 +1475,16 @@
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>16.0</v>
@@ -1332,21 +1493,36 @@
         <v>5.0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="9">
+        <v>43047.0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
         <v>5.0</v>
@@ -1355,21 +1531,37 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
+      <c r="L4" s="9">
+        <v>43045.0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4">
         <v>4.0</v>
@@ -1378,30 +1570,48 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
+      <c r="L5" s="9">
+        <v>43046.0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4"/>
+      <c r="I6" s="12"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4">
         <v>6.0</v>
@@ -1410,21 +1620,40 @@
         <v>4.0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="9">
+        <v>43046.0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
         <v>8.0</v>
@@ -1433,21 +1662,40 @@
         <v>2.0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="9">
+        <v>43053.0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4">
         <v>5.0</v>
@@ -1456,19 +1704,35 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="9">
+        <v>43054.0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4">
         <v>5.0</v>
@@ -1477,30 +1741,48 @@
         <v>2.0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="9">
+        <v>43048.0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4">
         <v>12.0</v>
@@ -1509,21 +1791,37 @@
         <v>15.0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="9">
+        <v>43048.0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4">
         <v>5.0</v>
@@ -1532,21 +1830,36 @@
         <v>5.0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="9">
+        <v>43049.0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4">
         <v>8.0</v>
@@ -1555,29 +1868,46 @@
         <v>8.0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="9">
+        <v>43052.0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4">
         <v>4.0</v>
@@ -1585,22 +1915,37 @@
       <c r="E16" s="4">
         <v>4.0</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>45</v>
+      <c r="F16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="9">
+        <v>43048.0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4">
         <v>8.0</v>
@@ -1608,22 +1953,37 @@
       <c r="E17" s="4">
         <v>8.0</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>45</v>
+      <c r="F17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="9">
+        <v>43047.0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4">
         <v>3.0</v>
@@ -1631,14 +1991,29 @@
       <c r="E18" s="4">
         <v>3.0</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>45</v>
+      <c r="F18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="9">
+        <v>43048.0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
@@ -1647,13 +2022,15 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
+      <c r="I19" s="12"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4">
         <v>8.0</v>
@@ -1662,13 +2039,28 @@
         <v>8.0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="9">
+        <v>43055.0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
@@ -1677,13 +2069,15 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="I21" s="12"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4">
         <v>8.0</v>
@@ -1692,24 +2086,39 @@
         <v>8.0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="L22" s="9">
+        <v>43053.0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D23" s="4">
         <v>16.0</v>
@@ -1718,22 +2127,37 @@
         <v>16.0</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="9">
+        <v>43049.0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D24" s="4">
         <v>16.0</v>
@@ -1742,21 +2166,36 @@
         <v>16.0</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>28</v>
+      <c r="L24" s="9">
+        <v>43048.0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D25" s="4">
         <v>5.0</v>
@@ -1765,21 +2204,36 @@
         <v>5.0</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="9">
+        <v>43046.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4">
         <v>8.0</v>
@@ -1788,30 +2242,47 @@
         <v>8.0</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="L26" s="9">
+        <v>43054.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G27" s="7"/>
+      <c r="I27" s="12"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D28" s="4">
         <v>8.0</v>
@@ -1820,21 +2291,36 @@
         <v>8.0</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="9">
+        <v>43052.0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D29" s="4">
         <v>11.0</v>
@@ -1842,22 +2328,37 @@
       <c r="E29" s="4">
         <v>11.0</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>45</v>
+      <c r="F29" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="9">
+        <v>43052.0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D30" s="4">
         <v>5.0</v>
@@ -1865,25 +2366,37 @@
       <c r="E30" s="4">
         <v>5.0</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>45</v>
+      <c r="F30" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="9">
+        <v>43053.0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D31" s="4">
         <v>3.0</v>
@@ -1891,40 +2404,61 @@
       <c r="E31" s="4">
         <v>3.0</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>45</v>
+      <c r="F31" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="L31" s="9">
+        <v>43055.0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D35" s="4">
         <v>4.0</v>
@@ -1933,21 +2467,36 @@
         <v>4.0</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="9">
+        <v>43049.0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D36" s="4">
         <v>6.0</v>
@@ -1956,21 +2505,36 @@
         <v>6.0</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="9">
+        <v>43052.0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4">
         <v>4.0</v>
@@ -1979,21 +2543,36 @@
         <v>4.0</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="L37" s="9">
+        <v>43054.0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D38" s="4">
         <v>8.0</v>
@@ -2002,21 +2581,36 @@
         <v>8.0</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="9">
+        <v>43052.0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D39" s="4">
         <v>4.0</v>
@@ -2025,21 +2619,36 @@
         <v>4.0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="9">
+        <v>43053.0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="D40" s="4">
         <v>3.0</v>
@@ -2048,22 +2657,37 @@
         <v>3.0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="9">
+        <v>43054.0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D41" s="4">
         <v>3.0</v>
@@ -2072,34 +2696,53 @@
         <v>3.0</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="9">
+        <v>43054.0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="D44" s="4">
         <v>5.0</v>
@@ -2108,21 +2751,36 @@
         <v>5.0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" s="9">
+        <v>43055.0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D45" s="4">
         <v>4.0</v>
@@ -2131,29 +2789,47 @@
         <v>4.0</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>48</v>
+      <c r="L45" s="9">
+        <v>43047.0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D47" s="4">
         <v>6.0</v>
@@ -2162,21 +2838,36 @@
         <v>6.0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" s="9">
+        <v>43053.0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>111</v>
+        <v>151</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D48" s="4">
         <v>8.0</v>
@@ -2185,21 +2876,36 @@
         <v>8.0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="9">
+        <v>43054.0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D49" s="4">
         <v>6.0</v>
@@ -2207,22 +2913,37 @@
       <c r="E49" s="4">
         <v>6.0</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>45</v>
+      <c r="F49" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L49" s="9">
+        <v>43055.0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="D50" s="4">
         <v>3.0</v>
@@ -2231,21 +2952,36 @@
         <v>3.0</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" s="9">
+        <v>43053.0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D51" s="4">
         <v>4.0</v>
@@ -2254,21 +2990,36 @@
         <v>4.0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="9">
+        <v>43054.0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="D52" s="4">
         <v>4.0</v>
@@ -2277,26 +3028,44 @@
         <v>4.0</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="L52" s="9">
+        <v>43056.0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="M53" s="4"/>
     </row>
     <row r="55">
       <c r="D55" s="4" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -2304,7 +3073,7 @@
         <v>38.0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -2315,17 +3084,17 @@
     </row>
     <row r="59">
       <c r="D59" s="4" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60">
       <c r="D60" s="4" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61">
       <c r="C61" s="4" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D61">
         <f>35/5</f>
@@ -2350,184 +3119,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="B1">
         <f>sum(Sheet1!D3:D52)</f>
         <v>249</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="18">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A3)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="18">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="A5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="18">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="A6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="18">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A6)</f>
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="18">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>129</v>
+      <c r="A9" s="16" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>131</v>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="A11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A11)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="17">
         <f>SUMIF(Sheet1!$F$3:$F$52,A11,Sheet1!$D$3:$D$52)</f>
         <v>51</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="18">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A12)</f>
         <v>8</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="17">
         <f>SUMIF(Sheet1!$F$3:$F$52,A12,Sheet1!$D$3:$D$52)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="18">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A13)</f>
         <v>6</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="17">
         <f>SUMIF(Sheet1!$F$3:$F$52,A13,Sheet1!$D$3:$D$52)</f>
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A14)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="17">
         <f>SUMIF(Sheet1!$F$3:$F$52,A14,Sheet1!$D$3:$D$52)</f>
         <v>52</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="A15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="18">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A15)</f>
         <v>7</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="17">
         <f>SUMIF(Sheet1!$F$3:$F$52,A15,Sheet1!$D$3:$D$52)</f>
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>132</v>
+      <c r="A17" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="A18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="18">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A18)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="A19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="18">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A19)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="A20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="18">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A20)</f>
         <v>11</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="13">
+      <c r="A21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="18">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A21)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">

--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Dashboard" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Dropdown Lists" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Dashboard" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -58,43 +59,178 @@
 	-Rajesh Ghosh</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C30">
-      <text>
-        <t xml:space="preserve">Is this CRUD?(creat, update and delete?)
-	-Pedro Teles</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="213">
+  <si>
+    <t>Team Members:</t>
+  </si>
   <si>
     <t>SL#</t>
   </si>
   <si>
+    <t>Type of the Task:</t>
+  </si>
+  <si>
+    <t>Type of Component:</t>
+  </si>
+  <si>
+    <t>Type of Priority:</t>
+  </si>
+  <si>
+    <t>Fix Version:</t>
+  </si>
+  <si>
+    <t>Environment:</t>
+  </si>
+  <si>
+    <t>Cansu Salkıç</t>
+  </si>
+  <si>
     <t>TASK</t>
   </si>
   <si>
+    <t>Bug</t>
+  </si>
+  <si>
     <t>ORIGINAL ESTIMATION</t>
   </si>
   <si>
+    <t>Data Base</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>1.0.0.0</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>José Pedro Teles</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Rajesh Ghosh</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Backend,Shopping</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Marina Camilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
     <t>REMAINING ESTIMATION</t>
   </si>
   <si>
+    <t>Victor Padi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assigne </t>
   </si>
   <si>
+    <t>UI</t>
+  </si>
+  <si>
     <t>Reporter</t>
   </si>
   <si>
+    <t>Home Page,Data Base</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Home Page,Blog Page</t>
+  </si>
+  <si>
+    <t>Data Issue</t>
+  </si>
+  <si>
+    <t>Producs Page</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Produtos Page,Data Base</t>
+  </si>
+  <si>
+    <t>Product Page,Shopping</t>
+  </si>
+  <si>
+    <t>Blog Page,Data Base</t>
+  </si>
+  <si>
+    <t>Events Page,Data Base</t>
+  </si>
+  <si>
+    <t>Admin,Data Base</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin,User</t>
+  </si>
+  <si>
+    <t>User,Data Base</t>
+  </si>
+  <si>
+    <t>User,Shopping</t>
+  </si>
+  <si>
+    <t>User,Data Base,Shopping</t>
+  </si>
+  <si>
     <t>Type  of the task</t>
   </si>
   <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
     <t>Summary of Ticket</t>
   </si>
   <si>
+    <t>Shopping</t>
+  </si>
+  <si>
     <t>Dropdown Component</t>
   </si>
   <si>
@@ -131,19 +267,12 @@
     <t>Database design</t>
   </si>
   <si>
-    <t>Cansu Salkıç</t>
-  </si>
-  <si>
-    <t>Rajesh Ghosh</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
     <t>Design and implemente the database for the project</t>
   </si>
   <si>
-    <t>Very High</t>
+    <t>1. Design Database
+2. Create Database
+3. Imlplement Database</t>
   </si>
   <si>
     <t>T2</t>
@@ -152,12 +281,6 @@
     <t>Test server configaration (Local Share server)</t>
   </si>
   <si>
-    <t>José Pedro Teles</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
     <t>Configurat the server to implement</t>
   </si>
   <si>
@@ -167,9 +290,6 @@
     <t>Preparing Deployment Environment</t>
   </si>
   <si>
-    <t>Improvement</t>
-  </si>
-  <si>
     <t>Set the enviroment for people to work</t>
   </si>
   <si>
@@ -200,9 +320,6 @@
     <t>Define Relevant Products and show each one of them after a period of time</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Rectangle in the middle of the page that displays information about featured products</t>
   </si>
   <si>
@@ -215,407 +332,387 @@
     <t>Part of the Home page where people can comment and ask help to buy products</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Footer</t>
   </si>
   <si>
+    <t>Categories as contact us, sitemap</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Product Page</t>
+  </si>
+  <si>
+    <t>Filtering Option / Serach Product</t>
+  </si>
+  <si>
+    <t>Full Text Search Database Products</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>Top Selling Produc Slider</t>
+  </si>
+  <si>
+    <t>Top Selling Products carousel</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Product Category Section</t>
+  </si>
+  <si>
+    <t>Products' miniatures, adjusted by the page dimensions</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>About Product Page</t>
+  </si>
+  <si>
+    <t>Product Descriptoin Section</t>
+  </si>
+  <si>
+    <t>Section where people can get more info about the product. How is it works? When is it recommend? How should be used? Components and benefits</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>Buying Option / Add to cart section</t>
+  </si>
+  <si>
+    <t>Make sure that when you open a new page the cart is the same. If anyone is log in, it keeps the card until the user drops it. Make sure that when a product is selected is on the shopping card section. It has to be possible to change the quantity of a product</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>Checkout and payment page</t>
+  </si>
+  <si>
+    <t>Get the total cost of the items of the cart in different coins. Confirm Deliver adress. Check the payment method.</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>Blog page</t>
+  </si>
+  <si>
+    <t>Do a comment, change and delete user's loged in comments. See comments from other users, comment others users posts, give reactions to others user posts.</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>Events page</t>
+  </si>
+  <si>
+    <t>Creat, update and delete admin's events. See next evets.</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>Ecommerce Features</t>
+  </si>
+  <si>
+    <t>Inventory Management</t>
+  </si>
+  <si>
+    <t>Check stock in the store. Know the last bought products and their destiny. See statics of the goods sold. Control the stock requests. Annswer the question of the clients</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>Payment Gateway integration</t>
+  </si>
+  <si>
+    <t>Conect to the payment portal. Check when the payment is done in the portal.</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>Confirmation and Shipment</t>
+  </si>
+  <si>
+    <t>Update the status order.</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>Coupons and offers implementation</t>
+  </si>
+  <si>
+    <t>Generate unique numbers of coupons. Create a section to receive any coupon or offer. Check the validation of the coupon/offer</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>Admin Panel</t>
+  </si>
+  <si>
+    <t>Admin Login and Registration</t>
+  </si>
+  <si>
+    <t>Login should be visible during the site movimentation. Form for registration with name, last name, email and password. Add to the database the ew user.</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>Product Upload implementation</t>
+  </si>
+  <si>
+    <t>Form with description, image, cost, and extra information sections. Add to the database the new poduct. It should be visible to users after filling the form</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offer and product update </t>
+  </si>
+  <si>
+    <t>Form with description, image, cost, and extra information sections. Update the database about the existing poduct. It should be visible to users after filling the form.</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>Admin Logout</t>
+  </si>
+  <si>
+    <t>After closing the browser or click a botton, the admin account should be unacessible</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>User Page</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>User Login and Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login should be visible during the site movimentation. Ater click the logout botton or close the browser the user account should be unacessible </t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>Form for reistration with name last name, email and password. Add to the database the ew user.</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>Report Problem System</t>
+  </si>
+  <si>
+    <t>Form with type of question, and a descrition section. When submited it should be attached the client ID and the name of the user.</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>Set Profile</t>
+  </si>
+  <si>
+    <t>Add a image to the account. Also, define the addres of the user</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>Form whereit should be possible to change the password, adress and image</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>My Orders Section</t>
+  </si>
+  <si>
+    <t>List the orders that the user already had</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>Description of Order Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show the product list of the order that user seected </t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>Contact Us Page</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>Form to send message Section</t>
+  </si>
+  <si>
+    <t>Form with name, email, and description area.</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>Formal contacts Section with map</t>
+  </si>
+  <si>
+    <t>Map with the address of the store. Email and phone of the store</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>Testing and fix some bugs</t>
+  </si>
+  <si>
+    <t>Testing Shopping Cart</t>
+  </si>
+  <si>
+    <t>Test if we the product selected is in the shopping cart. Check if the shopping cart is the same when I log in in a different enviroment</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>Search Form, Sorting, Filtering, Pagination</t>
+  </si>
+  <si>
+    <t>Test if the Full Text Searching is working as it should be</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>Create account and Login Test</t>
+  </si>
+  <si>
+    <t>Create account, and see if it is succefully loged in. Also check if we restart the browser we need to log in again</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Check if the payment section knows if the payment is already done</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>Post Purchase Test</t>
+  </si>
+  <si>
+    <t>Check if user can purchase products.</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>Go Live / Deployment</t>
+  </si>
+  <si>
+    <t>Prepare server to receive a bigger amount of requests and lauch a version of the product</t>
+  </si>
+  <si>
+    <t>Total Time:</t>
+  </si>
+  <si>
+    <t>Tasks #</t>
+  </si>
+  <si>
+    <t>17D + 113H</t>
+  </si>
+  <si>
+    <t>113H =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113 = </t>
+  </si>
+  <si>
+    <t>~18D</t>
+  </si>
+  <si>
+    <t>Estimated time for 5 people:</t>
+  </si>
+  <si>
+    <t>Time to Finish:</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Assigne</t>
+  </si>
+  <si>
+    <t>No. of Tasks</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Type of Tasks</t>
+  </si>
+  <si>
     <t>Bugs</t>
-  </si>
-  <si>
-    <t>Categories as contact us, sitemap</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>Product Page</t>
-  </si>
-  <si>
-    <t>Filtering Option / Serach Product</t>
-  </si>
-  <si>
-    <t>Marina Camilo</t>
-  </si>
-  <si>
-    <t>Full Text Search Database Products</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>Top Selling Produc Slider</t>
-  </si>
-  <si>
-    <t>Victor Padi</t>
-  </si>
-  <si>
-    <t>Top Selling Products carousel</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>Product Category Section</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Products' miniatures, adjusted by the page dimensions</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>About Product Page</t>
-  </si>
-  <si>
-    <t>Product Descriptoin Section</t>
-  </si>
-  <si>
-    <t>Section where people can get more info about the product. How is it works? When is it recommend? How should be used? Components and benefits</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>Buying Option / Add to cart section</t>
-  </si>
-  <si>
-    <t>Make sure that when you open a new page the cart is the same. If anyone is log in, it keeps the card until the user drops it. Make sure that when a product is selected is on the shopping card section. It has to be possible to change the quantity of a product</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>Checkout and payment page</t>
-  </si>
-  <si>
-    <t>Get the total cost of the items of the cart in different coins. Confirm Deliver adress. Check the payment method.</t>
-  </si>
-  <si>
-    <t>T18</t>
-  </si>
-  <si>
-    <t>Blog page</t>
-  </si>
-  <si>
-    <t>Do a comment, change and delete user's loged in comments. See comments from other users, comment others users posts, give reactions to others user posts.</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>Events page</t>
-  </si>
-  <si>
-    <t>Creat, update and delete admin's events. See next evets.</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>Ecommerce Features</t>
-  </si>
-  <si>
-    <t>Inventory Management</t>
-  </si>
-  <si>
-    <t>Check stock in the store. Know the last bought products and their destiny. See statics of the goods sold. Control the stock requests. Annswer the question of the clients</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>Payment Getway integration</t>
-  </si>
-  <si>
-    <t>Conect to the payment portal. Check when the payment is done in the portal.</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>Confirmation and Shipment</t>
-  </si>
-  <si>
-    <t>Update the status order.</t>
-  </si>
-  <si>
-    <t>T24</t>
-  </si>
-  <si>
-    <t>Coupons and offers implementation</t>
-  </si>
-  <si>
-    <t>Generate unique numbers of coupons. Create a section to receive any coupon or offer. Check the validation of the coupon/offer</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
-    <t>T26</t>
-  </si>
-  <si>
-    <t>Admin Panel</t>
-  </si>
-  <si>
-    <t>Admin Login and Registration</t>
-  </si>
-  <si>
-    <t>Login should be visible during the site movimentation. Form for registration with name, last name, email and password. Add to the database the ew user.</t>
-  </si>
-  <si>
-    <t>T27</t>
-  </si>
-  <si>
-    <t>Product Upload implementation</t>
-  </si>
-  <si>
-    <t>Form with description, image, cost, and extra information sections. Add to the database the new poduct. It should be visible to users after filling the form</t>
-  </si>
-  <si>
-    <t>T28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offer and product update </t>
-  </si>
-  <si>
-    <t>Form with description, image, cost, and extra information sections. Update the database about the existing poduct. It should be visible to users after filling the form.</t>
-  </si>
-  <si>
-    <t>T29</t>
-  </si>
-  <si>
-    <t>Admin Logout</t>
-  </si>
-  <si>
-    <t>After closing the browser or click a botton, the admin account should be unacessible</t>
-  </si>
-  <si>
-    <t>T30</t>
-  </si>
-  <si>
-    <t>T31</t>
-  </si>
-  <si>
-    <t>T32</t>
-  </si>
-  <si>
-    <t>User Page</t>
-  </si>
-  <si>
-    <t>T33</t>
-  </si>
-  <si>
-    <t>User Login and Logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login should be visible during the site movimentation. Ater click the logout botton or close the browser the user account should be unacessible </t>
-  </si>
-  <si>
-    <t>T34</t>
-  </si>
-  <si>
-    <t>User Registration</t>
-  </si>
-  <si>
-    <t>Form for reistration with name last name, email and password. Add to the database the ew user.</t>
-  </si>
-  <si>
-    <t>T35</t>
-  </si>
-  <si>
-    <t>Report Problem System</t>
-  </si>
-  <si>
-    <t>Form with type of question, and a descrition section. When submited it should be attached the client ID and the name of the user.</t>
-  </si>
-  <si>
-    <t>T36</t>
-  </si>
-  <si>
-    <t>Set Profile</t>
-  </si>
-  <si>
-    <t>Add a image to the account. Also, define the addres of the user</t>
-  </si>
-  <si>
-    <t>T37</t>
-  </si>
-  <si>
-    <t>Update Profile</t>
-  </si>
-  <si>
-    <t>Form whereit should be possible to change the password, adress and image</t>
-  </si>
-  <si>
-    <t>T38</t>
-  </si>
-  <si>
-    <t>My Orders Section</t>
-  </si>
-  <si>
-    <t>List the orders that the user already had</t>
-  </si>
-  <si>
-    <t>T39</t>
-  </si>
-  <si>
-    <t>Description of Order Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show the product list of the order that user seected </t>
-  </si>
-  <si>
-    <t>T40</t>
-  </si>
-  <si>
-    <t>T41</t>
-  </si>
-  <si>
-    <t>Contact Us Page</t>
-  </si>
-  <si>
-    <t>T42</t>
-  </si>
-  <si>
-    <t>Form to send message Section</t>
-  </si>
-  <si>
-    <t>Form with name, email, and description area.</t>
-  </si>
-  <si>
-    <t>T43</t>
-  </si>
-  <si>
-    <t>Formal contacts Section with map</t>
-  </si>
-  <si>
-    <t>Map with the address of the store. Email and phone of the store</t>
-  </si>
-  <si>
-    <t>T44</t>
-  </si>
-  <si>
-    <t>T45</t>
-  </si>
-  <si>
-    <t>Testing and fix some bugs</t>
-  </si>
-  <si>
-    <t>Testing Shopping Cart</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Test if we the product selected is in the shopping cart. Check if the shopping cart is the same when I log in in a different enviroment</t>
-  </si>
-  <si>
-    <t>T46</t>
-  </si>
-  <si>
-    <t>Search Form, Sorting, Filtering, Pagination</t>
-  </si>
-  <si>
-    <t>Test if the Full Text Searching is working as it should be</t>
-  </si>
-  <si>
-    <t>T47</t>
-  </si>
-  <si>
-    <t>Create account and Login Test</t>
-  </si>
-  <si>
-    <t>Create account, and see if it is succefully loged in. Also check if we restart the browser we need to log in again</t>
-  </si>
-  <si>
-    <t>T48</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
-    <t>Check if the payment section knows if the payment is already done</t>
-  </si>
-  <si>
-    <t>T49</t>
-  </si>
-  <si>
-    <t>Post Purchase Test</t>
-  </si>
-  <si>
-    <t>Check if user can purchase products.</t>
-  </si>
-  <si>
-    <t>T50</t>
-  </si>
-  <si>
-    <t>Go Live / Deployment</t>
-  </si>
-  <si>
-    <t>Prepare server to receive a bigger amount of requests and lauch a version of the product</t>
-  </si>
-  <si>
-    <t>Total Time:</t>
-  </si>
-  <si>
-    <t>Tasks #</t>
-  </si>
-  <si>
-    <t>17D + 113H</t>
-  </si>
-  <si>
-    <t>113H =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113 = </t>
-  </si>
-  <si>
-    <t>~18D</t>
-  </si>
-  <si>
-    <t>Estimated time for 5 people:</t>
-  </si>
-  <si>
-    <t>Time to Finish:</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Assigne</t>
-  </si>
-  <si>
-    <t>No. of Tasks</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Type of Tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d"/>
-    <numFmt numFmtId="166" formatCode="m-d"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -625,23 +722,23 @@
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto Slab"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
     </font>
     <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Roboto Slab"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF1D2129"/>
       <name val="SFUIText-Regular"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -670,14 +767,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -699,63 +796,57 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -945,11 +1036,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1305043545"/>
-        <c:axId val="743746004"/>
+        <c:axId val="1679106159"/>
+        <c:axId val="1545273192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1305043545"/>
+        <c:axId val="1679106159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,10 +1072,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743746004"/>
+        <c:crossAx val="1545273192"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="743746004"/>
+        <c:axId val="1545273192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1305043545"/>
+        <c:crossAx val="1679106159"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1195,11 +1286,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2104878673"/>
-        <c:axId val="1367673364"/>
+        <c:axId val="1622712221"/>
+        <c:axId val="757157038"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2104878673"/>
+        <c:axId val="1622712221"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,10 +1305,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1367673364"/>
+        <c:crossAx val="757157038"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1367673364"/>
+        <c:axId val="757157038"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1339,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104878673"/>
+        <c:crossAx val="1622712221"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1264,6 +1355,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1392,10 +1487,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="2.0" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <pane xSplit="3.0" ySplit="2.0" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
       <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="C3" sqref="C3" pane="bottomRight"/>
+      <selection activeCell="D3" sqref="D3" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -1407,9 +1502,9 @@
     <col customWidth="1" min="6" max="6" width="22.43"/>
     <col customWidth="1" min="7" max="8" width="18.71"/>
     <col customWidth="1" min="9" max="9" width="25.86"/>
-    <col customWidth="1" min="10" max="10" width="27.14"/>
-    <col customWidth="1" hidden="1" min="11" max="11" width="21.14"/>
-    <col customWidth="1" hidden="1" min="12" max="12" width="17.86"/>
+    <col customWidth="1" min="10" max="10" width="24.71"/>
+    <col customWidth="1" min="11" max="11" width="21.14"/>
+    <col customWidth="1" min="12" max="12" width="17.86"/>
     <col customWidth="1" min="13" max="13" width="21.71"/>
     <col customWidth="1" min="14" max="14" width="24.29"/>
     <col customWidth="1" min="15" max="15" width="41.71"/>
@@ -1417,74 +1512,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
+      <c r="B2" s="1"/>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4">
         <v>16.0</v>
@@ -1492,37 +1588,43 @@
       <c r="E3" s="4">
         <v>5.0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L3" s="9">
         <v>43047.0</v>
       </c>
-      <c r="M3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0.1</v>
+      <c r="M3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4">
         <v>5.0</v>
@@ -1530,38 +1632,41 @@
       <c r="E4" s="4">
         <v>2.0</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L4" s="9">
         <v>43045.0</v>
       </c>
-      <c r="M4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0.2</v>
-      </c>
+      <c r="M4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D5" s="4">
         <v>4.0</v>
@@ -1569,49 +1674,51 @@
       <c r="E5" s="4">
         <v>0.0</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L5" s="9">
         <v>43046.0</v>
       </c>
-      <c r="M5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.3</v>
+      <c r="M5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4">
         <v>6.0</v>
@@ -1619,41 +1726,43 @@
       <c r="E7" s="4">
         <v>4.0</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L7" s="9">
         <v>43046.0</v>
       </c>
-      <c r="M7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>39</v>
+      <c r="M7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4">
         <v>8.0</v>
@@ -1661,41 +1770,43 @@
       <c r="E8" s="4">
         <v>2.0</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="K8" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L8" s="9">
         <v>43053.0</v>
       </c>
-      <c r="M8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0.3</v>
+      <c r="M8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4">
         <v>5.0</v>
@@ -1703,36 +1814,38 @@
       <c r="E9" s="4">
         <v>1.0</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L9" s="9">
         <v>43054.0</v>
       </c>
-      <c r="M9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0.3</v>
+      <c r="M9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D10" s="4">
         <v>5.0</v>
@@ -1740,49 +1853,51 @@
       <c r="E10" s="4">
         <v>2.0</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L10" s="9">
         <v>43048.0</v>
       </c>
-      <c r="M10" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0.3</v>
+      <c r="M10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="10"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>55</v>
+        <v>91</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4">
         <v>12.0</v>
@@ -1790,38 +1905,40 @@
       <c r="E12" s="4">
         <v>15.0</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="K12" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L12" s="9">
         <v>43048.0</v>
       </c>
-      <c r="M12" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0.3</v>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D13" s="4">
         <v>5.0</v>
@@ -1829,37 +1946,40 @@
       <c r="E13" s="4">
         <v>5.0</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>61</v>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L13" s="9">
         <v>43049.0</v>
       </c>
-      <c r="M13" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0.3</v>
+      <c r="M13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4">
         <v>8.0</v>
@@ -1867,47 +1987,50 @@
       <c r="E14" s="4">
         <v>8.0</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>61</v>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L14" s="9">
         <v>43052.0</v>
       </c>
-      <c r="M14" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.3</v>
+      <c r="M14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="I15" s="10"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4">
         <v>4.0</v>
@@ -1915,37 +2038,40 @@
       <c r="E16" s="4">
         <v>4.0</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>61</v>
+      <c r="F16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L16" s="9">
         <v>43048.0</v>
       </c>
-      <c r="M16" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.3</v>
+      <c r="M16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4">
         <v>8.0</v>
@@ -1953,37 +2079,40 @@
       <c r="E17" s="4">
         <v>8.0</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>61</v>
+      <c r="F17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>74</v>
+        <v>108</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L17" s="9">
         <v>43047.0</v>
       </c>
-      <c r="M17" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0.3</v>
+      <c r="M17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D18" s="4">
         <v>3.0</v>
@@ -1991,29 +2120,32 @@
       <c r="E18" s="4">
         <v>3.0</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>61</v>
+      <c r="F18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>77</v>
+        <v>111</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L18" s="9">
         <v>43048.0</v>
       </c>
-      <c r="M18" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0.3</v>
+      <c r="M18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2022,15 +2154,15 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="10"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D20" s="4">
         <v>8.0</v>
@@ -2039,28 +2171,31 @@
         <v>8.0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L20" s="9">
         <v>43055.0</v>
       </c>
-      <c r="M20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.3</v>
+      <c r="M20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -2069,15 +2204,15 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="10"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D22" s="4">
         <v>8.0</v>
@@ -2085,40 +2220,43 @@
       <c r="E22" s="4">
         <v>8.0</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>20</v>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>83</v>
+        <v>117</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L22" s="9">
         <v>43053.0</v>
       </c>
-      <c r="M22" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0.3</v>
+      <c r="M22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D23" s="4">
         <v>16.0</v>
@@ -2126,38 +2264,41 @@
       <c r="E23" s="4">
         <v>16.0</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>87</v>
+        <v>121</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L23" s="9">
         <v>43049.0</v>
       </c>
-      <c r="M23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0.3</v>
+      <c r="M23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D24" s="4">
         <v>16.0</v>
@@ -2165,37 +2306,38 @@
       <c r="E24" s="4">
         <v>16.0</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="I24" s="8" t="s">
-        <v>90</v>
+        <v>124</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L24" s="9">
         <v>43048.0</v>
       </c>
-      <c r="M24" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0.3</v>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D25" s="4">
         <v>5.0</v>
@@ -2203,37 +2345,40 @@
       <c r="E25" s="4">
         <v>5.0</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>20</v>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L25" s="9">
         <v>43046.0</v>
       </c>
-      <c r="M25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0.3</v>
+      <c r="M25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D26" s="4">
         <v>8.0</v>
@@ -2241,48 +2386,51 @@
       <c r="E26" s="4">
         <v>8.0</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H26" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>96</v>
+        <v>130</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L26" s="9">
         <v>43054.0</v>
       </c>
-      <c r="M26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0.3</v>
+      <c r="M26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="I27" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="I27" s="10"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D28" s="4">
         <v>8.0</v>
@@ -2290,37 +2438,40 @@
       <c r="E28" s="4">
         <v>8.0</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>21</v>
+      <c r="F28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>101</v>
+        <v>135</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L28" s="9">
         <v>43052.0</v>
       </c>
-      <c r="M28" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0.3</v>
+      <c r="M28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D29" s="4">
         <v>11.0</v>
@@ -2328,37 +2479,40 @@
       <c r="E29" s="4">
         <v>11.0</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>21</v>
+      <c r="F29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>104</v>
+        <v>138</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L29" s="9">
         <v>43052.0</v>
       </c>
-      <c r="M29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0.3</v>
+      <c r="M29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D30" s="4">
         <v>5.0</v>
@@ -2366,37 +2520,40 @@
       <c r="E30" s="4">
         <v>5.0</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>21</v>
+      <c r="F30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>107</v>
+        <v>141</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L30" s="9">
         <v>43053.0</v>
       </c>
-      <c r="M30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0.3</v>
+      <c r="M30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D31" s="4">
         <v>3.0</v>
@@ -2404,61 +2561,64 @@
       <c r="E31" s="4">
         <v>3.0</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>20</v>
+      <c r="F31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>110</v>
+        <v>144</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L31" s="9">
         <v>43055.0</v>
       </c>
-      <c r="M31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0.3</v>
+      <c r="M31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="I32" s="10"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="12"/>
+        <v>146</v>
+      </c>
+      <c r="I33" s="10"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="I34" s="10"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="D35" s="4">
         <v>4.0</v>
@@ -2466,37 +2626,40 @@
       <c r="E35" s="4">
         <v>4.0</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>57</v>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>117</v>
+        <v>151</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L35" s="9">
         <v>43049.0</v>
       </c>
-      <c r="M35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0.3</v>
+      <c r="M35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D36" s="4">
         <v>6.0</v>
@@ -2504,37 +2667,40 @@
       <c r="E36" s="4">
         <v>6.0</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>57</v>
+      <c r="F36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>120</v>
+        <v>154</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L36" s="9">
         <v>43052.0</v>
       </c>
-      <c r="M36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0.3</v>
+      <c r="M36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D37" s="4">
         <v>4.0</v>
@@ -2542,37 +2708,40 @@
       <c r="E37" s="4">
         <v>4.0</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>57</v>
+      <c r="F37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>123</v>
+        <v>157</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L37" s="9">
         <v>43054.0</v>
       </c>
-      <c r="M37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0.3</v>
+      <c r="M37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4">
         <v>8.0</v>
@@ -2580,37 +2749,40 @@
       <c r="E38" s="4">
         <v>8.0</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>27</v>
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>126</v>
+        <v>160</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L38" s="9">
         <v>43052.0</v>
       </c>
-      <c r="M38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0.3</v>
+      <c r="M38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="D39" s="4">
         <v>4.0</v>
@@ -2618,37 +2790,40 @@
       <c r="E39" s="4">
         <v>4.0</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>27</v>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>129</v>
+        <v>163</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L39" s="9">
         <v>43053.0</v>
       </c>
-      <c r="M39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0.3</v>
+      <c r="M39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="D40" s="4">
         <v>3.0</v>
@@ -2656,38 +2831,41 @@
       <c r="E40" s="4">
         <v>3.0</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>20</v>
+      <c r="F40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>132</v>
+        <v>166</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L40" s="9">
         <v>43054.0</v>
       </c>
-      <c r="M40" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0.3</v>
+      <c r="M40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D41" s="4">
         <v>3.0</v>
@@ -2695,54 +2873,57 @@
       <c r="E41" s="4">
         <v>3.0</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>27</v>
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>135</v>
+        <v>169</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L41" s="9">
         <v>43054.0</v>
       </c>
-      <c r="M41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0.3</v>
+      <c r="M41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" s="12"/>
+        <v>170</v>
+      </c>
+      <c r="I42" s="10"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="12"/>
+        <v>172</v>
+      </c>
+      <c r="I43" s="10"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D44" s="4">
         <v>5.0</v>
@@ -2750,37 +2931,40 @@
       <c r="E44" s="4">
         <v>5.0</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>27</v>
+      <c r="F44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>141</v>
+        <v>175</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L44" s="9">
         <v>43055.0</v>
       </c>
-      <c r="M44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N44" s="4">
-        <v>0.3</v>
+      <c r="M44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D45" s="4">
         <v>4.0</v>
@@ -2788,48 +2972,51 @@
       <c r="E45" s="4">
         <v>4.0</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>27</v>
+      <c r="F45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>144</v>
+        <v>178</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L45" s="9">
         <v>43047.0</v>
       </c>
-      <c r="M45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0.3</v>
+      <c r="M45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I46" s="12"/>
+        <v>179</v>
+      </c>
+      <c r="I46" s="10"/>
       <c r="L46" s="9"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D47" s="4">
         <v>6.0</v>
@@ -2837,37 +3024,40 @@
       <c r="E47" s="4">
         <v>6.0</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>57</v>
+      <c r="F47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>150</v>
+        <v>183</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L47" s="9">
         <v>43053.0</v>
       </c>
-      <c r="M47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0.3</v>
+      <c r="M47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="D48" s="4">
         <v>8.0</v>
@@ -2875,37 +3065,40 @@
       <c r="E48" s="4">
         <v>8.0</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>57</v>
+      <c r="F48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>153</v>
+        <v>186</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L48" s="9">
         <v>43054.0</v>
       </c>
-      <c r="M48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N48" s="4">
-        <v>0.3</v>
+      <c r="M48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="D49" s="4">
         <v>6.0</v>
@@ -2913,37 +3106,40 @@
       <c r="E49" s="4">
         <v>6.0</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>27</v>
+      <c r="F49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>156</v>
+        <v>189</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L49" s="9">
         <v>43055.0</v>
       </c>
-      <c r="M49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N49" s="4">
-        <v>0.3</v>
+      <c r="M49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D50" s="4">
         <v>3.0</v>
@@ -2951,37 +3147,40 @@
       <c r="E50" s="4">
         <v>3.0</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>27</v>
+      <c r="F50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>159</v>
+        <v>192</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L50" s="9">
         <v>43053.0</v>
       </c>
-      <c r="M50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N50" s="4">
-        <v>0.3</v>
+      <c r="M50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="D51" s="4">
         <v>4.0</v>
@@ -2989,37 +3188,40 @@
       <c r="E51" s="4">
         <v>4.0</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>61</v>
+      <c r="F51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>162</v>
+        <v>195</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L51" s="9">
         <v>43054.0</v>
       </c>
-      <c r="M51" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N51" s="4">
-        <v>0.3</v>
+      <c r="M51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="D52" s="4">
         <v>4.0</v>
@@ -3027,29 +3229,32 @@
       <c r="E52" s="4">
         <v>4.0</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>61</v>
+      <c r="F52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>165</v>
+        <v>198</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L52" s="9">
         <v>43056.0</v>
       </c>
-      <c r="M52" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N52" s="4">
-        <v>0.3</v>
+      <c r="M52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -3057,51 +3262,161 @@
     </row>
     <row r="55">
       <c r="D55" s="4" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="4" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="B57" s="4">
         <v>38.0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J57" s="4"/>
     </row>
     <row r="58">
       <c r="D58">
         <f>113/6.5</f>
         <v>17.38461538</v>
       </c>
+      <c r="J58" s="4"/>
     </row>
     <row r="59">
       <c r="D59" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="J59" s="4"/>
     </row>
     <row r="60">
       <c r="D60" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="J60" s="4"/>
     </row>
     <row r="61">
       <c r="C61" s="4" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="D61">
         <f>35/5</f>
         <v>7</v>
       </c>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="J79" s="4"/>
+    </row>
+    <row r="85">
+      <c r="J85" s="4"/>
+    </row>
+    <row r="89">
+      <c r="J89" s="4"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:G52">
+      <formula1>'Dropdown Lists'!$A$2:$A$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M3:M52">
+      <formula1>'Dropdown Lists'!$E$2:$E$30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="K3:K52">
+      <formula1>'Dropdown Lists'!$D$2:$D$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J52">
+      <formula1>'Dropdown Lists'!$C$2:$C$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="N3:N52">
+      <formula1>'Dropdown Lists'!$F$2:$F$22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H52">
+      <formula1>'Dropdown Lists'!$B$2:$B$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J2">
+      <formula1>"Data Base
+Backend
+Home Page,Data Base
+Home Page,Blog Page
+Home Page
+Produtos Page,Data Base
+Product Page,Shopping
+Blog Page,Data Base
+Events,Data Base
+Backend
+Backend,Shopping
+Admin,Data Base
+Admin
+User,Data Base
+User,Shopping
+User,Data Base,Shopping
+Cont"&amp;"act Us
+Shopping
+Data Base
+Admin,User
+Backend,Shopping
+Deployment"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -3114,189 +3429,399 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="15.14"/>
+    <col customWidth="1" min="2" max="2" width="16.14"/>
+    <col customWidth="1" min="3" max="3" width="22.57"/>
+    <col customWidth="1" min="4" max="4" width="15.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="4"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="15.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="B1">
         <f>sum(Sheet1!D3:D52)</f>
         <v>249</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>5</v>
+      <c r="A2" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A3)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="A4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="A6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A6)</f>
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>175</v>
+      <c r="A9" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>177</v>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A11)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <f>SUMIF(Sheet1!$F$3:$F$52,A11,Sheet1!$D$3:$D$52)</f>
         <v>51</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A12)</f>
         <v>8</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <f>SUMIF(Sheet1!$F$3:$F$52,A12,Sheet1!$D$3:$D$52)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A13)</f>
         <v>6</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <f>SUMIF(Sheet1!$F$3:$F$52,A13,Sheet1!$D$3:$D$52)</f>
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A14)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <f>SUMIF(Sheet1!$F$3:$F$52,A14,Sheet1!$D$3:$D$52)</f>
         <v>52</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A15)</f>
         <v>7</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <f>SUMIF(Sheet1!$F$3:$F$52,A15,Sheet1!$D$3:$D$52)</f>
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
-        <v>178</v>
+      <c r="A17" s="14" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="A18" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="16">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A18)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="18">
+      <c r="A19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="16">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A19)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="18">
+      <c r="A20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A20)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="A21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="16">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A21)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">

--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -96,139 +96,139 @@
     <t>Bug</t>
   </si>
   <si>
+    <t>Data Base</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>1.0.0.0</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>José Pedro Teles</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Rajesh Ghosh</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Backend,Shopping</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Marina Camilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Victor Padi</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Home Page,Data Base</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Home Page,Blog Page</t>
+  </si>
+  <si>
+    <t>Data Issue</t>
+  </si>
+  <si>
+    <t>Producs Page</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Produtos Page,Data Base</t>
+  </si>
+  <si>
+    <t>Product Page,Shopping</t>
+  </si>
+  <si>
+    <t>Blog Page,Data Base</t>
+  </si>
+  <si>
+    <t>Events Page,Data Base</t>
+  </si>
+  <si>
+    <t>Admin,Data Base</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>ORIGINAL ESTIMATION</t>
   </si>
   <si>
-    <t>Data Base</t>
-  </si>
-  <si>
-    <t>Very High</t>
-  </si>
-  <si>
-    <t>1.0.0.0</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>José Pedro Teles</t>
-  </si>
-  <si>
-    <t>Improvement</t>
-  </si>
-  <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Rajesh Ghosh</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Backend,Shopping</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Marina Camilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing </t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Stage</t>
+    <t>Admin,User</t>
+  </si>
+  <si>
+    <t>User,Data Base</t>
+  </si>
+  <si>
+    <t>User,Shopping</t>
+  </si>
+  <si>
+    <t>User,Data Base,Shopping</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>Shopping</t>
   </si>
   <si>
     <t>REMAINING ESTIMATION</t>
   </si>
   <si>
-    <t>Victor Padi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assigne </t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>Reporter</t>
   </si>
   <si>
-    <t>Home Page,Data Base</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>Home Page,Blog Page</t>
-  </si>
-  <si>
-    <t>Data Issue</t>
-  </si>
-  <si>
-    <t>Producs Page</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Produtos Page,Data Base</t>
-  </si>
-  <si>
-    <t>Product Page,Shopping</t>
-  </si>
-  <si>
-    <t>Blog Page,Data Base</t>
-  </si>
-  <si>
-    <t>Events Page,Data Base</t>
-  </si>
-  <si>
-    <t>Admin,Data Base</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Admin,User</t>
-  </si>
-  <si>
-    <t>User,Data Base</t>
-  </si>
-  <si>
-    <t>User,Shopping</t>
-  </si>
-  <si>
-    <t>User,Data Base,Shopping</t>
-  </si>
-  <si>
     <t>Type  of the task</t>
   </si>
   <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
     <t>Summary of Ticket</t>
-  </si>
-  <si>
-    <t>Shopping</t>
   </si>
   <si>
     <t>Dropdown Component</t>
@@ -1036,11 +1036,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1679106159"/>
-        <c:axId val="1545273192"/>
+        <c:axId val="1095875181"/>
+        <c:axId val="1505773934"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1679106159"/>
+        <c:axId val="1095875181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,10 +1072,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545273192"/>
+        <c:crossAx val="1505773934"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1545273192"/>
+        <c:axId val="1505773934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679106159"/>
+        <c:crossAx val="1095875181"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1286,11 +1286,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1622712221"/>
-        <c:axId val="757157038"/>
+        <c:axId val="582102750"/>
+        <c:axId val="52870556"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1622712221"/>
+        <c:axId val="582102750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,10 +1305,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="757157038"/>
+        <c:crossAx val="52870556"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="757157038"/>
+        <c:axId val="52870556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1339,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1622712221"/>
+        <c:crossAx val="582102750"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1519,22 +1519,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>55</v>
@@ -1592,28 +1592,28 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>67</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="L3" s="9">
         <v>43047.0</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>68</v>
@@ -1633,31 +1633,31 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="9">
         <v>43045.0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" s="4"/>
     </row>
@@ -1675,31 +1675,31 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="9">
         <v>43046.0</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1727,31 +1727,31 @@
         <v>4.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="9">
         <v>43046.0</v>
       </c>
       <c r="M7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>80</v>
@@ -1771,31 +1771,31 @@
         <v>2.0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>83</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="9">
         <v>43053.0</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>84</v>
@@ -1815,31 +1815,31 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="9">
         <v>43054.0</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1854,10 +1854,10 @@
         <v>2.0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
@@ -1866,19 +1866,19 @@
         <v>89</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="9">
         <v>43048.0</v>
       </c>
       <c r="M10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1906,31 +1906,31 @@
         <v>15.0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>94</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="9">
         <v>43048.0</v>
       </c>
       <c r="M12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1947,31 +1947,31 @@
         <v>5.0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>97</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="9">
         <v>43049.0</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1988,31 +1988,31 @@
         <v>8.0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>100</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="9">
         <v>43052.0</v>
       </c>
       <c r="M14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2039,31 +2039,31 @@
         <v>4.0</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>105</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="9">
         <v>43048.0</v>
       </c>
       <c r="M16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -2080,31 +2080,31 @@
         <v>8.0</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="9">
         <v>43047.0</v>
       </c>
       <c r="M17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -2121,10 +2121,10 @@
         <v>3.0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>9</v>
@@ -2133,19 +2133,19 @@
         <v>111</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="9">
         <v>43048.0</v>
       </c>
       <c r="M18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2171,31 +2171,31 @@
         <v>8.0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>114</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L20" s="9">
         <v>43055.0</v>
       </c>
       <c r="M20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -2221,31 +2221,31 @@
         <v>8.0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>117</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="9">
         <v>43053.0</v>
       </c>
       <c r="M22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -2268,28 +2268,28 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="9">
         <v>43049.0</v>
       </c>
       <c r="M23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -2307,29 +2307,29 @@
         <v>16.0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>124</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="9">
         <v>43048.0</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -2346,31 +2346,31 @@
         <v>5.0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>127</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="9">
         <v>43046.0</v>
       </c>
       <c r="M25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2387,31 +2387,31 @@
         <v>8.0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>130</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L26" s="9">
         <v>43054.0</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -2439,31 +2439,31 @@
         <v>8.0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>135</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28" s="9">
         <v>43052.0</v>
       </c>
       <c r="M28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -2480,31 +2480,31 @@
         <v>11.0</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>138</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L29" s="9">
         <v>43052.0</v>
       </c>
       <c r="M29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -2521,31 +2521,31 @@
         <v>5.0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>141</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L30" s="9">
         <v>43053.0</v>
       </c>
       <c r="M30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -2562,31 +2562,31 @@
         <v>3.0</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>144</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L31" s="9">
         <v>43055.0</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -2627,31 +2627,31 @@
         <v>4.0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>151</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35" s="9">
         <v>43049.0</v>
       </c>
       <c r="M35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2668,31 +2668,31 @@
         <v>6.0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" s="9">
         <v>43052.0</v>
       </c>
       <c r="M36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2709,31 +2709,31 @@
         <v>4.0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>157</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L37" s="9">
         <v>43054.0</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -2753,28 +2753,28 @@
         <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>160</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L38" s="9">
         <v>43052.0</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -2794,28 +2794,28 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>163</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L39" s="9">
         <v>43053.0</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
@@ -2838,25 +2838,25 @@
         <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>166</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L40" s="9">
         <v>43054.0</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -2877,28 +2877,28 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>169</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L41" s="9">
         <v>43054.0</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -2932,31 +2932,31 @@
         <v>5.0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>175</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L44" s="9">
         <v>43055.0</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -2973,31 +2973,31 @@
         <v>4.0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L45" s="9">
         <v>43047.0</v>
       </c>
       <c r="M45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -3025,31 +3025,31 @@
         <v>6.0</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>183</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L47" s="9">
         <v>43053.0</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -3066,31 +3066,31 @@
         <v>8.0</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>186</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L48" s="9">
         <v>43054.0</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -3107,31 +3107,31 @@
         <v>6.0</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>189</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L49" s="9">
         <v>43055.0</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -3148,31 +3148,31 @@
         <v>3.0</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>192</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L50" s="9">
         <v>43053.0</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -3189,31 +3189,31 @@
         <v>4.0</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>195</v>
       </c>
       <c r="J51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="L51" s="9">
         <v>43054.0</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -3230,31 +3230,31 @@
         <v>4.0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>198</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L52" s="9">
         <v>43056.0</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -3463,165 +3463,165 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -3656,12 +3656,12 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A3)</f>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A4)</f>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A6)</f>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="16">
         <f>COUNTIF(Sheet1!$G$3:$G$52,A7)</f>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A11)</f>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A12)</f>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A14)</f>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="16">
         <f>COUNTIF(Sheet1!$F$3:$F$52,A15)</f>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" s="16">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A19)</f>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="16">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A20)</f>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" s="16">
         <f>COUNTIF(Sheet1!$H$3:$H$52,A21)</f>

--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -93,21 +93,48 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="314">
   <si>
+    <t>SL#</t>
+  </si>
+  <si>
+    <t>TASK Name</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ORIGINAL ESTIMATION</t>
+  </si>
+  <si>
+    <t>Start Date for development</t>
+  </si>
+  <si>
     <t>Resourcing Plan</t>
   </si>
   <si>
+    <t>REMAINING ESTIMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigne </t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Type  of the task</t>
+  </si>
+  <si>
+    <t>Summary of Ticket</t>
+  </si>
+  <si>
     <t>Days</t>
   </si>
   <si>
     <t>Net Days</t>
   </si>
   <si>
-    <t>TASK Name</t>
-  </si>
-  <si>
-    <t>SL#</t>
-  </si>
-  <si>
     <t>Capacity</t>
   </si>
   <si>
@@ -117,36 +144,9 @@
     <t>Diff.</t>
   </si>
   <si>
-    <t>Start Date for development</t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>ORIGINAL ESTIMATION</t>
-  </si>
-  <si>
     <t>Dev Team</t>
   </si>
   <si>
-    <t>REMAINING ESTIMATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assigne </t>
-  </si>
-  <si>
-    <t>Reporter</t>
-  </si>
-  <si>
-    <t>Type  of the task</t>
-  </si>
-  <si>
-    <t>Summary of Ticket</t>
-  </si>
-  <si>
     <t>End date (code complete)</t>
   </si>
   <si>
@@ -207,6 +207,9 @@
     <t>Rajesh Ghosh</t>
   </si>
   <si>
+    <t>Q&amp;A Team</t>
+  </si>
+  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -231,6 +234,9 @@
     <t>T2</t>
   </si>
   <si>
+    <t>Dev Days in period</t>
+  </si>
+  <si>
     <t>Test server configaration (Local Share server)</t>
   </si>
   <si>
@@ -240,21 +246,27 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>Q&amp;A Team</t>
-  </si>
-  <si>
     <t>Test Local server</t>
   </si>
   <si>
     <t>Backend</t>
   </si>
   <si>
+    <t>Supported/unexpected</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>1. Test local server</t>
   </si>
   <si>
+    <t>National holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D projects </t>
+  </si>
+  <si>
     <t>Person 2</t>
   </si>
   <si>
@@ -286,9 +298,6 @@
   </si>
   <si>
     <t>Navbar</t>
-  </si>
-  <si>
-    <t>Dev Days in period</t>
   </si>
   <si>
     <t>Login, logout, company logo, filter, categories</t>
@@ -304,18 +313,6 @@
 5. Define the categories of the products and the website and order it. The sub categories should be showned when pass the mouse throw the categories name.</t>
   </si>
   <si>
-    <t>Supported/unexpected</t>
-  </si>
-  <si>
-    <t>National holidays</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D projects </t>
-  </si>
-  <si>
     <t>T6</t>
   </si>
   <si>
@@ -326,18 +323,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Holidays</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Support Unexpected</t>
   </si>
   <si>
     <t>1. Do a caroussel with boutstrap. 
@@ -351,21 +336,6 @@
     <t>Blog section</t>
   </si>
   <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Productivity Factor</t>
-  </si>
-  <si>
-    <t>Extra hours</t>
-  </si>
-  <si>
-    <t>Raw Work Days</t>
-  </si>
-  <si>
-    <t>Dev Days</t>
-  </si>
-  <si>
     <t>Part of the Home page where people can comment and ask help to buy products</t>
   </si>
   <si>
@@ -373,9 +343,6 @@
   </si>
   <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>ITM</t>
   </si>
   <si>
     <t>Stage</t>
@@ -460,6 +427,9 @@
     <t>Products' miniatures, adjusted by the page dimensions</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>1. Do template for the page
 2. Connect to database and get products 
 3. Be sure that when the windows is smaller are less products per line</t>
@@ -477,7 +447,19 @@
     <t>Product Descriptoin Section</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>Section where people can get more info about the product. How is it works? When is it recommend? How should be used? Components and benefits</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Support Unexpected</t>
   </si>
   <si>
     <t>1. Define box to put text and photo
@@ -491,7 +473,25 @@
     <t>Buying Option / Add to cart section</t>
   </si>
   <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Productivity Factor</t>
+  </si>
+  <si>
+    <t>Extra hours</t>
+  </si>
+  <si>
+    <t>Raw Work Days</t>
+  </si>
+  <si>
+    <t>Dev Days</t>
+  </si>
+  <si>
     <t>Make sure that when you open a new page the cart is the same. If anyone is log in, it keeps the card until the user drops it. Make sure that when a product is selected is on the shopping card section. It has to be possible to change the quantity of a product</t>
+  </si>
+  <si>
+    <t>ITM</t>
   </si>
   <si>
     <t>1. Define section to put the price and botton to add and substract to shopping cart
@@ -543,9 +543,6 @@
     <t>Events page</t>
   </si>
   <si>
-    <t>total:</t>
-  </si>
-  <si>
     <t>Creat, update and delete admin's events. See next evets.</t>
   </si>
   <si>
@@ -704,6 +701,9 @@
     <t>User Login and Logout</t>
   </si>
   <si>
+    <t>total:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login should be visible during the site movimentation. Ater click the logout botton or close the browser the user account should be unacessible </t>
   </si>
   <si>
@@ -836,24 +836,6 @@
     <t>Formal contacts Section with map</t>
   </si>
   <si>
-    <t>Descripion</t>
-  </si>
-  <si>
-    <t>Responsible</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>PRD</t>
-  </si>
-  <si>
-    <t>Additional Req.</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>Map with the address of the store. Email and phone of the store</t>
   </si>
   <si>
@@ -865,54 +847,84 @@
     <t>T44</t>
   </si>
   <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>Post Purchase Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Check if user can purchase products.</t>
+  </si>
+  <si>
+    <t>1. After purchse, should be visible in order section the purchase information</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>Go Live / Deployment</t>
+  </si>
+  <si>
+    <t>Prepare server to receive a bigger amount of requests and lauch a version of the product</t>
+  </si>
+  <si>
+    <t>1. Should go live and configure the system</t>
+  </si>
+  <si>
+    <t>Total Time:</t>
+  </si>
+  <si>
+    <t>Tasks #</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Total days:</t>
+  </si>
+  <si>
+    <t>Estimated time for 5 people:</t>
+  </si>
+  <si>
+    <t>Time to Finish:</t>
+  </si>
+  <si>
+    <t>Descripion</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>Additional Req.</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
     <t>Release status</t>
   </si>
   <si>
     <t>OPS</t>
   </si>
   <si>
-    <t>T49</t>
-  </si>
-  <si>
-    <t>Post Purchase Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing </t>
-  </si>
-  <si>
-    <t>Check if user can purchase products.</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>1. After purchse, should be visible in order section the purchase information</t>
-  </si>
-  <si>
-    <t>T50</t>
-  </si>
-  <si>
-    <t>Go Live / Deployment</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>Prepare server to receive a bigger amount of requests and lauch a version of the product</t>
-  </si>
-  <si>
     <t>Identify release version</t>
   </si>
   <si>
-    <t>1. Should go live and configure the system</t>
-  </si>
-  <si>
-    <t>Total Time:</t>
-  </si>
-  <si>
-    <t>Tasks #</t>
-  </si>
-  <si>
     <t>Q.A.</t>
   </si>
   <si>
@@ -925,15 +937,6 @@
     <t>https://drive.google.com/open?id=1GRLh7rSqZFQ-dSgLuu9HKy91Y4_AnDtw</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Total days:</t>
-  </si>
-  <si>
-    <t>Estimated time for 5 people:</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -949,12 +952,15 @@
     <t>Release leaders</t>
   </si>
   <si>
-    <t>Time to Finish:</t>
-  </si>
-  <si>
     <t>DEV</t>
   </si>
   <si>
+    <t>No. of Tasks</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
     <t>R6</t>
   </si>
   <si>
@@ -1036,10 +1042,10 @@
     <t>Confirmation message</t>
   </si>
   <si>
-    <t>No. of Tasks</t>
-  </si>
-  <si>
-    <t>Hours</t>
+    <t>Trello Link</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/y9dr8MYm/sprintboardecommercedev</t>
   </si>
   <si>
     <t>Type of Tasks</t>
@@ -1048,13 +1054,7 @@
     <t>Bugs</t>
   </si>
   <si>
-    <t>Trello Link</t>
-  </si>
-  <si>
     <t>Total Holidays</t>
-  </si>
-  <si>
-    <t>https://trello.com/b/y9dr8MYm/sprintboardecommercedev</t>
   </si>
   <si>
     <t>Dev Members:</t>
@@ -1144,6 +1144,13 @@
       <sz val="11.0"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
@@ -1156,11 +1163,8 @@
       <name val="SFUIText-Regular"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1185,10 +1189,6 @@
       <name val="Lato"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
@@ -1203,10 +1203,6 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11.0"/>
       <color rgb="FFF3F3F3"/>
       <name val="Lato"/>
@@ -1215,6 +1211,10 @@
       <b/>
       <color rgb="FFF3F3F3"/>
       <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1226,14 +1226,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
+        <fgColor rgb="FF3C78D8"/>
+        <bgColor rgb="FF3C78D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3C78D8"/>
-        <bgColor rgb="FF3C78D8"/>
+        <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1268,14 +1268,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
-        <bgColor rgb="FFBF9000"/>
+        <fgColor rgb="FF434343"/>
+        <bgColor rgb="FF434343"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor rgb="FF434343"/>
+        <fgColor rgb="FFBF9000"/>
+        <bgColor rgb="FFBF9000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1310,13 +1310,16 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1324,24 +1327,23 @@
     <xf borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -1352,68 +1354,68 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -1427,16 +1429,16 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1655,11 +1657,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="192031912"/>
-        <c:axId val="207470255"/>
+        <c:axId val="1200376105"/>
+        <c:axId val="456667841"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192031912"/>
+        <c:axId val="1200376105"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,10 +1693,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207470255"/>
+        <c:crossAx val="456667841"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207470255"/>
+        <c:axId val="456667841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1727,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192031912"/>
+        <c:crossAx val="1200376105"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1905,11 +1907,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="138933390"/>
-        <c:axId val="232742263"/>
+        <c:axId val="1175043299"/>
+        <c:axId val="1913736694"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138933390"/>
+        <c:axId val="1175043299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,10 +1926,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232742263"/>
+        <c:crossAx val="1913736694"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232742263"/>
+        <c:axId val="1913736694"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +1960,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138933390"/>
+        <c:crossAx val="1175043299"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2155,89 +2157,89 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>16.0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>5.0</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -2246,158 +2248,158 @@
       <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>38</v>
+      <c r="H3" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>41</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L3" s="17">
         <v>43047.0</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="Q3" s="11">
+      <c r="N3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="Q3" s="12">
         <v>3.0</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>44</v>
+      <c r="R3" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11">
+      <c r="B4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12">
         <v>5.0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>2.0</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>48</v>
+      <c r="H4" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>41</v>
+      <c r="J4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L4" s="17">
         <v>43045.0</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="M4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="12">
         <v>6.0</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>54</v>
+      <c r="R4" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="12">
         <v>5.0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>0.0</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>57</v>
+      <c r="H5" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L5" s="17">
         <v>43046.0</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="M5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="12">
         <v>6.0</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>44</v>
+      <c r="R5" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="I6" s="19"/>
       <c r="L6" s="17"/>
-      <c r="R6" s="11"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="A7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="12">
         <v>6.0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>4.0</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -2406,48 +2408,48 @@
       <c r="G7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>57</v>
+      <c r="H7" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L7" s="17">
         <v>43046.0</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N7" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O7" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="11">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="12">
         <v>1.0</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>44</v>
+      <c r="R7" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>8.0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>2.0</v>
       </c>
       <c r="F8" s="15" t="s">
@@ -2456,48 +2458,48 @@
       <c r="G8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>57</v>
+      <c r="H8" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="L8" s="17">
         <v>43053.0</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N8" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O8" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="11">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="12">
         <v>1.0</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>54</v>
+      <c r="R8" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="A9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="12">
         <v>5.0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>1.0</v>
       </c>
       <c r="F9" s="15" t="s">
@@ -2506,46 +2508,46 @@
       <c r="G9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>57</v>
+      <c r="H9" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="L9" s="17">
         <v>43054.0</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>93</v>
+      <c r="M9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="11">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="12">
         <v>3.0</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>44</v>
+      <c r="R9" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="A10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="12">
         <v>5.0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <v>2.0</v>
       </c>
       <c r="F10" s="15" t="s">
@@ -2554,498 +2556,498 @@
       <c r="G10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>96</v>
+      <c r="H10" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L10" s="17">
         <v>43048.0</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N10" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="11">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="12">
         <v>1.0</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>44</v>
+      <c r="R10" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="I11" s="18"/>
+      <c r="A11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="I11" s="19"/>
       <c r="L11" s="17"/>
-      <c r="O11" s="18"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="A12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="12">
         <v>12.0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>15.0</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L12" s="17">
         <v>43048.0</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N12" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" s="11">
+        <v>96</v>
+      </c>
+      <c r="Q12" s="12">
         <v>5.0</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>44</v>
+      <c r="R12" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="A13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="12">
         <v>5.0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>5.0</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>48</v>
+        <v>94</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L13" s="17">
         <v>43049.0</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="M13" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N13" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q13" s="11">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="12">
         <v>1.0</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>54</v>
+      <c r="R13" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="A14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="12">
         <v>8.0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>8.0</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="I14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>76</v>
+        <v>106</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L14" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N14" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" s="11">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="12">
         <v>2.0</v>
       </c>
-      <c r="R14" s="11" t="s">
-        <v>44</v>
+      <c r="R14" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="18"/>
+      <c r="A15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="19"/>
       <c r="L15" s="17"/>
-      <c r="O15" s="18"/>
-      <c r="R15" s="11"/>
+      <c r="O15" s="19"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="A16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="12">
         <v>4.0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="12">
         <v>4.0</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>116</v>
+      <c r="F16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L16" s="17">
         <v>43048.0</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="L17" s="17">
         <v>43047.0</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="12" t="s">
         <v>43</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="O17" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="12">
         <v>4.0</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>54</v>
+      <c r="R17" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <v>3.0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>3.0</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>96</v>
+      <c r="F18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>41</v>
+      <c r="K18" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L18" s="17">
         <v>43048.0</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="12" t="s">
         <v>43</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="12">
         <v>1.0</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>54</v>
+      <c r="R18" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="I19" s="18"/>
+      <c r="A19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="I19" s="19"/>
       <c r="L19" s="17"/>
-      <c r="O19" s="18"/>
+      <c r="O19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>8.0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>8.0</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>110</v>
+      <c r="F20" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>57</v>
+      <c r="H20" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>91</v>
+      <c r="K20" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="L20" s="17">
         <v>43055.0</v>
       </c>
-      <c r="M20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="11" t="s">
+      <c r="M20" s="12" t="s">
         <v>43</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="12">
         <v>2.0</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>44</v>
+      <c r="R20" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="I21" s="18"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="I21" s="19"/>
       <c r="L21" s="17"/>
-      <c r="O21" s="18"/>
-      <c r="R21" s="11" t="s">
-        <v>44</v>
+      <c r="O21" s="19"/>
+      <c r="R21" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <v>8.0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="12">
         <v>8.0</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>116</v>
+      <c r="H22" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>91</v>
+      <c r="K22" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="L22" s="17">
         <v>43053.0</v>
       </c>
-      <c r="M22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="11" t="s">
+      <c r="M22" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N22" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O22" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Q22" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
         <v>16.0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>16.0</v>
       </c>
       <c r="F23" s="15" t="s">
@@ -3054,147 +3056,147 @@
       <c r="G23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>116</v>
+      <c r="H23" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>41</v>
+        <v>147</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L23" s="17">
         <v>43049.0</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="11" t="s">
+      <c r="M23" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N23" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O23" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="Q23" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <v>16.0</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="12">
         <v>16.0</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>38</v>
+      <c r="H24" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I24" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>41</v>
+      <c r="K24" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L24" s="17">
         <v>43048.0</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11" t="s">
-        <v>43</v>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="O24" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q24" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <v>5.0</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>5.0</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>116</v>
+      <c r="H25" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>41</v>
+        <v>156</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L25" s="17">
         <v>43046.0</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="11" t="s">
+      <c r="M25" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N25" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O25" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="Q25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <v>8.0</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="12">
         <v>8.0</v>
       </c>
       <c r="F26" s="15" t="s">
@@ -3203,61 +3205,61 @@
       <c r="G26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>116</v>
+      <c r="H26" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>91</v>
+        <v>160</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="L26" s="17">
         <v>43054.0</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>93</v>
+      <c r="M26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O26" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="Q26" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="G27" s="15"/>
+      <c r="I27" s="19"/>
+      <c r="L27" s="17"/>
+      <c r="O27" s="19"/>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="I27" s="18"/>
-      <c r="L27" s="17"/>
-      <c r="O27" s="18"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <v>8.0</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="12">
         <v>8.0</v>
       </c>
       <c r="F28" s="15" t="s">
@@ -3266,480 +3268,480 @@
       <c r="G28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>116</v>
+      <c r="H28" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>99</v>
+      <c r="K28" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L28" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="M28" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N28" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O28" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Q28" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <v>11.0</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="12">
         <v>11.0</v>
       </c>
-      <c r="F29" s="27" t="s">
-        <v>110</v>
+      <c r="F29" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>116</v>
+      <c r="H29" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>76</v>
+        <v>171</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L29" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M29" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="11" t="s">
+      <c r="M29" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N29" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O29" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="Q29" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>5.0</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>5.0</v>
       </c>
-      <c r="F30" s="27" t="s">
-        <v>110</v>
+      <c r="F30" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>116</v>
+      <c r="H30" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>76</v>
+        <v>175</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L30" s="17">
         <v>43053.0</v>
       </c>
-      <c r="M30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="11" t="s">
+      <c r="M30" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N30" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="Q30" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>3.0</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="12">
         <v>3.0</v>
       </c>
-      <c r="F31" s="27" t="s">
-        <v>110</v>
+      <c r="F31" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>116</v>
+      <c r="H31" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I31" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>91</v>
+      <c r="K31" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="L31" s="17">
         <v>43055.0</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>93</v>
+      <c r="M31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O31" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="Q31" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="I32" s="19"/>
+      <c r="L32" s="17"/>
+      <c r="O32" s="19"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="L32" s="17"/>
-      <c r="O32" s="18"/>
-      <c r="R32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="I33" s="19"/>
+      <c r="L33" s="17"/>
+      <c r="O33" s="19"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="L33" s="17"/>
-      <c r="O33" s="18"/>
-      <c r="R33" s="11"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="I34" s="19"/>
+      <c r="L34" s="17"/>
+      <c r="O34" s="19"/>
+      <c r="R34" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="L34" s="17"/>
-      <c r="O34" s="18"/>
-      <c r="R34" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <v>4.0</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="12">
         <v>4.0</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G35" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>99</v>
+      <c r="K35" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L35" s="17">
         <v>43049.0</v>
       </c>
-      <c r="M35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="11" t="s">
+      <c r="M35" s="12" t="s">
         <v>43</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="12">
         <v>1.0</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>44</v>
+      <c r="R35" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <v>6.0</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="12">
         <v>6.0</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>99</v>
+      <c r="K36" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L36" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="11" t="s">
+      <c r="M36" s="12" t="s">
         <v>43</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="12">
         <v>1.0</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>54</v>
+      <c r="R36" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="12">
         <v>4.0</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="12">
         <v>4.0</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>91</v>
+      <c r="K37" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="L37" s="17">
         <v>43054.0</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>93</v>
+      <c r="M37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O37" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="12">
         <v>1.0</v>
       </c>
-      <c r="R37" s="11" t="s">
-        <v>44</v>
+      <c r="R37" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <v>8.0</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="12">
         <v>8.0</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>76</v>
+      <c r="K38" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L38" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>93</v>
+      <c r="M38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q38" s="12">
         <v>1.0</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>44</v>
+      <c r="R38" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <v>4.0</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="12">
         <v>4.0</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>76</v>
+      <c r="K39" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L39" s="17">
         <v>43053.0</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>93</v>
+      <c r="M39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O39" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="12">
         <v>1.0</v>
       </c>
-      <c r="R39" s="11" t="s">
-        <v>54</v>
+      <c r="R39" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="12">
         <v>3.0</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="12">
         <v>3.0</v>
       </c>
       <c r="F40" s="15" t="s">
@@ -3748,370 +3750,370 @@
       <c r="G40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>116</v>
+      <c r="H40" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>76</v>
+      <c r="K40" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L40" s="17">
         <v>43054.0</v>
       </c>
-      <c r="M40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>93</v>
+      <c r="M40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O40" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q40" s="12">
         <v>1.0</v>
       </c>
-      <c r="R40" s="11" t="s">
-        <v>54</v>
+      <c r="R40" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <v>3.0</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="12">
         <v>3.0</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>76</v>
+      <c r="K41" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L41" s="17">
         <v>43054.0</v>
       </c>
-      <c r="M41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>93</v>
+      <c r="M41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O41" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41" s="12">
         <v>1.0</v>
       </c>
-      <c r="R41" s="11" t="s">
-        <v>44</v>
+      <c r="R41" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="19"/>
       <c r="L42" s="17"/>
-      <c r="O42" s="18"/>
-      <c r="R42" s="11"/>
+      <c r="O42" s="19"/>
+      <c r="R42" s="12"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I43" s="18"/>
+      <c r="I43" s="19"/>
       <c r="L43" s="17"/>
-      <c r="O43" s="18"/>
-      <c r="R43" s="11"/>
+      <c r="O43" s="19"/>
+      <c r="R43" s="12"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="12">
         <v>5.0</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="12">
         <v>5.0</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>91</v>
+      <c r="K44" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="L44" s="17">
         <v>43055.0</v>
       </c>
-      <c r="M44" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>93</v>
+      <c r="M44" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O44" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="12">
         <v>2.0</v>
       </c>
-      <c r="R44" s="11" t="s">
-        <v>54</v>
+      <c r="R44" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="12">
         <v>4.0</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="12">
         <v>4.0</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>116</v>
+        <v>49</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="J45" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>41</v>
+      <c r="K45" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L45" s="17">
         <v>43047.0</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" s="11" t="s">
+      <c r="M45" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="N45" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O45" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q45" s="11">
+        <v>229</v>
+      </c>
+      <c r="Q45" s="12">
         <v>1.0</v>
       </c>
-      <c r="R45" s="11" t="s">
-        <v>44</v>
+      <c r="R45" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="I46" s="18"/>
+      <c r="A46" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" s="19"/>
       <c r="L46" s="17"/>
-      <c r="M46" s="11"/>
-      <c r="O46" s="18"/>
+      <c r="M46" s="12"/>
+      <c r="O46" s="19"/>
     </row>
     <row r="50">
-      <c r="R50" s="11"/>
+      <c r="R50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" s="11">
+      <c r="A51" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="12">
         <v>4.0</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="12">
         <v>4.0</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>241</v>
+        <v>94</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>76</v>
+        <v>234</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="L51" s="17">
         <v>43054.0</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O51" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q51" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R51" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D52" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E52" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="L52" s="17">
         <v>43056.0</v>
       </c>
-      <c r="M52" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>59</v>
+      <c r="M52" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q52" s="11">
+        <v>239</v>
+      </c>
+      <c r="Q52" s="12">
         <v>6.5</v>
       </c>
-      <c r="R52" s="11" t="s">
-        <v>54</v>
+      <c r="R52" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53">
-      <c r="M53" s="11"/>
-      <c r="O53" s="18"/>
+      <c r="M53" s="12"/>
+      <c r="O53" s="19"/>
     </row>
     <row r="54">
-      <c r="O54" s="18"/>
+      <c r="O54" s="19"/>
     </row>
     <row r="55">
-      <c r="D55" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="O55" s="18"/>
-      <c r="Q55" s="11" t="s">
-        <v>251</v>
+      <c r="D55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="O55" s="19"/>
+      <c r="Q55" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="11" t="s">
-        <v>252</v>
+      <c r="B56" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="D56">
         <f>SUM(D3:D52)</f>
         <v>227</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J56" s="12"/>
-      <c r="O56" s="18"/>
+      <c r="E56" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="O56" s="19"/>
       <c r="Q56">
         <f>SUM(Q3:Q52)</f>
         <v>70.5</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>257</v>
+      <c r="R56" s="12" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="11">
+      <c r="B57" s="12">
         <v>38.0</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="J57" s="11"/>
-      <c r="O57" s="18"/>
-      <c r="Q57" s="11" t="s">
-        <v>258</v>
+      <c r="D57" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="O57" s="19"/>
+      <c r="Q57" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="58">
@@ -4119,93 +4121,93 @@
         <f>D56/6.5</f>
         <v>34.92307692</v>
       </c>
-      <c r="J58" s="11"/>
-      <c r="O58" s="18"/>
+      <c r="J58" s="12"/>
+      <c r="O58" s="19"/>
       <c r="Q58">
         <f>Q56/6.5</f>
         <v>10.84615385</v>
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="O59" s="18"/>
+      <c r="D59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="O59" s="19"/>
     </row>
     <row r="60">
-      <c r="D60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="O60" s="18"/>
+      <c r="D60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="O60" s="19"/>
     </row>
     <row r="61">
-      <c r="C61" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="O61" s="18"/>
+      <c r="C61" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="J61" s="12"/>
+      <c r="O61" s="19"/>
     </row>
     <row r="62">
-      <c r="J62" s="11"/>
-      <c r="O62" s="18"/>
+      <c r="J62" s="12"/>
+      <c r="O62" s="19"/>
     </row>
     <row r="63">
-      <c r="J63" s="11"/>
-      <c r="O63" s="18"/>
+      <c r="J63" s="12"/>
+      <c r="O63" s="19"/>
     </row>
     <row r="64">
-      <c r="J64" s="11"/>
-      <c r="O64" s="18"/>
+      <c r="J64" s="12"/>
+      <c r="O64" s="19"/>
     </row>
     <row r="65">
-      <c r="J65" s="11"/>
-      <c r="O65" s="18"/>
+      <c r="J65" s="12"/>
+      <c r="O65" s="19"/>
     </row>
     <row r="66">
-      <c r="J66" s="11"/>
+      <c r="J66" s="12"/>
     </row>
     <row r="67">
-      <c r="J67" s="11"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68">
-      <c r="J68" s="11"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69">
-      <c r="J69" s="11"/>
+      <c r="J69" s="12"/>
     </row>
     <row r="70">
-      <c r="J70" s="11"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71">
-      <c r="J71" s="11"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72">
-      <c r="J72" s="11"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73">
-      <c r="J73" s="11"/>
+      <c r="J73" s="12"/>
     </row>
     <row r="74">
-      <c r="J74" s="11"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75">
-      <c r="J75" s="11"/>
+      <c r="J75" s="12"/>
     </row>
     <row r="76">
-      <c r="J76" s="11"/>
+      <c r="J76" s="12"/>
     </row>
     <row r="77">
-      <c r="J77" s="11"/>
+      <c r="J77" s="12"/>
     </row>
     <row r="78">
-      <c r="J78" s="11"/>
+      <c r="J78" s="12"/>
     </row>
     <row r="79">
-      <c r="J79" s="11"/>
+      <c r="J79" s="12"/>
     </row>
     <row r="85">
-      <c r="J85" s="11"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="89">
-      <c r="J89" s="11"/>
+      <c r="J89" s="12"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4275,46 +4277,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
         <v>43045.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>43067.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11">
+        <v>43068.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11">
+        <v>43073.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11">
+        <v>43074.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4333,36 +4341,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
-        <v>43045.0</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>12</v>
+      <c r="B2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G2">
         <f> CEILING(('TeamCap-2'!J8),1)</f>
@@ -4378,28 +4384,26 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7">
-        <v>43067.0</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3">
-        <f>DATEDIF(B2, B3, "D")</f>
+        <f>DATEDIF(DeliveryDates!B2, DeliveryDates!B3, "D")</f>
         <v>22</v>
       </c>
       <c r="D3">
-        <f>NETWORKDAYS(B2,B3)</f>
+        <f>NETWORKDAYS(DeliveryDates!B2,DeliveryDates!B3)</f>
         <v>17</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>49</v>
+      <c r="F3" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="G3">
         <f>CEILING(('TeamCap-2'!J14),1)</f>
         <v>14</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <f> CEILING(('All-Task'!Q58),1)</f>
         <v>11</v>
       </c>
@@ -4409,53 +4413,53 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>65</v>
+      <c r="A8" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="20">
-        <f>DATEDIF(B2, B3, "D")</f>
+        <f>C3</f>
         <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="12">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12">
         <v>0.05</v>
       </c>
     </row>
@@ -4490,52 +4494,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>88</v>
+      <c r="A1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="12">
         <f>HolidaysCal!C2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>2.0</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="27">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4543,10 +4547,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="12">
         <v>65.0</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
       <c r="I2">
         <f>'TeamCapacity-1'!$D$3-C2-D2-F2-E2</f>
         <v>13.15</v>
@@ -4557,20 +4561,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="A3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="12">
         <f>HolidaysCal!C3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>4.0</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="27">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4578,10 +4582,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>65.0</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3">
         <f>'TeamCapacity-1'!$D$3-C3-D3-F3-E3</f>
         <v>9.15</v>
@@ -4592,20 +4596,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="12">
         <f>HolidaysCal!C4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>1.0</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="27">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4613,10 +4617,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <v>100.0</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="12"/>
       <c r="I4">
         <f>'TeamCapacity-1'!$D$3-C4-D4-F4-E4</f>
         <v>12.15</v>
@@ -4627,20 +4631,20 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="12">
         <f>HolidaysCal!C5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>2.0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="27">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4648,10 +4652,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <v>30.0</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="12"/>
       <c r="I5">
         <f>'TeamCapacity-1'!$D$3-C5-D5-F5-E5</f>
         <v>13.15</v>
@@ -4662,20 +4666,20 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="A6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="12">
         <f>HolidaysCal!C6</f>
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>3.0</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="27">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4683,10 +4687,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>65.0</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="I6">
         <f>'TeamCapacity-1'!$D$3-C6-D6-F6-E6</f>
         <v>12.15</v>
@@ -4697,8 +4701,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>141</v>
+      <c r="A8" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">sum(C2:C6)</f>
@@ -4718,52 +4722,52 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>88</v>
+      <c r="A10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="25">
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="27">
         <f>HolidaysCal!C7</f>
         <v>3</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>2.0</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="27">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4771,10 +4775,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>65.0</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="12"/>
       <c r="I11">
         <f>'TeamCapacity-1'!$D$3-C11-D11-F11-E11</f>
         <v>11.15</v>
@@ -4785,20 +4789,20 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="25">
+      <c r="A12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="27">
         <f>HolidaysCal!C8</f>
         <v>3</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>4.0</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="27">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4806,10 +4810,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>65.0</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="12"/>
       <c r="I12">
         <f>'TeamCapacity-1'!$D$3-C12-D12-F12-E12</f>
         <v>9.15</v>
@@ -4820,8 +4824,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>141</v>
+      <c r="A14" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:D14" si="5">sum(C11:C12)</f>
@@ -4841,16 +4845,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4868,1190 +4872,1190 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>265</v>
+      <c r="A1" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="B1">
         <f>sum('All-Task'!D3:D52)</f>
         <v>227</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>257</v>
+      <c r="C1" s="12" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>15</v>
+      <c r="A2" s="28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="A3" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="36">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="A4" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="36">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="36">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="36">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A6)</f>
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="39">
+      <c r="A7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="36">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A7)</f>
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="40"/>
       <c r="B10" s="40" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="39">
+      <c r="A11" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="36">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A11)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="32">
         <f>SUMIF('All-Task'!$F$3:$F$52,A11,'All-Task'!$D$3:$D$52)</f>
         <v>52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="39">
+      <c r="A12" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="36">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="32">
         <f>SUMIF('All-Task'!$F$3:$F$52,A12,'All-Task'!$D$3:$D$52)</f>
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="36">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A13)</f>
         <v>6</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="32">
         <f>SUMIF('All-Task'!$F$3:$F$52,A13,'All-Task'!$D$3:$D$52)</f>
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="36">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A14)</f>
         <v>8</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="32">
         <f>SUMIF('All-Task'!$F$3:$F$52,A14,'All-Task'!$D$3:$D$52)</f>
         <v>49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="39">
+      <c r="A15" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="36">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A15)</f>
         <v>5</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="32">
         <f>SUMIF('All-Task'!$F$3:$F$52,A15,'All-Task'!$D$3:$D$52)</f>
         <v>34</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="37" t="s">
-        <v>296</v>
+      <c r="A17" s="28" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B18" s="39">
+      <c r="A18" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="36">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="39">
+      <c r="A19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="36">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A19)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="39">
+      <c r="A20" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="36">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A20)</f>
         <v>10</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="39">
+      <c r="A21" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="36">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A21)</f>
         <v>16</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
     </row>
     <row r="55">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
     </row>
     <row r="56">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
     </row>
     <row r="57">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
     </row>
     <row r="58">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
     </row>
     <row r="59">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
     </row>
     <row r="60">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
     </row>
     <row r="61">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
     </row>
     <row r="63">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
     </row>
     <row r="64">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
     </row>
     <row r="65">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
     </row>
     <row r="66">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
     </row>
     <row r="67">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
     </row>
     <row r="68">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
     </row>
     <row r="69">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
     </row>
     <row r="70">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
     </row>
     <row r="71">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
     </row>
     <row r="72">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
     </row>
     <row r="73">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
     </row>
     <row r="74">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
     </row>
     <row r="75">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
     </row>
     <row r="76">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
     </row>
     <row r="77">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
     </row>
     <row r="78">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
     </row>
     <row r="79">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
     </row>
     <row r="80">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
     </row>
     <row r="81">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
     </row>
     <row r="82">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
     </row>
     <row r="83">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
     </row>
     <row r="86">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
     </row>
     <row r="87">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
     </row>
     <row r="88">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
     </row>
     <row r="89">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
     </row>
     <row r="90">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
     </row>
     <row r="91">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
     </row>
     <row r="92">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
     </row>
     <row r="93">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
     </row>
     <row r="94">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
     </row>
     <row r="95">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
     </row>
     <row r="96">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
     </row>
     <row r="97">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
     </row>
     <row r="98">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
     </row>
     <row r="99">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
     </row>
     <row r="100">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
     </row>
     <row r="101">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
     </row>
     <row r="102">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
     </row>
     <row r="103">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
     </row>
     <row r="104">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
     </row>
     <row r="105">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
     </row>
     <row r="106">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
     </row>
     <row r="107">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
     </row>
     <row r="108">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
     </row>
     <row r="109">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
     </row>
     <row r="110">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
     </row>
     <row r="111">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
     </row>
     <row r="112">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
     </row>
     <row r="113">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
     </row>
     <row r="114">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
     </row>
     <row r="115">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
     </row>
     <row r="116">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
     </row>
     <row r="117">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
     </row>
     <row r="118">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
     </row>
     <row r="119">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
     </row>
     <row r="120">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
     </row>
     <row r="121">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
     </row>
     <row r="122">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
     </row>
     <row r="123">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
     </row>
     <row r="124">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
     </row>
     <row r="125">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
     </row>
     <row r="126">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
     </row>
     <row r="127">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
     </row>
     <row r="128">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
     </row>
     <row r="129">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
     </row>
     <row r="130">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
     </row>
     <row r="131">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
     </row>
     <row r="132">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
     </row>
     <row r="133">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
     </row>
     <row r="134">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
     </row>
     <row r="135">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
     </row>
     <row r="136">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
     </row>
     <row r="137">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
     </row>
     <row r="138">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
     </row>
     <row r="139">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
     </row>
     <row r="140">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
     </row>
     <row r="141">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
     </row>
     <row r="142">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
     </row>
     <row r="143">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
     </row>
     <row r="144">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
     </row>
     <row r="145">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
     </row>
     <row r="146">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
     </row>
     <row r="147">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
     </row>
     <row r="148">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
     </row>
     <row r="149">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
     </row>
     <row r="150">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
     </row>
     <row r="151">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
     </row>
     <row r="152">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
     </row>
     <row r="153">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
     </row>
     <row r="154">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
     </row>
     <row r="155">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
     </row>
     <row r="156">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
     </row>
     <row r="157">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
     </row>
     <row r="158">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
     </row>
     <row r="159">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
     </row>
     <row r="160">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
     </row>
     <row r="161">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
     </row>
     <row r="162">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
     </row>
     <row r="163">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
     </row>
     <row r="164">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
     </row>
     <row r="165">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
     </row>
     <row r="166">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
     </row>
     <row r="167">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
     </row>
     <row r="168">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
     </row>
     <row r="169">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
     </row>
     <row r="170">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
     </row>
     <row r="171">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
     </row>
     <row r="172">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
     </row>
     <row r="173">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
     </row>
     <row r="174">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
     </row>
     <row r="175">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
     </row>
     <row r="176">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
     </row>
     <row r="177">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
     </row>
     <row r="178">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
     </row>
     <row r="179">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
     </row>
     <row r="180">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
     </row>
     <row r="181">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
     </row>
     <row r="182">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
     </row>
     <row r="183">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
     </row>
     <row r="184">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
     </row>
     <row r="185">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
     </row>
     <row r="186">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
     </row>
     <row r="187">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
     </row>
     <row r="188">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
     </row>
     <row r="189">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
     </row>
     <row r="190">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
     </row>
     <row r="191">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
     </row>
     <row r="192">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
     </row>
     <row r="193">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
     </row>
     <row r="194">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
     </row>
     <row r="195">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
     </row>
     <row r="196">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
     </row>
     <row r="197">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
     </row>
     <row r="198">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
     </row>
     <row r="199">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
     </row>
     <row r="200">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
     </row>
     <row r="201">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
     </row>
     <row r="202">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
     </row>
     <row r="203">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
     </row>
     <row r="204">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
     </row>
     <row r="205">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
+      <c r="A205" s="12"/>
+      <c r="B205" s="12"/>
     </row>
     <row r="206">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
+      <c r="A206" s="12"/>
+      <c r="B206" s="12"/>
     </row>
     <row r="207">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="12"/>
+      <c r="B207" s="12"/>
     </row>
     <row r="208">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
+      <c r="A208" s="12"/>
+      <c r="B208" s="12"/>
     </row>
     <row r="209">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
+      <c r="A209" s="12"/>
+      <c r="B209" s="12"/>
     </row>
     <row r="210">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
     </row>
     <row r="211">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
+      <c r="A211" s="12"/>
+      <c r="B211" s="12"/>
     </row>
     <row r="212">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
+      <c r="A212" s="12"/>
+      <c r="B212" s="12"/>
     </row>
     <row r="213">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
+      <c r="A213" s="12"/>
+      <c r="B213" s="12"/>
     </row>
     <row r="214">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
     </row>
     <row r="215">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
+      <c r="A215" s="12"/>
+      <c r="B215" s="12"/>
     </row>
     <row r="216">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
+      <c r="A216" s="12"/>
+      <c r="B216" s="12"/>
     </row>
     <row r="217">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
+      <c r="A217" s="12"/>
+      <c r="B217" s="12"/>
     </row>
     <row r="218">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
+      <c r="A218" s="12"/>
+      <c r="B218" s="12"/>
     </row>
     <row r="219">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
+      <c r="A219" s="12"/>
+      <c r="B219" s="12"/>
     </row>
     <row r="220">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
+      <c r="A220" s="12"/>
+      <c r="B220" s="12"/>
     </row>
     <row r="221">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
+      <c r="A221" s="12"/>
+      <c r="B221" s="12"/>
     </row>
     <row r="222">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
+      <c r="A222" s="12"/>
+      <c r="B222" s="12"/>
     </row>
     <row r="223">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
+      <c r="A223" s="12"/>
+      <c r="B223" s="12"/>
     </row>
     <row r="224">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
+      <c r="A224" s="12"/>
+      <c r="B224" s="12"/>
     </row>
     <row r="225">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
+      <c r="A225" s="12"/>
+      <c r="B225" s="12"/>
     </row>
     <row r="226">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
+      <c r="A226" s="12"/>
+      <c r="B226" s="12"/>
     </row>
     <row r="227">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
+      <c r="A227" s="12"/>
+      <c r="B227" s="12"/>
     </row>
     <row r="228">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
+      <c r="A228" s="12"/>
+      <c r="B228" s="12"/>
     </row>
     <row r="229">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
+      <c r="A229" s="12"/>
+      <c r="B229" s="12"/>
     </row>
     <row r="230">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
     </row>
     <row r="231">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
+      <c r="A231" s="12"/>
+      <c r="B231" s="12"/>
     </row>
     <row r="232">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
+      <c r="A232" s="12"/>
+      <c r="B232" s="12"/>
     </row>
     <row r="233">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
+      <c r="A233" s="12"/>
+      <c r="B233" s="12"/>
     </row>
     <row r="234">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
     </row>
     <row r="235">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
+      <c r="A235" s="12"/>
+      <c r="B235" s="12"/>
     </row>
     <row r="236">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
+      <c r="A236" s="12"/>
+      <c r="B236" s="12"/>
     </row>
     <row r="237">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
+      <c r="A237" s="12"/>
+      <c r="B237" s="12"/>
     </row>
     <row r="238">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
+      <c r="A238" s="12"/>
+      <c r="B238" s="12"/>
     </row>
     <row r="239">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
+      <c r="A239" s="12"/>
+      <c r="B239" s="12"/>
     </row>
     <row r="240">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
     </row>
     <row r="241">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
+      <c r="A241" s="12"/>
+      <c r="B241" s="12"/>
     </row>
     <row r="242">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
+      <c r="A242" s="12"/>
+      <c r="B242" s="12"/>
     </row>
     <row r="243">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
+      <c r="A243" s="12"/>
+      <c r="B243" s="12"/>
     </row>
     <row r="244">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
+      <c r="A244" s="12"/>
+      <c r="B244" s="12"/>
     </row>
     <row r="245">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
+      <c r="A245" s="12"/>
+      <c r="B245" s="12"/>
     </row>
     <row r="246">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
+      <c r="A246" s="12"/>
+      <c r="B246" s="12"/>
     </row>
     <row r="247">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
     </row>
     <row r="248">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
     </row>
     <row r="249">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
+      <c r="A249" s="12"/>
+      <c r="B249" s="12"/>
     </row>
     <row r="250">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
     </row>
     <row r="251">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
     </row>
     <row r="252">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
+      <c r="A252" s="12"/>
+      <c r="B252" s="12"/>
     </row>
     <row r="253">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
+      <c r="A253" s="12"/>
+      <c r="B253" s="12"/>
     </row>
     <row r="254">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
+      <c r="A254" s="12"/>
+      <c r="B254" s="12"/>
     </row>
     <row r="255">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
+      <c r="A255" s="12"/>
+      <c r="B255" s="12"/>
     </row>
     <row r="256">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
+      <c r="A256" s="12"/>
+      <c r="B256" s="12"/>
     </row>
     <row r="257">
-      <c r="A257" s="11"/>
-      <c r="B257" s="11"/>
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
     </row>
     <row r="258">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
+      <c r="A258" s="12"/>
+      <c r="B258" s="12"/>
     </row>
     <row r="259">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
     </row>
     <row r="260">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
     </row>
     <row r="261">
-      <c r="A261" s="11"/>
-      <c r="B261" s="11"/>
+      <c r="A261" s="12"/>
+      <c r="B261" s="12"/>
     </row>
     <row r="262">
-      <c r="A262" s="11"/>
-      <c r="B262" s="11"/>
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
     </row>
     <row r="263">
-      <c r="A263" s="11"/>
-      <c r="B263" s="11"/>
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
     </row>
     <row r="264">
-      <c r="A264" s="11"/>
-      <c r="B264" s="11"/>
+      <c r="A264" s="12"/>
+      <c r="B264" s="12"/>
     </row>
     <row r="265">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
     </row>
     <row r="266">
-      <c r="A266" s="11"/>
-      <c r="B266" s="11"/>
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
     </row>
     <row r="267">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
+      <c r="A267" s="12"/>
+      <c r="B267" s="12"/>
     </row>
     <row r="268">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
+      <c r="A268" s="12"/>
+      <c r="B268" s="12"/>
     </row>
     <row r="269">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
     </row>
     <row r="270">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
     </row>
     <row r="271">
-      <c r="A271" s="11"/>
-      <c r="B271" s="11"/>
+      <c r="A271" s="12"/>
+      <c r="B271" s="12"/>
     </row>
     <row r="272">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
+      <c r="A272" s="12"/>
+      <c r="B272" s="12"/>
     </row>
     <row r="273">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
+      <c r="A273" s="12"/>
+      <c r="B273" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6083,813 +6087,813 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>232</v>
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="31"/>
+      <c r="A2" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="33"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="39">
+        <v>43068.0</v>
+      </c>
+      <c r="F5" s="39">
+        <v>43069.0</v>
+      </c>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="32" t="s">
+      <c r="E8" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="F8" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="36">
-        <v>43068.0</v>
-      </c>
-      <c r="F5" s="36">
-        <v>43069.0</v>
-      </c>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="E12" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="32" t="s">
+      <c r="E15" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16" s="34"/>
+      <c r="E16" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="37"/>
     </row>
     <row r="17">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G17" s="34"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="37"/>
     </row>
     <row r="18">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G18" s="34"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="37"/>
     </row>
     <row r="19">
-      <c r="A19" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="B19" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="34"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="37"/>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="E20" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G20" s="34"/>
+      <c r="F20" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="37"/>
     </row>
     <row r="21">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22">
-      <c r="A22" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="34"/>
+      <c r="A22" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="37"/>
     </row>
     <row r="23">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24">
-      <c r="A24" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="32" t="s">
+      <c r="A24" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G25" s="34"/>
+      <c r="E25" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="37"/>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G26" s="34"/>
+      <c r="A26" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="37"/>
     </row>
     <row r="27">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="43">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
     </row>
     <row r="44">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
     </row>
     <row r="45">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
     </row>
     <row r="47">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
     </row>
     <row r="48">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
     </row>
     <row r="50">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
     </row>
     <row r="51">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
     </row>
     <row r="52">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
     </row>
     <row r="54">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
     </row>
     <row r="56">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
     </row>
     <row r="57">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
     </row>
     <row r="58">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
     </row>
     <row r="59">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
     </row>
     <row r="60">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
     </row>
     <row r="61">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
     </row>
     <row r="62">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
     </row>
     <row r="63">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
     </row>
     <row r="64">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
     </row>
     <row r="65">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F4 E6:F12 E15:F20 E22:F22 E24:F26">
@@ -6955,17 +6959,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="28.14"/>
-    <col customWidth="1" min="7" max="7" width="21.43"/>
   </cols>
   <sheetData>
     <row r="7">
-      <c r="D7" s="5" t="s">
-        <v>298</v>
+      <c r="D7" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="42" t="s">
-        <v>300</v>
+      <c r="D9" s="41" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -6996,32 +6999,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="A1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C2" s="45">
         <f>COUNTIF(B16:B38,"=1")</f>
@@ -7030,10 +7033,10 @@
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C3" s="46">
         <f>COUNTIF(C16:C38,"=1")</f>
@@ -7045,7 +7048,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C4" s="45">
         <f>COUNTIF(D16:D38,"=1")</f>
@@ -7054,10 +7057,10 @@
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C5" s="46">
         <f>COUNTIF(E16:E38,"=1")</f>
@@ -7066,10 +7069,10 @@
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C6" s="46">
         <f>COUNTIF(F16:F38,"=1")</f>
@@ -7078,10 +7081,10 @@
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C7" s="46">
         <f>COUNTIF(G16:G38,"=1")</f>
@@ -7090,10 +7093,10 @@
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C8" s="46">
         <f>COUNTIF(H16:H38,"=1")</f>
@@ -7113,246 +7116,246 @@
       <c r="C12" s="45"/>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>54</v>
+      <c r="E15" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>43045.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>43046.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>43047.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>43048.0</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>43049.0</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>1.0</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>1.0</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>1.0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>1.0</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="12">
         <v>1.0</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="12">
         <v>1.0</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>43050.0</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>43051.0</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>43052.0</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>43053.0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>43054.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>43055.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>43056.0</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>43057.0</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>43058.0</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>43059.0</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>43060.0</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="G31" s="11">
+      <c r="C31" s="12"/>
+      <c r="G31" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>43061.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>43062.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>43063.0</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>43064.0</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>43065.0</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>43066.0</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>43067.0</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="40">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7373,28 +7376,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7402,48 +7405,48 @@
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>253</v>
+      <c r="G2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7451,145 +7454,145 @@
       <c r="A4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>238</v>
+      <c r="B4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>282</v>
+        <v>94</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>262</v>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15"/>
-      <c r="B7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>90</v>
+      <c r="B7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>112</v>
+      <c r="B9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="11" t="s">
-        <v>143</v>
+      <c r="C12" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="11" t="s">
-        <v>168</v>
+      <c r="C13" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="11" t="s">
-        <v>181</v>
+      <c r="C14" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="11" t="s">
-        <v>59</v>
+      <c r="C21" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="11"/>
+      <c r="C22" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -12,6 +12,7 @@
     <sheet state="visible" name="SprintBoard" sheetId="7" r:id="rId9"/>
     <sheet state="visible" name="HolidaysCal" sheetId="8" r:id="rId10"/>
     <sheet state="visible" name="Dropdown Lists" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="Stand-ups Examples" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -37,6 +38,12 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="D35">
+      <text>
+        <t xml:space="preserve">I'm not sure if this is a good guess :(
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="E35">
       <text>
         <t xml:space="preserve">I'm not sure if this is a good guess :(
@@ -47,22 +54,6 @@
       <text>
         <t xml:space="preserve">This includes login, pass, adress (if we want), and method of contact.
 </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D36">
-      <text>
-        <t xml:space="preserve">This one is too like 1D or 2D
-	-Rajesh Ghosh
-1 Day probably
-	-Filipa Franco</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D35">
-      <text>
-        <t xml:space="preserve">I'm not sure if this is a good guess :(
-----
-haha yeah not a good guess this one should be like 6H/1D or something like that
-	-Rajesh Ghosh</t>
       </text>
     </comment>
   </commentList>
@@ -91,27 +82,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="334">
   <si>
     <t>SL#</t>
   </si>
   <si>
+    <t>Resourcing Plan</t>
+  </si>
+  <si>
     <t>TASK Name</t>
   </si>
   <si>
     <t>TASK</t>
   </si>
   <si>
+    <t>ORIGINAL ESTIMATION</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Net Days</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>ORIGINAL ESTIMATION</t>
-  </si>
-  <si>
     <t>Start Date for development</t>
   </si>
   <si>
-    <t>Resourcing Plan</t>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Estimates</t>
+  </si>
+  <si>
+    <t>Diff.</t>
+  </si>
+  <si>
+    <t>Dev Team</t>
   </si>
   <si>
     <t>REMAINING ESTIMATION</t>
@@ -129,22 +138,31 @@
     <t>Summary of Ticket</t>
   </si>
   <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Net Days</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Estimates</t>
-  </si>
-  <si>
-    <t>Diff.</t>
-  </si>
-  <si>
-    <t>Dev Team</t>
+    <t>Dropdown Component</t>
+  </si>
+  <si>
+    <t>Priority of Ticket</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Fix Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Q&amp;A (Time)</t>
+  </si>
+  <si>
+    <t>Assigne</t>
   </si>
   <si>
     <t>End date (code complete)</t>
@@ -153,33 +171,6 @@
     <t>Begin Regression Date</t>
   </si>
   <si>
-    <t>Dropdown Component</t>
-  </si>
-  <si>
-    <t>Priority of Ticket</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Fix Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment </t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Attachment</t>
-  </si>
-  <si>
-    <t>Q&amp;A (Time)</t>
-  </si>
-  <si>
-    <t>Assigne</t>
-  </si>
-  <si>
     <t>Gold version</t>
   </si>
   <si>
@@ -204,12 +195,12 @@
     <t>Cansu Salkıç</t>
   </si>
   <si>
+    <t>Q&amp;A Team</t>
+  </si>
+  <si>
     <t>Rajesh Ghosh</t>
   </si>
   <si>
-    <t>Q&amp;A Team</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -222,6 +213,9 @@
     <t>Very High</t>
   </si>
   <si>
+    <t>Dev Days in period</t>
+  </si>
+  <si>
     <t>1.0.0.0</t>
   </si>
   <si>
@@ -234,15 +228,21 @@
     <t>T2</t>
   </si>
   <si>
-    <t>Dev Days in period</t>
-  </si>
-  <si>
     <t>Test server configaration (Local Share server)</t>
   </si>
   <si>
+    <t>Supported/unexpected</t>
+  </si>
+  <si>
     <t>José Pedro Teles</t>
   </si>
   <si>
+    <t>National holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D projects </t>
+  </si>
+  <si>
     <t>Exception</t>
   </si>
   <si>
@@ -252,19 +252,10 @@
     <t>Backend</t>
   </si>
   <si>
-    <t>Supported/unexpected</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>1. Test local server</t>
-  </si>
-  <si>
-    <t>National holidays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D projects </t>
   </si>
   <si>
     <t>Person 2</t>
@@ -387,6 +378,9 @@
     <t>Marina Camilo</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Full Text Search Database Products</t>
   </si>
   <si>
@@ -395,19 +389,49 @@
 3. Link to other page to how the result of search</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
     <t>T11</t>
   </si>
   <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Support Unexpected</t>
+  </si>
+  <si>
     <t>Top Selling Produc Slider</t>
   </si>
   <si>
     <t>Victor Padi</t>
   </si>
   <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Productivity Factor</t>
+  </si>
+  <si>
+    <t>Extra hours</t>
+  </si>
+  <si>
+    <t>Raw Work Days</t>
+  </si>
+  <si>
+    <t>Dev Days</t>
+  </si>
+  <si>
     <t>Top Selling Products carousel</t>
   </si>
   <si>
     <t>Produtos Page,Data Base</t>
+  </si>
+  <si>
+    <t>ITM</t>
   </si>
   <si>
     <t>1. Do a caroussel with boutstrap. 
@@ -427,9 +451,6 @@
     <t>Products' miniatures, adjusted by the page dimensions</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>1. Do template for the page
 2. Connect to database and get products 
 3. Be sure that when the windows is smaller are less products per line</t>
@@ -447,19 +468,7 @@
     <t>Product Descriptoin Section</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Section where people can get more info about the product. How is it works? When is it recommend? How should be used? Components and benefits</t>
-  </si>
-  <si>
-    <t>Holidays</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Support Unexpected</t>
   </si>
   <si>
     <t>1. Define box to put text and photo
@@ -473,25 +482,7 @@
     <t>Buying Option / Add to cart section</t>
   </si>
   <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Productivity Factor</t>
-  </si>
-  <si>
-    <t>Extra hours</t>
-  </si>
-  <si>
-    <t>Raw Work Days</t>
-  </si>
-  <si>
-    <t>Dev Days</t>
-  </si>
-  <si>
     <t>Make sure that when you open a new page the cart is the same. If anyone is log in, it keeps the card until the user drops it. Make sure that when a product is selected is on the shopping card section. It has to be possible to change the quantity of a product</t>
-  </si>
-  <si>
-    <t>ITM</t>
   </si>
   <si>
     <t>1. Define section to put the price and botton to add and substract to shopping cart
@@ -619,6 +610,9 @@
     <t>T25</t>
   </si>
   <si>
+    <t>total:</t>
+  </si>
+  <si>
     <t>T26</t>
   </si>
   <si>
@@ -701,9 +695,6 @@
     <t>User Login and Logout</t>
   </si>
   <si>
-    <t>total:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Login should be visible during the site movimentation. Ater click the logout botton or close the browser the user account should be unacessible </t>
   </si>
   <si>
@@ -808,10 +799,16 @@
     <t>T40</t>
   </si>
   <si>
+    <t>Time to Finish:</t>
+  </si>
+  <si>
     <t>T41</t>
   </si>
   <si>
     <t>Contact Us Page</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <t>T42</t>
@@ -847,18 +844,45 @@
     <t>T44</t>
   </si>
   <si>
+    <t>Descripion</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>Additional Req.</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
     <t>T49</t>
   </si>
   <si>
     <t>Post Purchase Test</t>
   </si>
   <si>
+    <t>Release status</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testing </t>
   </si>
   <si>
     <t>Check if user can purchase products.</t>
   </si>
   <si>
+    <t>OPS</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>1. After purchse, should be visible in order section the purchase information</t>
   </si>
   <si>
@@ -871,6 +895,9 @@
     <t>Prepare server to receive a bigger amount of requests and lauch a version of the product</t>
   </si>
   <si>
+    <t>R1</t>
+  </si>
+  <si>
     <t>1. Should go live and configure the system</t>
   </si>
   <si>
@@ -880,70 +907,40 @@
     <t>Tasks #</t>
   </si>
   <si>
-    <t>H</t>
+    <t>Identify release version</t>
+  </si>
+  <si>
+    <t>Q.A.</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Location of package / Artifact</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GRLh7rSqZFQ-dSgLuu9HKy91Y4_AnDtw</t>
   </si>
   <si>
     <t>Total days:</t>
   </si>
   <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Release date</t>
+  </si>
+  <si>
+    <t>P.M.</t>
+  </si>
+  <si>
+    <t>No. of Tasks</t>
+  </si>
+  <si>
     <t>Estimated time for 5 people:</t>
   </si>
   <si>
-    <t>Time to Finish:</t>
-  </si>
-  <si>
-    <t>Descripion</t>
-  </si>
-  <si>
-    <t>Responsible</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>PRD</t>
-  </si>
-  <si>
-    <t>Additional Req.</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>Release status</t>
-  </si>
-  <si>
-    <t>OPS</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Identify release version</t>
-  </si>
-  <si>
-    <t>Q.A.</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Location of package / Artifact</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1GRLh7rSqZFQ-dSgLuu9HKy91Y4_AnDtw</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Release date</t>
-  </si>
-  <si>
-    <t>P.M.</t>
+    <t>Hours</t>
   </si>
   <si>
     <t>R5</t>
@@ -955,12 +952,6 @@
     <t>DEV</t>
   </si>
   <si>
-    <t>No. of Tasks</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
@@ -1018,6 +1009,12 @@
     <t>Priviliges</t>
   </si>
   <si>
+    <t>Type of Tasks</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -1048,12 +1045,6 @@
     <t>https://trello.com/b/y9dr8MYm/sprintboardecommercedev</t>
   </si>
   <si>
-    <t>Type of Tasks</t>
-  </si>
-  <si>
-    <t>Bugs</t>
-  </si>
-  <si>
     <t>Total Holidays</t>
   </si>
   <si>
@@ -1094,6 +1085,117 @@
   </si>
   <si>
     <t>Shopping</t>
+  </si>
+  <si>
+    <t>Team members</t>
+  </si>
+  <si>
+    <t>Done yesterday</t>
+  </si>
+  <si>
+    <t>To be done</t>
+  </si>
+  <si>
+    <t>Obstacles</t>
+  </si>
+  <si>
+    <t>Home page (Navbar)
+Yesterday, I started with the implemention and design of
+the home page. I begin implementing the Navegation bar
+and setting the bases for the page.</t>
+  </si>
+  <si>
+    <t>Admin Login and Registration
+I will continue doing the method for the adming to sign in
+and join in safely, designing and implementing (or choosing)
+the secure algorithm for communication between the client and the server.</t>
+  </si>
+  <si>
+    <t>There wasn't any major problem, but the implementation of design
+of the page should be parallel to check if all fit how it should it be.
+If I don't get the other parts, I cannot know if this is going to be right.</t>
+  </si>
+  <si>
+    <t>Test server configuration
+I was proving and testing the initial and temporal test server last day.
+I adjusted some paramaters to see if the configuration of the page
+could work with a optimal perfomance.</t>
+  </si>
+  <si>
+    <t>Preparing Deployment Environment
+Next thing in my schedule is to prepare the enviroment which will run the deployable
+version of our product. This setting will be the final, so I need to check it out carefully
+and maybe I'll need some help.</t>
+  </si>
+  <si>
+    <t>There were some bugs in the testing, and
+I needed to figure out how to solve them before
+I could test it properly. Therefore, I couldn't finish all the
+task on time. I will need some help or some time
+to get back on schedule. I can't prepare the deployement
+enviroment without testing the page correctly.</t>
+  </si>
+  <si>
+    <t>Product Page : Filtering Option / Search Product
+The last thing I've done is implementing the search method to help the
+users finding the exact product they want.  It's only a prototype because we 
+need some feedback first to know what is relevant to give it more importance
+than other products.</t>
+  </si>
+  <si>
+    <t>Product Page : Top Selling Product Slider
+As soon as I finish the search method, I'll do the implementation about the best-sellers
+in the page. Thanks to the feedback adquired in my last task, It'll be easy to create this
+part of the page.</t>
+  </si>
+  <si>
+    <t>Until I get some real feedback about how the clients use the page
+and want to find something, I won't be able to adjust the search
+good enough. This is an early version and We need to get back to
+improve it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Page : Set profile
+I have been in charge of setting the basics and bases of the user page. Yesterday,
+I did the profile setter, so now we can now how the information will be structured. 
+The users will be able to put their names, dates of birth, shipping adress and some other
+basic information easily.
+</t>
+  </si>
+  <si>
+    <t>User Page : update profile
+As the setter of the profile of the user is done, I'll continue how the users will update 
+the information of their profiles. It will be some simple stuff to not complicate the use of
+the page and keep it simple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The setter need to not have any problem or bug, because the
+updater will continue the structure of the setter. And if the setter is
+wrong, the updater is too. We have to be really sure about it before
+moving on.
+</t>
+  </si>
+  <si>
+    <t>Víctor Padilla</t>
+  </si>
+  <si>
+    <t>about product page : add to cart
+What I did yesterday was implementing the buying option for a product. I looked how some
+succesful pages have done it and wanted to do it something similar but adapting it to the 
+enviroment of our page. I'll be quick and simple and you can add multiple items of the same
+product at the same time.</t>
+  </si>
+  <si>
+    <t>About product page : product description
+Once finished the buying option, I will start with how the description will look like and 
+work. I'll keep it clear and easy to update for the sellers, with some verification of the
+matching of the product with it description.</t>
+  </si>
+  <si>
+    <t>We need the cooperation of some banks or payment companies to
+introduce features that will facilate the buy of a product directly, 
+because we don't have the permissions to do it by ourserlves.
+Until we get the autorization to do it, we can't implement all of it.</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1206,7 @@
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1147,14 +1249,14 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto Slab"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -1199,7 +1301,17 @@
       <name val="Lato"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
       <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto Slab"/>
     </font>
     <font>
       <b/>
@@ -1208,13 +1320,23 @@
       <name val="Lato"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF1D2129"/>
+      <name val="Lato"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FFF3F3F3"/>
       <name val="Lato"/>
     </font>
     <font>
-      <b/>
+      <sz val="12.0"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
+      <name val="Lato"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1297,21 +1419,32 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1327,16 +1460,19 @@
     <xf borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1351,10 +1487,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1365,14 +1501,14 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -1397,24 +1533,24 @@
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1423,21 +1559,55 @@
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1657,11 +1827,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1200376105"/>
-        <c:axId val="456667841"/>
+        <c:axId val="914390404"/>
+        <c:axId val="1345052217"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1200376105"/>
+        <c:axId val="914390404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,10 +1863,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456667841"/>
+        <c:crossAx val="1345052217"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456667841"/>
+        <c:axId val="1345052217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1897,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1200376105"/>
+        <c:crossAx val="914390404"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1907,11 +2077,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1175043299"/>
-        <c:axId val="1913736694"/>
+        <c:axId val="422814020"/>
+        <c:axId val="560564627"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1175043299"/>
+        <c:axId val="422814020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,10 +2096,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1913736694"/>
+        <c:crossAx val="560564627"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1913736694"/>
+        <c:axId val="560564627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +2130,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1175043299"/>
+        <c:crossAx val="422814020"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1972,23 +2142,27 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2113,19 +2287,19 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2161,992 +2335,992 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="J2" s="11"/>
+      <c r="L2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>16.0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>5.0</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="18">
         <v>43047.0</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="N3" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="O3" s="19"/>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>3.0</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>45</v>
+      <c r="R3" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>5.0</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>2.0</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="18">
+        <v>43045.0</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="17">
-        <v>43045.0</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="G5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="18">
         <v>43046.0</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>6.0</v>
       </c>
-      <c r="R5" s="12" t="s">
-        <v>45</v>
+      <c r="R5" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="I6" s="19"/>
-      <c r="L6" s="17"/>
-      <c r="R6" s="12"/>
+      <c r="L6" s="18"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>6.0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>4.0</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="18">
         <v>43046.0</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>1.0</v>
       </c>
-      <c r="R7" s="12" t="s">
-        <v>45</v>
+      <c r="R7" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>8.0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>2.0</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="18">
         <v>43053.0</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>1.0</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>5.0</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>1.0</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="18">
         <v>43054.0</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <v>3.0</v>
       </c>
-      <c r="R9" s="12" t="s">
-        <v>45</v>
+      <c r="R9" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>5.0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>2.0</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="18">
         <v>43048.0</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <v>1.0</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>45</v>
+      <c r="R10" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
       <c r="I11" s="19"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="18"/>
       <c r="O11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>12.0</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>15.0</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>94</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="18">
         <v>43048.0</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="M12" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="N12" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="O12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q12" s="12">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="11">
         <v>5.0</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>45</v>
+      <c r="R12" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="A13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="11">
         <v>5.0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>5.0</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>50</v>
+      <c r="G13" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="18">
         <v>43049.0</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="12" t="s">
+      <c r="M13" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="N13" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="O13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="12">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="11">
         <v>1.0</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="A14" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="11">
         <v>8.0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>8.0</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>105</v>
+      <c r="G14" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="18">
         <v>43052.0</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="N14" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="O14" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="12">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="11">
         <v>2.0</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="18">
+        <v>43048.0</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="L15" s="17"/>
-      <c r="O15" s="19"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="17">
-        <v>43048.0</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="12" t="s">
+      <c r="O16" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="18">
+        <v>43047.0</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="17">
-        <v>43047.0</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>44</v>
+      <c r="N17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O17" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <v>4.0</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="R17" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>3.0</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>3.0</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="F18" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>85</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="18">
         <v>43048.0</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="11">
         <v>1.0</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="I19" s="19"/>
-      <c r="L19" s="17"/>
+      <c r="L19" s="18"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>8.0</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>8.0</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>99</v>
+      <c r="F20" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="18">
         <v>43055.0</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="12" t="s">
+      <c r="M20" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="11">
         <v>2.0</v>
       </c>
-      <c r="R20" s="12" t="s">
-        <v>45</v>
+      <c r="R20" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="I21" s="19"/>
-      <c r="L21" s="17"/>
+      <c r="L21" s="18"/>
       <c r="O21" s="19"/>
-      <c r="R21" s="12" t="s">
-        <v>45</v>
+      <c r="R21" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>8.0</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>8.0</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>105</v>
+      <c r="H22" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="18">
         <v>43053.0</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="12" t="s">
+      <c r="M22" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O22" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <v>2.0</v>
       </c>
-      <c r="R22" s="12" t="s">
-        <v>45</v>
+      <c r="R22" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>16.0</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>16.0</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>105</v>
+        <v>38</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="18">
         <v>43049.0</v>
       </c>
-      <c r="M23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="12" t="s">
+      <c r="M23" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O23" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="11">
         <v>6.0</v>
       </c>
-      <c r="R23" s="12" t="s">
-        <v>45</v>
+      <c r="R23" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>16.0</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>16.0</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="18">
         <v>43048.0</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12" t="s">
-        <v>44</v>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O24" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="11">
         <v>1.0</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R24" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>5.0</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>5.0</v>
       </c>
       <c r="F25" s="15" t="s">
@@ -3155,593 +3329,593 @@
       <c r="G25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>105</v>
+      <c r="H25" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="18">
         <v>43046.0</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O25" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="11">
         <v>1.0</v>
       </c>
-      <c r="R25" s="12" t="s">
-        <v>45</v>
+      <c r="R25" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>8.0</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>8.0</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>105</v>
+      <c r="H26" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="18">
         <v>43054.0</v>
       </c>
-      <c r="M26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" s="12" t="s">
+      <c r="M26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="11">
         <v>1.0</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G27" s="15"/>
       <c r="I27" s="19"/>
-      <c r="L27" s="17"/>
+      <c r="L27" s="18"/>
       <c r="O27" s="19"/>
-      <c r="R27" s="12"/>
+      <c r="R27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="12">
+      <c r="C28" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="11">
         <v>8.0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>8.0</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>105</v>
+        <v>38</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="J28" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="18">
         <v>43052.0</v>
       </c>
-      <c r="M28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="N28" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="O28" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="Q28" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="R28" s="12" t="s">
+      <c r="K29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="18">
+        <v>43052.0</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="E29" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" s="12" t="s">
+      <c r="O29" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L29" s="17">
-        <v>43052.0</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" s="12" t="s">
+      <c r="L30" s="18">
+        <v>43053.0</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O29" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q29" s="12">
+      <c r="N30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="11">
         <v>1.0</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="R30" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="E30" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" s="17">
-        <v>43053.0</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="12">
+      <c r="C31" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="11">
         <v>3.0</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>3.0</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>99</v>
+      <c r="F31" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>105</v>
+      <c r="H31" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="J31" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="18">
         <v>43055.0</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N31" s="12" t="s">
+      <c r="M31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q31" s="12">
+        <v>182</v>
+      </c>
+      <c r="Q31" s="11">
         <v>1.0</v>
       </c>
-      <c r="R31" s="12" t="s">
+      <c r="R31" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="s">
-        <v>182</v>
+      <c r="A32" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="I32" s="19"/>
-      <c r="L32" s="17"/>
+      <c r="L32" s="18"/>
       <c r="O32" s="19"/>
-      <c r="R32" s="12"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="s">
-        <v>183</v>
+      <c r="A33" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="I33" s="19"/>
-      <c r="L33" s="17"/>
+      <c r="L33" s="18"/>
       <c r="O33" s="19"/>
-      <c r="R33" s="12"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>185</v>
       </c>
+      <c r="B34" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="I34" s="19"/>
-      <c r="L34" s="17"/>
+      <c r="L34" s="18"/>
       <c r="O34" s="19"/>
-      <c r="R34" s="12" t="s">
-        <v>45</v>
+      <c r="R34" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="12">
+      <c r="C35" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="11">
         <v>4.0</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>4.0</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>105</v>
+      <c r="H35" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="18">
         <v>43049.0</v>
       </c>
-      <c r="M35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N35" s="12" t="s">
+      <c r="M35" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="11">
         <v>1.0</v>
       </c>
-      <c r="R35" s="12" t="s">
-        <v>45</v>
+      <c r="R35" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>6.0</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>6.0</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>105</v>
+      <c r="H36" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="18">
         <v>43052.0</v>
       </c>
-      <c r="M36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36" s="12" t="s">
+      <c r="M36" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="Q36" s="11">
         <v>1.0</v>
       </c>
-      <c r="R36" s="12" t="s">
+      <c r="R36" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>4.0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>4.0</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>105</v>
+      <c r="H37" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="18">
         <v>43054.0</v>
       </c>
-      <c r="M37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N37" s="12" t="s">
+      <c r="M37" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O37" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="11">
         <v>1.0</v>
       </c>
-      <c r="R37" s="12" t="s">
-        <v>45</v>
+      <c r="R37" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>8.0</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>8.0</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="18">
         <v>43052.0</v>
       </c>
-      <c r="M38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N38" s="12" t="s">
+      <c r="M38" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="11">
         <v>1.0</v>
       </c>
-      <c r="R38" s="12" t="s">
-        <v>45</v>
+      <c r="R38" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>4.0</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>4.0</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="18">
         <v>43053.0</v>
       </c>
-      <c r="M39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N39" s="12" t="s">
+      <c r="M39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O39" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="11">
         <v>1.0</v>
       </c>
-      <c r="R39" s="12" t="s">
+      <c r="R39" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>3.0</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>3.0</v>
       </c>
       <c r="F40" s="15" t="s">
@@ -3750,348 +3924,348 @@
       <c r="G40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>105</v>
+      <c r="H40" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="18">
         <v>43054.0</v>
       </c>
-      <c r="M40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N40" s="12" t="s">
+      <c r="M40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O40" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="11">
         <v>1.0</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="R40" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>3.0</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>3.0</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="18">
         <v>43054.0</v>
       </c>
-      <c r="M41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N41" s="12" t="s">
+      <c r="M41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O41" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q41" s="11">
         <v>1.0</v>
       </c>
-      <c r="R41" s="12" t="s">
+      <c r="R41" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="L42" s="18"/>
+      <c r="O42" s="19"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="L43" s="18"/>
+      <c r="O43" s="19"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L44" s="18">
+        <v>43055.0</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" s="18">
+        <v>43047.0</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="L42" s="17"/>
-      <c r="O42" s="19"/>
-      <c r="R42" s="12"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="I43" s="19"/>
-      <c r="L43" s="17"/>
-      <c r="O43" s="19"/>
-      <c r="R43" s="12"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D44" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="E44" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L44" s="17">
-        <v>43055.0</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="12">
+      <c r="O45" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="11"/>
+      <c r="O46" s="19"/>
+    </row>
+    <row r="50">
+      <c r="R50" s="11"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="11">
         <v>4.0</v>
       </c>
-      <c r="E45" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L45" s="17">
-        <v>43047.0</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O45" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q45" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="I46" s="19"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="12"/>
-      <c r="O46" s="19"/>
-    </row>
-    <row r="50">
-      <c r="R50" s="12"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="E51" s="12">
+      <c r="E51" s="11">
         <v>4.0</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>233</v>
+      <c r="G51" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="J51" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="K51" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="18">
         <v>43054.0</v>
       </c>
-      <c r="M51" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>54</v>
+      <c r="M51" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q51" s="12">
+        <v>246</v>
+      </c>
+      <c r="Q51" s="11">
         <v>1.0</v>
       </c>
-      <c r="R51" s="12" t="s">
-        <v>45</v>
+      <c r="R51" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="12">
+      <c r="A52" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="11">
         <v>4.0</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <v>4.0</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="K52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="18">
         <v>43056.0</v>
       </c>
-      <c r="M52" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N52" s="12" t="s">
+      <c r="M52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" s="11" t="s">
         <v>63</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q52" s="12">
+        <v>251</v>
+      </c>
+      <c r="Q52" s="11">
         <v>6.5</v>
       </c>
-      <c r="R52" s="12" t="s">
+      <c r="R52" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53">
-      <c r="M53" s="12"/>
+      <c r="M53" s="11"/>
       <c r="O53" s="19"/>
     </row>
     <row r="54">
       <c r="O54" s="19"/>
     </row>
     <row r="55">
-      <c r="D55" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="12"/>
+      <c r="D55" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" s="11"/>
       <c r="O55" s="19"/>
-      <c r="Q55" s="12" t="s">
-        <v>240</v>
+      <c r="Q55" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="12" t="s">
-        <v>241</v>
+      <c r="B56" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D56">
         <f>SUM(D3:D52)</f>
         <v>227</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>242</v>
+      <c r="E56" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="J56" s="13"/>
       <c r="O56" s="19"/>
@@ -4099,21 +4273,21 @@
         <f>SUM(Q3:Q52)</f>
         <v>70.5</v>
       </c>
-      <c r="R56" s="12" t="s">
-        <v>242</v>
+      <c r="R56" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>38.0</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="J57" s="12"/>
+      <c r="D57" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="J57" s="11"/>
       <c r="O57" s="19"/>
-      <c r="Q57" s="12" t="s">
-        <v>243</v>
+      <c r="Q57" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="58">
@@ -4121,7 +4295,7 @@
         <f>D56/6.5</f>
         <v>34.92307692</v>
       </c>
-      <c r="J58" s="12"/>
+      <c r="J58" s="11"/>
       <c r="O58" s="19"/>
       <c r="Q58">
         <f>Q56/6.5</f>
@@ -4129,85 +4303,85 @@
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="12"/>
-      <c r="J59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="J59" s="11"/>
       <c r="O59" s="19"/>
     </row>
     <row r="60">
-      <c r="D60" s="12"/>
-      <c r="J60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="J60" s="11"/>
       <c r="O60" s="19"/>
     </row>
     <row r="61">
-      <c r="C61" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="J61" s="12"/>
+      <c r="C61" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J61" s="11"/>
       <c r="O61" s="19"/>
     </row>
     <row r="62">
-      <c r="J62" s="12"/>
+      <c r="J62" s="11"/>
       <c r="O62" s="19"/>
     </row>
     <row r="63">
-      <c r="J63" s="12"/>
+      <c r="J63" s="11"/>
       <c r="O63" s="19"/>
     </row>
     <row r="64">
-      <c r="J64" s="12"/>
+      <c r="J64" s="11"/>
       <c r="O64" s="19"/>
     </row>
     <row r="65">
-      <c r="J65" s="12"/>
+      <c r="J65" s="11"/>
       <c r="O65" s="19"/>
     </row>
     <row r="66">
-      <c r="J66" s="12"/>
+      <c r="J66" s="11"/>
     </row>
     <row r="67">
-      <c r="J67" s="12"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68">
-      <c r="J68" s="12"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69">
-      <c r="J69" s="12"/>
+      <c r="J69" s="11"/>
     </row>
     <row r="70">
-      <c r="J70" s="12"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71">
-      <c r="J71" s="12"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72">
-      <c r="J72" s="12"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73">
-      <c r="J73" s="12"/>
+      <c r="J73" s="11"/>
     </row>
     <row r="74">
-      <c r="J74" s="12"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75">
-      <c r="J75" s="12"/>
+      <c r="J75" s="11"/>
     </row>
     <row r="76">
-      <c r="J76" s="12"/>
+      <c r="J76" s="11"/>
     </row>
     <row r="77">
-      <c r="J77" s="12"/>
+      <c r="J77" s="11"/>
     </row>
     <row r="78">
-      <c r="J78" s="12"/>
+      <c r="J78" s="11"/>
     </row>
     <row r="79">
-      <c r="J79" s="12"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="85">
-      <c r="J85" s="12"/>
+      <c r="J85" s="11"/>
     </row>
     <row r="89">
-      <c r="J89" s="12"/>
+      <c r="J89" s="11"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4265,6 +4439,171 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.14"/>
+    <col customWidth="1" min="2" max="2" width="30.57"/>
+    <col customWidth="1" min="3" max="3" width="77.14"/>
+    <col customWidth="1" min="4" max="4" width="72.14"/>
+    <col customWidth="1" min="5" max="5" width="56.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+    </row>
+    <row r="2" ht="61.5" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" ht="69.75" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" ht="77.25" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" ht="66.0" customHeight="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" ht="77.25" customHeight="1">
+      <c r="A6" s="59"/>
+      <c r="B6" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -4278,49 +4617,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7">
         <v>43045.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7">
         <v>43067.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12">
         <v>43068.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>43073.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>43074.0</v>
       </c>
     </row>
@@ -4341,38 +4680,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="F2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="F2" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="G2">
         <f> CEILING(('TeamCap-2'!J8),1)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <f> CEILING(('All-Task'!D58),1)</f>
@@ -4380,14 +4719,14 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I3" si="1">G2-H2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3">
         <f>DATEDIF(DeliveryDates!B2, DeliveryDates!B3, "D")</f>
         <v>22</v>
@@ -4397,13 +4736,13 @@
         <v>17</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <f>CEILING(('TeamCap-2'!J14),1)</f>
         <v>14</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <f> CEILING(('All-Task'!Q58),1)</f>
         <v>11</v>
       </c>
@@ -4413,26 +4752,26 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>47</v>
+      <c r="A8" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="20">
         <f>C3</f>
@@ -4440,26 +4779,26 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="A10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11">
         <v>0.05</v>
       </c>
     </row>
@@ -4494,49 +4833,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>125</v>
+      <c r="I1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="11">
         <f>HolidaysCal!C2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>2.0</v>
       </c>
       <c r="E2" s="27">
@@ -4547,10 +4886,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>65.0</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="11"/>
       <c r="I2">
         <f>'TeamCapacity-1'!$D$3-C2-D2-F2-E2</f>
         <v>13.15</v>
@@ -4562,16 +4901,16 @@
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="12">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="11">
         <f>HolidaysCal!C3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>4.0</v>
       </c>
       <c r="E3" s="27">
@@ -4582,10 +4921,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>65.0</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="11"/>
       <c r="I3">
         <f>'TeamCapacity-1'!$D$3-C3-D3-F3-E3</f>
         <v>9.15</v>
@@ -4597,16 +4936,16 @@
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="12">
+        <v>38</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="11">
         <f>HolidaysCal!C4</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
         <v>1.0</v>
       </c>
       <c r="E4" s="27">
@@ -4617,31 +4956,31 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>100.0</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="11"/>
       <c r="I4">
         <f>'TeamCapacity-1'!$D$3-C4-D4-F4-E4</f>
-        <v>12.15</v>
+        <v>13.15</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>12.15</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="11">
         <f>HolidaysCal!C5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>2.0</v>
       </c>
       <c r="E5" s="27">
@@ -4652,10 +4991,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>30.0</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="11"/>
       <c r="I5">
         <f>'TeamCapacity-1'!$D$3-C5-D5-F5-E5</f>
         <v>13.15</v>
@@ -4667,16 +5006,16 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="12">
+        <v>104</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="11">
         <f>HolidaysCal!C6</f>
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>3.0</v>
       </c>
       <c r="E6" s="27">
@@ -4687,10 +5026,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>65.0</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="11"/>
       <c r="I6">
         <f>'TeamCapacity-1'!$D$3-C6-D6-F6-E6</f>
         <v>12.15</v>
@@ -4702,11 +5041,11 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">sum(C2:C6)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
@@ -4714,57 +5053,57 @@
       </c>
       <c r="I8">
         <f t="shared" ref="I8:J8" si="3">sum(I2:I6)</f>
-        <v>59.75</v>
+        <v>60.75</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>38.4875</v>
+        <v>39.4875</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>125</v>
+      <c r="I10" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>127</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="C11" s="27">
         <f>HolidaysCal!C7</f>
         <v>3</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>2.0</v>
       </c>
       <c r="E11" s="27">
@@ -4775,10 +5114,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>65.0</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="11"/>
       <c r="I11">
         <f>'TeamCapacity-1'!$D$3-C11-D11-F11-E11</f>
         <v>11.15</v>
@@ -4792,14 +5131,14 @@
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>127</v>
+      <c r="B12" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="C12" s="27">
         <f>HolidaysCal!C8</f>
         <v>3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>4.0</v>
       </c>
       <c r="E12" s="27">
@@ -4810,10 +5149,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>65.0</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="11"/>
       <c r="I12">
         <f>'TeamCapacity-1'!$D$3-C12-D12-F12-E12</f>
         <v>9.15</v>
@@ -4825,7 +5164,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:D14" si="5">sum(C11:C12)</f>
@@ -4846,12 +5185,12 @@
     </row>
     <row r="15">
       <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="27"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="13"/>
@@ -4872,36 +5211,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>245</v>
+      <c r="A1" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="B1">
         <f>sum('All-Task'!D3:D52)</f>
         <v>227</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>242</v>
+      <c r="C1" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="36">
+        <v>50</v>
+      </c>
+      <c r="B3" s="35">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="36">
+        <v>104</v>
+      </c>
+      <c r="B4" s="35">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A4)</f>
         <v>7</v>
       </c>
@@ -4910,16 +5249,16 @@
       <c r="A5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="36">
+        <v>38</v>
+      </c>
+      <c r="B6" s="35">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A6)</f>
         <v>12</v>
       </c>
@@ -4928,30 +5267,30 @@
       <c r="A7" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A7)</f>
         <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>268</v>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="36">
+        <v>50</v>
+      </c>
+      <c r="B11" s="35">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A11)</f>
         <v>8</v>
       </c>
@@ -4962,9 +5301,9 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="36">
+        <v>104</v>
+      </c>
+      <c r="B12" s="35">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A12)</f>
         <v>7</v>
       </c>
@@ -4977,7 +5316,7 @@
       <c r="A13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A13)</f>
         <v>6</v>
       </c>
@@ -4988,9 +5327,9 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="36">
+        <v>38</v>
+      </c>
+      <c r="B14" s="35">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A14)</f>
         <v>8</v>
       </c>
@@ -5003,7 +5342,7 @@
       <c r="A15" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A15)</f>
         <v>5</v>
       </c>
@@ -5014,23 +5353,23 @@
     </row>
     <row r="17">
       <c r="A17" s="28" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="36">
+        <v>289</v>
+      </c>
+      <c r="B18" s="35">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="36">
+        <v>53</v>
+      </c>
+      <c r="B19" s="35">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A19)</f>
         <v>2</v>
       </c>
@@ -5039,1023 +5378,1023 @@
       <c r="A20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A20)</f>
         <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="36">
+        <v>116</v>
+      </c>
+      <c r="B21" s="35">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A21)</f>
         <v>16</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
     </row>
     <row r="63">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
     </row>
     <row r="64">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
     </row>
     <row r="65">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
     </row>
     <row r="66">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
     </row>
     <row r="67">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
     </row>
     <row r="68">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
     </row>
     <row r="69">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
     </row>
     <row r="70">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
     </row>
     <row r="71">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
     </row>
     <row r="72">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
     </row>
     <row r="73">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
     </row>
     <row r="74">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
     </row>
     <row r="75">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
     </row>
     <row r="76">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
     </row>
     <row r="77">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
     </row>
     <row r="78">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
     </row>
     <row r="79">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
     </row>
     <row r="80">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
     </row>
     <row r="81">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
     </row>
     <row r="82">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
     </row>
     <row r="83">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
     </row>
     <row r="84">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
     </row>
     <row r="86">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
     </row>
     <row r="87">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
     </row>
     <row r="88">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
     </row>
     <row r="89">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
     </row>
     <row r="90">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
     </row>
     <row r="91">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
     </row>
     <row r="92">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
     </row>
     <row r="93">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
     </row>
     <row r="94">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
     </row>
     <row r="95">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
     </row>
     <row r="96">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
     </row>
     <row r="97">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
     </row>
     <row r="98">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
     </row>
     <row r="99">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
     </row>
     <row r="100">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
     </row>
     <row r="101">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
     </row>
     <row r="102">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
     </row>
     <row r="103">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
     </row>
     <row r="104">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
     </row>
     <row r="105">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
     </row>
     <row r="106">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
     </row>
     <row r="107">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
     </row>
     <row r="108">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
     </row>
     <row r="109">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
     </row>
     <row r="110">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
     </row>
     <row r="111">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
     </row>
     <row r="112">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
     </row>
     <row r="113">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
     </row>
     <row r="114">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
     </row>
     <row r="115">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
     </row>
     <row r="116">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
     </row>
     <row r="117">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
     </row>
     <row r="118">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
     </row>
     <row r="119">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
     </row>
     <row r="120">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
     </row>
     <row r="121">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
     </row>
     <row r="122">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
     </row>
     <row r="123">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
     </row>
     <row r="124">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
     </row>
     <row r="125">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
     </row>
     <row r="126">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
     </row>
     <row r="127">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
     </row>
     <row r="128">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
     </row>
     <row r="129">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
     </row>
     <row r="130">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
     </row>
     <row r="131">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
     </row>
     <row r="132">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
     </row>
     <row r="133">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
     </row>
     <row r="134">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
     </row>
     <row r="135">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
     </row>
     <row r="136">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
     </row>
     <row r="137">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
     </row>
     <row r="138">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
     </row>
     <row r="139">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
     </row>
     <row r="140">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
     </row>
     <row r="141">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
     </row>
     <row r="142">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
     </row>
     <row r="143">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
     </row>
     <row r="144">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
     </row>
     <row r="145">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
     </row>
     <row r="146">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
     </row>
     <row r="147">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
     </row>
     <row r="148">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
     </row>
     <row r="149">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
     </row>
     <row r="150">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
     </row>
     <row r="151">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
     </row>
     <row r="152">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
     </row>
     <row r="153">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
     </row>
     <row r="154">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
     </row>
     <row r="155">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
     </row>
     <row r="156">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
     </row>
     <row r="157">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
     </row>
     <row r="158">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
     </row>
     <row r="159">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
     </row>
     <row r="160">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
     </row>
     <row r="161">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
     </row>
     <row r="162">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
     </row>
     <row r="163">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
     </row>
     <row r="164">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
     </row>
     <row r="165">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
     </row>
     <row r="166">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
     </row>
     <row r="167">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
     </row>
     <row r="168">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
     </row>
     <row r="169">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
     </row>
     <row r="170">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
     </row>
     <row r="171">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
     </row>
     <row r="172">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
     </row>
     <row r="173">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
     </row>
     <row r="174">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
     </row>
     <row r="175">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
     </row>
     <row r="176">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
     </row>
     <row r="177">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
     </row>
     <row r="178">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
     </row>
     <row r="179">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
     </row>
     <row r="180">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
     </row>
     <row r="181">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
     </row>
     <row r="182">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
     </row>
     <row r="183">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
     </row>
     <row r="184">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
     </row>
     <row r="185">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
     </row>
     <row r="186">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
     </row>
     <row r="187">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
     </row>
     <row r="188">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
     </row>
     <row r="189">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
     </row>
     <row r="190">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
     </row>
     <row r="191">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
     </row>
     <row r="192">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12"/>
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
     </row>
     <row r="193">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
     </row>
     <row r="194">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
     </row>
     <row r="195">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
     </row>
     <row r="196">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
     </row>
     <row r="197">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
     </row>
     <row r="198">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
     </row>
     <row r="199">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
     </row>
     <row r="200">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
     </row>
     <row r="201">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
     </row>
     <row r="202">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
     </row>
     <row r="203">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
     </row>
     <row r="204">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
     </row>
     <row r="205">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
     </row>
     <row r="206">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
     </row>
     <row r="207">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
     </row>
     <row r="208">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
     </row>
     <row r="209">
-      <c r="A209" s="12"/>
-      <c r="B209" s="12"/>
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
     </row>
     <row r="210">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
     </row>
     <row r="211">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
     </row>
     <row r="212">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
     </row>
     <row r="213">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
     </row>
     <row r="214">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
     </row>
     <row r="215">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
     </row>
     <row r="216">
-      <c r="A216" s="12"/>
-      <c r="B216" s="12"/>
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
     </row>
     <row r="217">
-      <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
     </row>
     <row r="218">
-      <c r="A218" s="12"/>
-      <c r="B218" s="12"/>
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
     </row>
     <row r="219">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
     </row>
     <row r="220">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
     </row>
     <row r="221">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
     </row>
     <row r="222">
-      <c r="A222" s="12"/>
-      <c r="B222" s="12"/>
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
     </row>
     <row r="223">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
     </row>
     <row r="224">
-      <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
     </row>
     <row r="225">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
     </row>
     <row r="226">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
     </row>
     <row r="227">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
     </row>
     <row r="228">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
     </row>
     <row r="229">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
     </row>
     <row r="230">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
     </row>
     <row r="231">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
     </row>
     <row r="232">
-      <c r="A232" s="12"/>
-      <c r="B232" s="12"/>
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
     </row>
     <row r="233">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
     </row>
     <row r="234">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
     </row>
     <row r="235">
-      <c r="A235" s="12"/>
-      <c r="B235" s="12"/>
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
     </row>
     <row r="236">
-      <c r="A236" s="12"/>
-      <c r="B236" s="12"/>
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
     </row>
     <row r="237">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
     </row>
     <row r="238">
-      <c r="A238" s="12"/>
-      <c r="B238" s="12"/>
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
     </row>
     <row r="239">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
     </row>
     <row r="240">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
     </row>
     <row r="241">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
     </row>
     <row r="242">
-      <c r="A242" s="12"/>
-      <c r="B242" s="12"/>
+      <c r="A242" s="11"/>
+      <c r="B242" s="11"/>
     </row>
     <row r="243">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12"/>
+      <c r="A243" s="11"/>
+      <c r="B243" s="11"/>
     </row>
     <row r="244">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
+      <c r="A244" s="11"/>
+      <c r="B244" s="11"/>
     </row>
     <row r="245">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
+      <c r="A245" s="11"/>
+      <c r="B245" s="11"/>
     </row>
     <row r="246">
-      <c r="A246" s="12"/>
-      <c r="B246" s="12"/>
+      <c r="A246" s="11"/>
+      <c r="B246" s="11"/>
     </row>
     <row r="247">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
     </row>
     <row r="248">
-      <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
+      <c r="A248" s="11"/>
+      <c r="B248" s="11"/>
     </row>
     <row r="249">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
     </row>
     <row r="250">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
     </row>
     <row r="251">
-      <c r="A251" s="12"/>
-      <c r="B251" s="12"/>
+      <c r="A251" s="11"/>
+      <c r="B251" s="11"/>
     </row>
     <row r="252">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
+      <c r="A252" s="11"/>
+      <c r="B252" s="11"/>
     </row>
     <row r="253">
-      <c r="A253" s="12"/>
-      <c r="B253" s="12"/>
+      <c r="A253" s="11"/>
+      <c r="B253" s="11"/>
     </row>
     <row r="254">
-      <c r="A254" s="12"/>
-      <c r="B254" s="12"/>
+      <c r="A254" s="11"/>
+      <c r="B254" s="11"/>
     </row>
     <row r="255">
-      <c r="A255" s="12"/>
-      <c r="B255" s="12"/>
+      <c r="A255" s="11"/>
+      <c r="B255" s="11"/>
     </row>
     <row r="256">
-      <c r="A256" s="12"/>
-      <c r="B256" s="12"/>
+      <c r="A256" s="11"/>
+      <c r="B256" s="11"/>
     </row>
     <row r="257">
-      <c r="A257" s="12"/>
-      <c r="B257" s="12"/>
+      <c r="A257" s="11"/>
+      <c r="B257" s="11"/>
     </row>
     <row r="258">
-      <c r="A258" s="12"/>
-      <c r="B258" s="12"/>
+      <c r="A258" s="11"/>
+      <c r="B258" s="11"/>
     </row>
     <row r="259">
-      <c r="A259" s="12"/>
-      <c r="B259" s="12"/>
+      <c r="A259" s="11"/>
+      <c r="B259" s="11"/>
     </row>
     <row r="260">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
     </row>
     <row r="261">
-      <c r="A261" s="12"/>
-      <c r="B261" s="12"/>
+      <c r="A261" s="11"/>
+      <c r="B261" s="11"/>
     </row>
     <row r="262">
-      <c r="A262" s="12"/>
-      <c r="B262" s="12"/>
+      <c r="A262" s="11"/>
+      <c r="B262" s="11"/>
     </row>
     <row r="263">
-      <c r="A263" s="12"/>
-      <c r="B263" s="12"/>
+      <c r="A263" s="11"/>
+      <c r="B263" s="11"/>
     </row>
     <row r="264">
-      <c r="A264" s="12"/>
-      <c r="B264" s="12"/>
+      <c r="A264" s="11"/>
+      <c r="B264" s="11"/>
     </row>
     <row r="265">
-      <c r="A265" s="12"/>
-      <c r="B265" s="12"/>
+      <c r="A265" s="11"/>
+      <c r="B265" s="11"/>
     </row>
     <row r="266">
-      <c r="A266" s="12"/>
-      <c r="B266" s="12"/>
+      <c r="A266" s="11"/>
+      <c r="B266" s="11"/>
     </row>
     <row r="267">
-      <c r="A267" s="12"/>
-      <c r="B267" s="12"/>
+      <c r="A267" s="11"/>
+      <c r="B267" s="11"/>
     </row>
     <row r="268">
-      <c r="A268" s="12"/>
-      <c r="B268" s="12"/>
+      <c r="A268" s="11"/>
+      <c r="B268" s="11"/>
     </row>
     <row r="269">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12"/>
+      <c r="A269" s="11"/>
+      <c r="B269" s="11"/>
     </row>
     <row r="270">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
+      <c r="A270" s="11"/>
+      <c r="B270" s="11"/>
     </row>
     <row r="271">
-      <c r="A271" s="12"/>
-      <c r="B271" s="12"/>
+      <c r="A271" s="11"/>
+      <c r="B271" s="11"/>
     </row>
     <row r="272">
-      <c r="A272" s="12"/>
-      <c r="B272" s="12"/>
+      <c r="A272" s="11"/>
+      <c r="B272" s="11"/>
     </row>
     <row r="273">
-      <c r="A273" s="12"/>
-      <c r="B273" s="12"/>
+      <c r="A273" s="11"/>
+      <c r="B273" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6091,122 +6430,122 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="30" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G2" s="33"/>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>254</v>
+      <c r="E3" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G3" s="37"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>260</v>
-      </c>
       <c r="D4" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G4" s="37"/>
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>261</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>262</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="39">
+        <v>262</v>
+      </c>
+      <c r="E5" s="40">
         <v>43068.0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="40">
         <v>43069.0</v>
       </c>
       <c r="G5" s="37"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>254</v>
+        <v>268</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G6" s="37"/>
     </row>
@@ -6214,16 +6553,16 @@
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G7" s="37"/>
     </row>
@@ -6234,13 +6573,13 @@
         <v>36</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G8" s="37"/>
     </row>
@@ -6253,11 +6592,11 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>254</v>
+      <c r="E9" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G9" s="37"/>
     </row>
@@ -6269,16 +6608,16 @@
         <v>272</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>254</v>
+        <v>268</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -6286,16 +6625,16 @@
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G11" s="37"/>
     </row>
@@ -6306,13 +6645,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G12" s="37"/>
     </row>
@@ -6353,13 +6692,13 @@
         <v>278</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G15" s="37"/>
     </row>
@@ -6370,13 +6709,13 @@
         <v>279</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G16" s="37"/>
     </row>
@@ -6387,13 +6726,13 @@
         <v>280</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G17" s="37"/>
     </row>
@@ -6404,13 +6743,13 @@
         <v>281</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G18" s="37"/>
     </row>
@@ -6425,10 +6764,10 @@
       <c r="D19" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>285</v>
       </c>
       <c r="G19" s="37"/>
@@ -6444,10 +6783,10 @@
       <c r="D20" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>285</v>
       </c>
       <c r="G20" s="37"/>
@@ -6463,18 +6802,18 @@
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>254</v>
+      <c r="E22" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G22" s="37"/>
     </row>
@@ -6489,58 +6828,58 @@
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G24" s="37"/>
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G25" s="37"/>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="G26" s="37"/>
     </row>
@@ -6963,12 +7302,12 @@
   <sheetData>
     <row r="7">
       <c r="D7" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="41" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -7000,10 +7339,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>300</v>
@@ -7023,339 +7362,354 @@
       <c r="A2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="45">
+      <c r="B2" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="46">
         <f>COUNTIF(B16:B38,"=1")</f>
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="46">
+        <v>50</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="47">
         <f>COUNTIF(C16:C38,"=1")</f>
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="45">
+        <v>38</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="46">
         <f>COUNTIF(D16:D38,"=1")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="B5" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="47">
         <f>COUNTIF(E16:E38,"=1")</f>
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="46">
+      <c r="A6" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="47">
         <f>COUNTIF(F16:F38,"=1")</f>
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="A7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="47">
         <f>COUNTIF(G16:G38,"=1")</f>
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="46">
+      <c r="B8" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="47">
         <f>COUNTIF(H16:H38,"=1")</f>
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="45"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10">
-      <c r="C10" s="45"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11">
-      <c r="C11" s="45"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12">
-      <c r="C12" s="45"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="15">
       <c r="A15" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="47" t="s">
+      <c r="C15" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="48" t="s">
+      <c r="F15" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="54" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>43045.0</v>
       </c>
+      <c r="D16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>43046.0</v>
       </c>
+      <c r="D17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>43047.0</v>
       </c>
+      <c r="D18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>43048.0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="D19" s="11"/>
+      <c r="H19" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>43049.0</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>1.0</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>1.0</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>1.0</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>1.0</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>1.0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>1.0</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>43050.0</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>43051.0</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>43052.0</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>43053.0</v>
       </c>
-      <c r="G24" s="12">
+      <c r="D24" s="11"/>
+      <c r="G24" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>43054.0</v>
       </c>
+      <c r="D25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>43055.0</v>
       </c>
+      <c r="D26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>43056.0</v>
       </c>
-      <c r="H27" s="12">
+      <c r="D27" s="11"/>
+      <c r="H27" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>43057.0</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>43058.0</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>43059.0</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7">
+        <v>43060.0</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="G31" s="11">
         <v>1.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8">
-        <v>43060.0</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="G31" s="12">
+    <row r="32">
+      <c r="A32" s="7">
+        <v>43061.0</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7">
+        <v>43062.0</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7">
+        <v>43063.0</v>
+      </c>
+      <c r="C34" s="11">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8">
-        <v>43061.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8">
-        <v>43062.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="8">
-        <v>43063.0</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7">
+        <v>43064.0</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7">
+        <v>43065.0</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7">
+        <v>43066.0</v>
+      </c>
+      <c r="C37" s="11">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="8">
-        <v>43064.0</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8">
-        <v>43065.0</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8">
-        <v>43066.0</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="D37" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>43067.0</v>
       </c>
-      <c r="D38" s="12">
-        <v>1.0</v>
-      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7394,7 +7748,7 @@
       <c r="F1" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="44" t="s">
         <v>307</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -7405,194 +7759,194 @@
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>257</v>
+      <c r="G2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>266</v>
+      <c r="H3" s="11" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>253</v>
+      <c r="F4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>263</v>
+      <c r="H6" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15"/>
-      <c r="B7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>101</v>
+      <c r="B9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="12" t="s">
-        <v>167</v>
+      <c r="C13" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="12" t="s">
-        <v>180</v>
+      <c r="C14" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="12" t="s">
-        <v>224</v>
+      <c r="C19" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/E-Commerce-Dev.xlsx
+++ b/E-Commerce-Dev.xlsx
@@ -82,33 +82,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="335">
+  <si>
+    <t>TASK Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>SL#</t>
   </si>
   <si>
+    <t>Start Date for development</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
     <t>Resourcing Plan</t>
   </si>
   <si>
-    <t>TASK Name</t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
     <t>ORIGINAL ESTIMATION</t>
   </si>
   <si>
+    <t>REMAINING ESTIMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigne </t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>End date (code complete)</t>
+  </si>
+  <si>
+    <t>Begin Regression Date</t>
+  </si>
+  <si>
+    <t>Type  of the task</t>
+  </si>
+  <si>
+    <t>Summary of Ticket</t>
+  </si>
+  <si>
     <t>Days</t>
   </si>
   <si>
     <t>Net Days</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Start Date for development</t>
+    <t>Gold version</t>
+  </si>
+  <si>
+    <t>Production release date</t>
   </si>
   <si>
     <t>Capacity</t>
@@ -123,21 +150,6 @@
     <t>Dev Team</t>
   </si>
   <si>
-    <t>REMAINING ESTIMATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assigne </t>
-  </si>
-  <si>
-    <t>Reporter</t>
-  </si>
-  <si>
-    <t>Type  of the task</t>
-  </si>
-  <si>
-    <t>Summary of Ticket</t>
-  </si>
-  <si>
     <t>Dropdown Component</t>
   </si>
   <si>
@@ -165,18 +177,6 @@
     <t>Assigne</t>
   </si>
   <si>
-    <t>End date (code complete)</t>
-  </si>
-  <si>
-    <t>Begin Regression Date</t>
-  </si>
-  <si>
-    <t>Gold version</t>
-  </si>
-  <si>
-    <t>Production release date</t>
-  </si>
-  <si>
     <t>SUB TASKS</t>
   </si>
   <si>
@@ -195,91 +195,121 @@
     <t>Cansu Salkıç</t>
   </si>
   <si>
+    <t>Rajesh Ghosh</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Design and implemente the database for the project</t>
+  </si>
+  <si>
+    <t>Data Base</t>
+  </si>
+  <si>
     <t>Q&amp;A Team</t>
   </si>
   <si>
-    <t>Rajesh Ghosh</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Design and implemente the database for the project</t>
-  </si>
-  <si>
-    <t>Data Base</t>
-  </si>
-  <si>
     <t>Very High</t>
   </si>
   <si>
+    <t>1.0.0.0</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Person 1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Test server configaration (Local Share server)</t>
+  </si>
+  <si>
+    <t>José Pedro Teles</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Test Local server</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
     <t>Dev Days in period</t>
   </si>
   <si>
-    <t>1.0.0.0</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Person 1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Test server configaration (Local Share server)</t>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>1. Test local server</t>
+  </si>
+  <si>
+    <t>Person 2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Preparing Deployment Environment</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Prepare Deployment Environment</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Support Unexpected</t>
+  </si>
+  <si>
+    <t>1.prepare deployment environment</t>
+  </si>
+  <si>
+    <t>T4</t>
   </si>
   <si>
     <t>Supported/unexpected</t>
   </si>
   <si>
-    <t>José Pedro Teles</t>
-  </si>
-  <si>
     <t>National holidays</t>
   </si>
   <si>
     <t xml:space="preserve">R&amp;D projects </t>
   </si>
   <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>Test Local server</t>
-  </si>
-  <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>1. Test local server</t>
-  </si>
-  <si>
-    <t>Person 2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>Preparing Deployment Environment</t>
-  </si>
-  <si>
-    <t>Improvement</t>
-  </si>
-  <si>
-    <t>Prepare Deployment Environment</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>1.prepare deployment environment</t>
-  </si>
-  <si>
-    <t>T4</t>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Productivity Factor</t>
+  </si>
+  <si>
+    <t>Extra hours</t>
+  </si>
+  <si>
+    <t>Raw Work Days</t>
+  </si>
+  <si>
+    <t>Dev Days</t>
   </si>
   <si>
     <t>T5</t>
@@ -295,6 +325,9 @@
   </si>
   <si>
     <t>Home Page,Data Base</t>
+  </si>
+  <si>
+    <t>ITM</t>
   </si>
   <si>
     <t>1. Login botton
@@ -378,9 +411,6 @@
     <t>Marina Camilo</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Full Text Search Database Products</t>
   </si>
   <si>
@@ -389,49 +419,19 @@
 3. Link to other page to how the result of search</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Holidays</t>
-  </si>
-  <si>
     <t>T11</t>
   </si>
   <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Support Unexpected</t>
-  </si>
-  <si>
     <t>Top Selling Produc Slider</t>
   </si>
   <si>
     <t>Victor Padi</t>
   </si>
   <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Productivity Factor</t>
-  </si>
-  <si>
-    <t>Extra hours</t>
-  </si>
-  <si>
-    <t>Raw Work Days</t>
-  </si>
-  <si>
-    <t>Dev Days</t>
-  </si>
-  <si>
     <t>Top Selling Products carousel</t>
   </si>
   <si>
     <t>Produtos Page,Data Base</t>
-  </si>
-  <si>
-    <t>ITM</t>
   </si>
   <si>
     <t>1. Do a caroussel with boutstrap. 
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Checkout and payment page</t>
+  </si>
+  <si>
+    <t>total:</t>
   </si>
   <si>
     <t>Get the total cost of the items of the cart in different coins. Confirm Deliver adress. Check the payment method.</t>
@@ -610,9 +613,6 @@
     <t>T25</t>
   </si>
   <si>
-    <t>total:</t>
-  </si>
-  <si>
     <t>T26</t>
   </si>
   <si>
@@ -713,6 +713,24 @@
     <t>User Registration</t>
   </si>
   <si>
+    <t>Descripion</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>Additional Req.</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
     <t>Form for reistration with name last name, email and password. Add to the database the ew user.</t>
   </si>
   <si>
@@ -720,6 +738,9 @@
 2. Define section to put the email first name, last name and password and confirm password</t>
   </si>
   <si>
+    <t>Release status</t>
+  </si>
+  <si>
     <t>T35</t>
   </si>
   <si>
@@ -730,6 +751,9 @@
   </si>
   <si>
     <t>User,Shopping</t>
+  </si>
+  <si>
+    <t>OPS</t>
   </si>
   <si>
     <t>1. Define section where usr could write 
@@ -743,7 +767,16 @@
     <t>Set Profile</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>Add a image to the account. Also, define the addres of the user</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Identify release version</t>
   </si>
   <si>
     <t>1. Define section to upload photo
@@ -754,10 +787,22 @@
     <t>T37</t>
   </si>
   <si>
+    <t>Q.A.</t>
+  </si>
+  <si>
     <t>Update Profile</t>
   </si>
   <si>
     <t>Form whereit should be possible to change the password, adress and image</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Location of package / Artifact</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GRLh7rSqZFQ-dSgLuu9HKy91Y4_AnDtw</t>
   </si>
   <si>
     <t>1. Define section to upload photo
@@ -775,7 +820,16 @@
     <t>List the orders that the user already had</t>
   </si>
   <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Release date</t>
+  </si>
+  <si>
     <t>User,Data Base,Shopping</t>
+  </si>
+  <si>
+    <t>P.M.</t>
   </si>
   <si>
     <t>1. Define section to show the list of the order
@@ -785,10 +839,19 @@
     <t>T39</t>
   </si>
   <si>
+    <t>R5</t>
+  </si>
+  <si>
     <t>Description of Order Section</t>
   </si>
   <si>
+    <t>Release leaders</t>
+  </si>
+  <si>
     <t xml:space="preserve">Show the product list of the order that user seected </t>
+  </si>
+  <si>
+    <t>DEV</t>
   </si>
   <si>
     <t>1. Define section to list the items of the order
@@ -799,7 +862,16 @@
     <t>T40</t>
   </si>
   <si>
-    <t>Time to Finish:</t>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Release contact</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Approvals</t>
   </si>
   <si>
     <t>T41</t>
@@ -808,19 +880,37 @@
     <t>Contact Us Page</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>T42</t>
   </si>
   <si>
     <t>Form to send message Section</t>
   </si>
   <si>
+    <t xml:space="preserve">R8 </t>
+  </si>
+  <si>
+    <t>Release maintenance</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
     <t>Form with name, email, and description area.</t>
   </si>
   <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
     <t>Contact Us</t>
+  </si>
+  <si>
+    <t>Configurations</t>
   </si>
   <si>
     <t>1. Define section to put name, email and a box to put the text.
@@ -833,7 +923,19 @@
     <t>Formal contacts Section with map</t>
   </si>
   <si>
+    <t>Settings</t>
+  </si>
+  <si>
     <t>Map with the address of the store. Email and phone of the store</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Changes on server</t>
   </si>
   <si>
     <t>1. Define ection with google map that has the location of the office.
@@ -844,22 +946,28 @@
     <t>T44</t>
   </si>
   <si>
-    <t>Descripion</t>
-  </si>
-  <si>
-    <t>Responsible</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>PRD</t>
-  </si>
-  <si>
-    <t>Additional Req.</t>
-  </si>
-  <si>
-    <t>R4</t>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Not Aplicable</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Priviliges</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Release package</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>T49</t>
@@ -868,7 +976,10 @@
     <t>Post Purchase Test</t>
   </si>
   <si>
-    <t>Release status</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Turn On</t>
   </si>
   <si>
     <t xml:space="preserve">Testing </t>
@@ -877,10 +988,10 @@
     <t>Check if user can purchase products.</t>
   </si>
   <si>
-    <t>OPS</t>
-  </si>
-  <si>
-    <t>TBD</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Confirmation message</t>
   </si>
   <si>
     <t>1. After purchse, should be visible in order section the purchase information</t>
@@ -895,9 +1006,6 @@
     <t>Prepare server to receive a bigger amount of requests and lauch a version of the product</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>1. Should go live and configure the system</t>
   </si>
   <si>
@@ -907,190 +1015,85 @@
     <t>Tasks #</t>
   </si>
   <si>
-    <t>Identify release version</t>
-  </si>
-  <si>
-    <t>Q.A.</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Location of package / Artifact</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1GRLh7rSqZFQ-dSgLuu9HKy91Y4_AnDtw</t>
+    <t>H</t>
   </si>
   <si>
     <t>Total days:</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Release date</t>
-  </si>
-  <si>
-    <t>P.M.</t>
+    <t>Estimated time for 5 people:</t>
+  </si>
+  <si>
+    <t>Trello Link</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/y9dr8MYm/sprintboardecommercedev</t>
+  </si>
+  <si>
+    <t>Time to Finish:</t>
+  </si>
+  <si>
+    <t>Dev Members:</t>
+  </si>
+  <si>
+    <t>Type of the Task:</t>
+  </si>
+  <si>
+    <t>Type of Component:</t>
+  </si>
+  <si>
+    <t>Type of Priority:</t>
+  </si>
+  <si>
+    <t>Fix Version:</t>
+  </si>
+  <si>
+    <t>Environment:</t>
+  </si>
+  <si>
+    <t>Test Members:</t>
+  </si>
+  <si>
+    <t>Team:</t>
+  </si>
+  <si>
+    <t>Total Holidays</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Data Issue</t>
+  </si>
+  <si>
+    <t>Producs Page</t>
+  </si>
+  <si>
+    <t>Admin,User</t>
+  </si>
+  <si>
+    <t>Shopping</t>
   </si>
   <si>
     <t>No. of Tasks</t>
   </si>
   <si>
-    <t>Estimated time for 5 people:</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>Release leaders</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>Release contact</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>Approvals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8 </t>
-  </si>
-  <si>
-    <t>Release maintenance</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>Backup</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>Configurations</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>Changes on server</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Not Aplicable</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>Priviliges</t>
+    <t>Date &amp; TIme</t>
+  </si>
+  <si>
+    <t>Team members</t>
+  </si>
+  <si>
+    <t>Done yesterday</t>
   </si>
   <si>
     <t>Type of Tasks</t>
   </si>
   <si>
     <t>Bugs</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Release package</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Turn On</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>Confirmation message</t>
-  </si>
-  <si>
-    <t>Trello Link</t>
-  </si>
-  <si>
-    <t>https://trello.com/b/y9dr8MYm/sprintboardecommercedev</t>
-  </si>
-  <si>
-    <t>Total Holidays</t>
-  </si>
-  <si>
-    <t>Dev Members:</t>
-  </si>
-  <si>
-    <t>Type of the Task:</t>
-  </si>
-  <si>
-    <t>Type of Component:</t>
-  </si>
-  <si>
-    <t>Type of Priority:</t>
-  </si>
-  <si>
-    <t>Fix Version:</t>
-  </si>
-  <si>
-    <t>Environment:</t>
-  </si>
-  <si>
-    <t>Test Members:</t>
-  </si>
-  <si>
-    <t>Team:</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Data Issue</t>
-  </si>
-  <si>
-    <t>Producs Page</t>
-  </si>
-  <si>
-    <t>Admin,User</t>
-  </si>
-  <si>
-    <t>Shopping</t>
-  </si>
-  <si>
-    <t>Team members</t>
-  </si>
-  <si>
-    <t>Done yesterday</t>
   </si>
   <si>
     <t>To be done</t>
@@ -1202,11 +1205,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy h:mm"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1219,14 +1223,14 @@
       <name val="Roboto Slab"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font/>
+    <font>
       <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto Slab"/>
     </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
     <font>
       <b/>
       <sz val="12.0"/>
@@ -1243,20 +1247,13 @@
       <name val="Inconsolata"/>
     </font>
     <font>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto Slab"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <b/>
@@ -1265,8 +1262,11 @@
       <name val="SFUIText-Regular"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1296,13 +1296,17 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF1D2129"/>
-      <name val="Lato"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <b/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1D2129"/>
+      <name val="Lato"/>
     </font>
     <font>
       <name val="Lato"/>
@@ -1320,13 +1324,19 @@
       <name val="Lato"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FFF3F3F3"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12.0"/>
       <color rgb="FF1D2129"/>
       <name val="Lato"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FFF3F3F3"/>
+      <sz val="12.0"/>
+      <color rgb="FF1D2129"/>
       <name val="Lato"/>
     </font>
     <font>
@@ -1354,12 +1364,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
@@ -1368,6 +1372,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1390,14 +1400,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor rgb="FF434343"/>
+        <fgColor rgb="FFBF9000"/>
+        <bgColor rgb="FFBF9000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
-        <bgColor rgb="FFBF9000"/>
+        <fgColor rgb="FF434343"/>
+        <bgColor rgb="FF434343"/>
       </patternFill>
     </fill>
     <fill>
@@ -1439,130 +1449,130 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="10" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1574,36 +1584,39 @@
     <xf borderId="1" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="12" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="12" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="26" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1827,11 +1840,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="914390404"/>
-        <c:axId val="1345052217"/>
+        <c:axId val="1089270205"/>
+        <c:axId val="2111582168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="914390404"/>
+        <c:axId val="1089270205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,10 +1876,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1345052217"/>
+        <c:crossAx val="2111582168"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1345052217"/>
+        <c:axId val="2111582168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914390404"/>
+        <c:crossAx val="1089270205"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2077,11 +2090,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="422814020"/>
-        <c:axId val="560564627"/>
+        <c:axId val="609935164"/>
+        <c:axId val="584744877"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="422814020"/>
+        <c:axId val="609935164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,10 +2109,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560564627"/>
+        <c:crossAx val="584744877"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560564627"/>
+        <c:axId val="584744877"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422814020"/>
+        <c:crossAx val="609935164"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2332,1590 +2345,1590 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>16.0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>5.0</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>43047.0</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="18"/>
+      <c r="Q3" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="Q3" s="11">
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="17">
+        <v>43045.0</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="17">
+        <v>43046.0</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="I6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="17">
+        <v>43046.0</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="17">
+        <v>43053.0</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="17">
+        <v>43054.0</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="12">
         <v>3.0</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="R9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="17">
+        <v>43048.0</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="I11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="11">
+      <c r="H12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="17">
+        <v>43048.0</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="12">
         <v>5.0</v>
       </c>
-      <c r="E4" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="18">
-        <v>43045.0</v>
-      </c>
-      <c r="M4" s="11" t="s">
+      <c r="R12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="17">
+        <v>43049.0</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="18">
-        <v>43046.0</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="I6" s="19"/>
-      <c r="L6" s="18"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="18">
-        <v>43046.0</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="18">
-        <v>43053.0</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="18">
-        <v>43054.0</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="18">
-        <v>43048.0</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="I11" s="19"/>
-      <c r="L11" s="18"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="18">
-        <v>43048.0</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="18">
-        <v>43049.0</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="12">
         <v>1.0</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>58</v>
+      <c r="R13" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <v>8.0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>8.0</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="18">
+      <c r="J14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="12">
         <v>2.0</v>
       </c>
-      <c r="R14" s="11" t="s">
-        <v>46</v>
+      <c r="R14" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="R15" s="11"/>
+      <c r="I15" s="18"/>
+      <c r="L15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>4.0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="12">
         <v>4.0</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="18">
+      <c r="J16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="17">
         <v>43048.0</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="12">
         <v>1.0</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>58</v>
+      <c r="R16" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>8.0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="12">
         <v>8.0</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="F17" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="11" t="s">
+      <c r="J17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="17">
         <v>43047.0</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O17" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="12">
         <v>4.0</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>58</v>
+      <c r="R17" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <v>3.0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>3.0</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>85</v>
+      <c r="F18" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="J18" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="17">
         <v>43048.0</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="O18" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="11">
+        <v>134</v>
+      </c>
+      <c r="Q18" s="12">
         <v>1.0</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>58</v>
+      <c r="R18" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="I19" s="19"/>
-      <c r="L19" s="18"/>
-      <c r="O19" s="19"/>
+      <c r="A19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="I19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="11">
+      <c r="B20" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="12">
         <v>8.0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>8.0</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>104</v>
+      <c r="F20" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>61</v>
+      <c r="H20" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="18">
+      <c r="J20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="17">
         <v>43055.0</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="O20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="R20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="I21" s="19"/>
-      <c r="L21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="R21" s="11" t="s">
-        <v>46</v>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="I21" s="18"/>
+      <c r="L21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="R21" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="11">
+      <c r="B22" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="12">
         <v>8.0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="12">
         <v>8.0</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="18">
+      <c r="J22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="17">
         <v>43053.0</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="O22" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="R22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="11">
+      <c r="C23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="12">
         <v>16.0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>16.0</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="17">
+        <v>43049.0</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="J23" s="11" t="s">
+      <c r="I24" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="17">
+        <v>43048.0</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="18">
-        <v>43049.0</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="11">
-        <v>16.0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>16.0</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="18">
-        <v>43048.0</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="11">
+      <c r="C25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="12">
         <v>5.0</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>5.0</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="17">
         <v>43046.0</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="O25" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="11">
+      <c r="C26" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="12">
         <v>8.0</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="12">
         <v>8.0</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="J26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="17">
+        <v>43054.0</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="18">
-        <v>43054.0</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>162</v>
+      <c r="A27" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="G27" s="15"/>
-      <c r="I27" s="19"/>
-      <c r="L27" s="18"/>
-      <c r="O27" s="19"/>
-      <c r="R27" s="11"/>
+      <c r="I27" s="18"/>
+      <c r="L27" s="17"/>
+      <c r="O27" s="18"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <v>8.0</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="12">
         <v>8.0</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="18">
+      <c r="K28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="12">
         <v>2.0</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>46</v>
+      <c r="R28" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <v>11.0</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="12">
         <v>11.0</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>104</v>
+      <c r="F29" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="18">
+      <c r="K29" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="12">
         <v>1.0</v>
       </c>
-      <c r="R29" s="11" t="s">
-        <v>58</v>
+      <c r="R29" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>5.0</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>5.0</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>104</v>
+      <c r="F30" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" s="18">
+      <c r="K30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" s="17">
         <v>43053.0</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O30" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="12">
         <v>1.0</v>
       </c>
-      <c r="R30" s="11" t="s">
-        <v>58</v>
+      <c r="R30" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>3.0</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="12">
         <v>3.0</v>
       </c>
-      <c r="F31" s="25" t="s">
-        <v>104</v>
+      <c r="F31" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" s="18">
+      <c r="K31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17">
         <v>43055.0</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>82</v>
+      <c r="M31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="12">
         <v>1.0</v>
       </c>
-      <c r="R31" s="11" t="s">
-        <v>58</v>
+      <c r="R31" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="L32" s="18"/>
-      <c r="O32" s="19"/>
-      <c r="R32" s="11"/>
+      <c r="I32" s="18"/>
+      <c r="L32" s="17"/>
+      <c r="O32" s="18"/>
+      <c r="R32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="L33" s="18"/>
-      <c r="O33" s="19"/>
-      <c r="R33" s="11"/>
+      <c r="I33" s="18"/>
+      <c r="L33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="R33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="L34" s="18"/>
-      <c r="O34" s="19"/>
-      <c r="R34" s="11" t="s">
-        <v>46</v>
+      <c r="I34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="O34" s="18"/>
+      <c r="R34" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <v>4.0</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="12">
         <v>4.0</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="18">
+      <c r="K35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="17">
         <v>43049.0</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="12">
         <v>1.0</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>46</v>
+      <c r="R35" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <v>6.0</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="12">
         <v>6.0</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="J36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="18">
+      <c r="K36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="O36" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="17">
+        <v>43054.0</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O36" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q36" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="18">
-        <v>43054.0</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="A38" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="12">
         <v>8.0</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="12">
         <v>8.0</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L38" s="18">
+      <c r="K38" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" s="17">
         <v>43052.0</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>82</v>
+      <c r="M38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q38" s="11">
+        <v>215</v>
+      </c>
+      <c r="Q38" s="12">
         <v>1.0</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>46</v>
+      <c r="R38" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="11">
+      <c r="A39" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="12">
         <v>4.0</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="12">
         <v>4.0</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="J39" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L39" s="18">
+      <c r="K39" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39" s="17">
         <v>43053.0</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>82</v>
+      <c r="M39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q39" s="11">
+        <v>223</v>
+      </c>
+      <c r="Q39" s="12">
         <v>1.0</v>
       </c>
-      <c r="R39" s="11" t="s">
-        <v>58</v>
+      <c r="R39" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" s="11">
+      <c r="A40" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="12">
         <v>3.0</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="12">
         <v>3.0</v>
       </c>
       <c r="F40" s="15" t="s">
@@ -3924,370 +3937,370 @@
       <c r="G40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L40" s="18">
+        <v>226</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" s="17">
         <v>43054.0</v>
       </c>
-      <c r="M40" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>82</v>
+      <c r="M40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q40" s="11">
+        <v>231</v>
+      </c>
+      <c r="Q40" s="12">
         <v>1.0</v>
       </c>
-      <c r="R40" s="11" t="s">
-        <v>58</v>
+      <c r="R40" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="A41" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="12">
         <v>3.0</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="12">
         <v>3.0</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L41" s="18">
+        <v>236</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" s="17">
         <v>43054.0</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="L42" s="17"/>
+      <c r="O42" s="18"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="L43" s="17"/>
+      <c r="O43" s="18"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="E44" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L44" s="17">
+        <v>43055.0</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E45" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" s="17">
+        <v>43047.0</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N41" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q41" s="11">
+      <c r="O45" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q45" s="12">
         <v>1.0</v>
       </c>
-      <c r="R41" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="L42" s="18"/>
-      <c r="O42" s="19"/>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="I43" s="19"/>
-      <c r="L43" s="18"/>
-      <c r="O43" s="19"/>
-      <c r="R43" s="11"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="F44" s="15" t="s">
+      <c r="R45" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="12"/>
+      <c r="O46" s="18"/>
+    </row>
+    <row r="50">
+      <c r="R50" s="12"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E51" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51" s="17">
+        <v>43054.0</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L44" s="18">
-        <v>43055.0</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q44" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D45" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E45" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="K45" s="11" t="s">
+      <c r="I52" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="18">
-        <v>43047.0</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O45" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q45" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="I46" s="19"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="11"/>
-      <c r="O46" s="19"/>
-    </row>
-    <row r="50">
-      <c r="R50" s="11"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E51" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L51" s="18">
-        <v>43054.0</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O51" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q51" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="R51" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D52" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E52" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L52" s="18">
+      <c r="L52" s="17">
         <v>43056.0</v>
       </c>
-      <c r="M52" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>63</v>
+      <c r="M52" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q52" s="11">
+        <v>287</v>
+      </c>
+      <c r="Q52" s="12">
         <v>6.5</v>
       </c>
-      <c r="R52" s="11" t="s">
-        <v>58</v>
+      <c r="R52" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="53">
-      <c r="M53" s="11"/>
-      <c r="O53" s="19"/>
+      <c r="M53" s="12"/>
+      <c r="O53" s="18"/>
     </row>
     <row r="54">
-      <c r="O54" s="19"/>
+      <c r="O54" s="18"/>
     </row>
     <row r="55">
-      <c r="D55" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="O55" s="19"/>
-      <c r="Q55" s="11" t="s">
-        <v>252</v>
+      <c r="D55" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="O55" s="18"/>
+      <c r="Q55" s="12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="11" t="s">
-        <v>253</v>
+      <c r="B56" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="D56">
         <f>SUM(D3:D52)</f>
         <v>227</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>222</v>
+      <c r="E56" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="J56" s="13"/>
-      <c r="O56" s="19"/>
+      <c r="O56" s="18"/>
       <c r="Q56">
         <f>SUM(Q3:Q52)</f>
         <v>70.5</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>222</v>
+      <c r="R56" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="11">
+      <c r="B57" s="12">
         <v>38.0</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="J57" s="11"/>
-      <c r="O57" s="19"/>
-      <c r="Q57" s="11" t="s">
-        <v>259</v>
+      <c r="D57" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="O57" s="18"/>
+      <c r="Q57" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="58">
@@ -4295,93 +4308,93 @@
         <f>D56/6.5</f>
         <v>34.92307692</v>
       </c>
-      <c r="J58" s="11"/>
-      <c r="O58" s="19"/>
+      <c r="J58" s="12"/>
+      <c r="O58" s="18"/>
       <c r="Q58">
         <f>Q56/6.5</f>
         <v>10.84615385</v>
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="O59" s="19"/>
+      <c r="D59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="O59" s="18"/>
     </row>
     <row r="60">
-      <c r="D60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="O60" s="19"/>
+      <c r="D60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="O60" s="18"/>
     </row>
     <row r="61">
-      <c r="C61" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="O61" s="19"/>
+      <c r="C61" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="J61" s="12"/>
+      <c r="O61" s="18"/>
     </row>
     <row r="62">
-      <c r="J62" s="11"/>
-      <c r="O62" s="19"/>
+      <c r="J62" s="12"/>
+      <c r="O62" s="18"/>
     </row>
     <row r="63">
-      <c r="J63" s="11"/>
-      <c r="O63" s="19"/>
+      <c r="J63" s="12"/>
+      <c r="O63" s="18"/>
     </row>
     <row r="64">
-      <c r="J64" s="11"/>
-      <c r="O64" s="19"/>
+      <c r="J64" s="12"/>
+      <c r="O64" s="18"/>
     </row>
     <row r="65">
-      <c r="J65" s="11"/>
-      <c r="O65" s="19"/>
+      <c r="J65" s="12"/>
+      <c r="O65" s="18"/>
     </row>
     <row r="66">
-      <c r="J66" s="11"/>
+      <c r="J66" s="12"/>
     </row>
     <row r="67">
-      <c r="J67" s="11"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68">
-      <c r="J68" s="11"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69">
-      <c r="J69" s="11"/>
+      <c r="J69" s="12"/>
     </row>
     <row r="70">
-      <c r="J70" s="11"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71">
-      <c r="J71" s="11"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72">
-      <c r="J72" s="11"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73">
-      <c r="J73" s="11"/>
+      <c r="J73" s="12"/>
     </row>
     <row r="74">
-      <c r="J74" s="11"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75">
-      <c r="J75" s="11"/>
+      <c r="J75" s="12"/>
     </row>
     <row r="76">
-      <c r="J76" s="11"/>
+      <c r="J76" s="12"/>
     </row>
     <row r="77">
-      <c r="J77" s="11"/>
+      <c r="J77" s="12"/>
     </row>
     <row r="78">
-      <c r="J78" s="11"/>
+      <c r="J78" s="12"/>
     </row>
     <row r="79">
-      <c r="J79" s="11"/>
+      <c r="J79" s="12"/>
     </row>
     <row r="85">
-      <c r="J85" s="11"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="89">
-      <c r="J89" s="11"/>
+      <c r="J89" s="12"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4457,88 +4470,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="48"/>
+      <c r="A1" s="48" t="s">
+        <v>312</v>
+      </c>
       <c r="B1" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>316</v>
+      <c r="D1" s="51" t="s">
+        <v>317</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
+        <v>318</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
     </row>
     <row r="2" ht="61.5" customHeight="1">
-      <c r="A2" s="53"/>
+      <c r="A2" s="54">
+        <v>43046.385416666664</v>
+      </c>
       <c r="B2" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
     </row>
     <row r="3" ht="69.75" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
     <row r="4" ht="77.25" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>324</v>
+        <v>105</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>325</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
@@ -4549,30 +4566,30 @@
         <v>36</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
     </row>
     <row r="6" ht="77.25" customHeight="1">
       <c r="A6" s="59"/>
-      <c r="B6" s="61" t="s">
-        <v>330</v>
+      <c r="B6" s="62" t="s">
+        <v>331</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
@@ -4596,8 +4613,8 @@
       <c r="G8" s="59"/>
     </row>
     <row r="14">
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4617,49 +4634,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
         <v>43045.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
         <v>43067.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
         <v>43068.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
         <v>43073.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6">
         <v>43074.0</v>
       </c>
     </row>
@@ -4680,34 +4697,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="F2" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="G2">
         <f> CEILING(('TeamCap-2'!J8),1)</f>
@@ -4723,10 +4740,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3">
         <f>DATEDIF(DeliveryDates!B2, DeliveryDates!B3, "D")</f>
         <v>22</v>
@@ -4735,14 +4752,14 @@
         <f>NETWORKDAYS(DeliveryDates!B2,DeliveryDates!B3)</f>
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>37</v>
+      <c r="F3" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="G3">
         <f>CEILING(('TeamCap-2'!J14),1)</f>
         <v>14</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="19">
         <f> CEILING(('All-Task'!Q58),1)</f>
         <v>11</v>
       </c>
@@ -4752,53 +4769,53 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7"/>
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7"/>
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="20">
+      <c r="A8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="21">
         <f>C3</f>
         <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="12">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="12">
         <v>0.05</v>
       </c>
     </row>
@@ -4833,52 +4850,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>109</v>
+      <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12">
         <f>HolidaysCal!C2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>2.0</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4886,10 +4903,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="12">
         <v>65.0</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
       <c r="I2">
         <f>'TeamCapacity-1'!$D$3-C2-D2-F2-E2</f>
         <v>13.15</v>
@@ -4900,20 +4917,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="A3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="12">
         <f>HolidaysCal!C3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>4.0</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4921,10 +4938,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>65.0</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3">
         <f>'TeamCapacity-1'!$D$3-C3-D3-F3-E3</f>
         <v>9.15</v>
@@ -4935,20 +4952,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="A4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="12">
         <f>HolidaysCal!C4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>1.0</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4956,10 +4973,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <v>100.0</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="12"/>
       <c r="I4">
         <f>'TeamCapacity-1'!$D$3-C4-D4-F4-E4</f>
         <v>13.15</v>
@@ -4970,20 +4987,20 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12">
         <f>HolidaysCal!C5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>2.0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -4991,10 +5008,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <v>30.0</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="12"/>
       <c r="I5">
         <f>'TeamCapacity-1'!$D$3-C5-D5-F5-E5</f>
         <v>13.15</v>
@@ -5006,19 +5023,19 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="11">
+        <v>110</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="12">
         <f>HolidaysCal!C6</f>
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>3.0</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -5026,10 +5043,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>65.0</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="I6">
         <f>'TeamCapacity-1'!$D$3-C6-D6-F6-E6</f>
         <v>12.15</v>
@@ -5041,7 +5058,7 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">sum(C2:C6)</f>
@@ -5061,52 +5078,52 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>109</v>
+      <c r="A10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="27">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="25">
         <f>HolidaysCal!C7</f>
         <v>3</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>2.0</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -5114,10 +5131,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>65.0</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="12"/>
       <c r="I11">
         <f>'TeamCapacity-1'!$D$3-C11-D11-F11-E11</f>
         <v>11.15</v>
@@ -5129,19 +5146,19 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="27">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="25">
         <f>HolidaysCal!C8</f>
         <v>3</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>4.0</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <f>'TeamCapacity-1'!B9</f>
         <v>0</v>
       </c>
@@ -5149,10 +5166,10 @@
         <f>'TeamCapacity-1'!$B$11*'TeamCapacity-1'!$D$3</f>
         <v>0.85</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>65.0</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="12"/>
       <c r="I12">
         <f>'TeamCapacity-1'!$D$3-C12-D12-F12-E12</f>
         <v>9.15</v>
@@ -5164,7 +5181,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:D14" si="5">sum(C11:C12)</f>
@@ -5185,12 +5202,12 @@
     </row>
     <row r="15">
       <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="27"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="17">
       <c r="A17" s="13"/>
@@ -5211,1190 +5228,1190 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>219</v>
+      <c r="A1" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="B1">
         <f>sum('All-Task'!D3:D52)</f>
         <v>227</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>222</v>
+      <c r="C1" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
-        <v>15</v>
+      <c r="A2" s="38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="35">
+      <c r="A3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="40">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="A4" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="40">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="40">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="35">
+      <c r="A6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="40">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A6)</f>
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="35">
+      <c r="A7" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="40">
         <f>COUNTIF('All-Task'!$G$3:$G$52,A7)</f>
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="s">
-        <v>26</v>
+      <c r="A9" s="38" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>265</v>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="35">
+      <c r="A11" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="40">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A11)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="39">
         <f>SUMIF('All-Task'!$F$3:$F$52,A11,'All-Task'!$D$3:$D$52)</f>
         <v>52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="35">
+      <c r="A12" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="40">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="39">
         <f>SUMIF('All-Task'!$F$3:$F$52,A12,'All-Task'!$D$3:$D$52)</f>
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="40">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A13)</f>
         <v>6</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="39">
         <f>SUMIF('All-Task'!$F$3:$F$52,A13,'All-Task'!$D$3:$D$52)</f>
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="35">
+      <c r="A14" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="40">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A14)</f>
         <v>8</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="39">
         <f>SUMIF('All-Task'!$F$3:$F$52,A14,'All-Task'!$D$3:$D$52)</f>
         <v>49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="35">
+      <c r="A15" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="40">
         <f>COUNTIF('All-Task'!$F$3:$F$52,A15)</f>
         <v>5</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="39">
         <f>SUMIF('All-Task'!$F$3:$F$52,A15,'All-Task'!$D$3:$D$52)</f>
         <v>34</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="28" t="s">
-        <v>288</v>
+      <c r="A17" s="38" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="35">
+      <c r="A18" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="40">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="35">
+      <c r="A19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="40">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A19)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="35">
+      <c r="A20" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="40">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A20)</f>
         <v>10</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="40">
         <f>COUNTIF('All-Task'!$H$3:$H$52,A21)</f>
         <v>16</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
     </row>
     <row r="55">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
     </row>
     <row r="56">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
     </row>
     <row r="57">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
     </row>
     <row r="58">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
     </row>
     <row r="59">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
     </row>
     <row r="60">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
     </row>
     <row r="61">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
     </row>
     <row r="63">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
     </row>
     <row r="64">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
     </row>
     <row r="65">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
     </row>
     <row r="66">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
     </row>
     <row r="67">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
     </row>
     <row r="68">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
     </row>
     <row r="69">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
     </row>
     <row r="70">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
     </row>
     <row r="71">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
     </row>
     <row r="72">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
     </row>
     <row r="73">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
     </row>
     <row r="74">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
     </row>
     <row r="75">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
     </row>
     <row r="76">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
     </row>
     <row r="77">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
     </row>
     <row r="78">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
     </row>
     <row r="79">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
     </row>
     <row r="80">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
     </row>
     <row r="81">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
     </row>
     <row r="82">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
     </row>
     <row r="83">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
     </row>
     <row r="86">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
     </row>
     <row r="87">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
     </row>
     <row r="88">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
     </row>
     <row r="89">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
     </row>
     <row r="90">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
     </row>
     <row r="91">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
     </row>
     <row r="92">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
     </row>
     <row r="93">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
     </row>
     <row r="94">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
     </row>
     <row r="95">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
     </row>
     <row r="96">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
     </row>
     <row r="97">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
     </row>
     <row r="98">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
     </row>
     <row r="99">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
     </row>
     <row r="100">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
     </row>
     <row r="101">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
     </row>
     <row r="102">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
     </row>
     <row r="103">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
     </row>
     <row r="104">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
     </row>
     <row r="105">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
     </row>
     <row r="106">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
     </row>
     <row r="107">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
     </row>
     <row r="108">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
     </row>
     <row r="109">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
     </row>
     <row r="110">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
     </row>
     <row r="111">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
     </row>
     <row r="112">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
     </row>
     <row r="113">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
     </row>
     <row r="114">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
     </row>
     <row r="115">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
     </row>
     <row r="116">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
     </row>
     <row r="117">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
     </row>
     <row r="118">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
     </row>
     <row r="119">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
     </row>
     <row r="120">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
     </row>
     <row r="121">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
     </row>
     <row r="122">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
     </row>
     <row r="123">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
     </row>
     <row r="124">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
     </row>
     <row r="125">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
     </row>
     <row r="126">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
     </row>
     <row r="127">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
     </row>
     <row r="128">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
     </row>
     <row r="129">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
     </row>
     <row r="130">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
     </row>
     <row r="131">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
     </row>
     <row r="132">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
     </row>
     <row r="133">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
     </row>
     <row r="134">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
     </row>
     <row r="135">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
     </row>
     <row r="136">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
     </row>
     <row r="137">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
     </row>
     <row r="138">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
     </row>
     <row r="139">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
     </row>
     <row r="140">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
     </row>
     <row r="141">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
     </row>
     <row r="142">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
     </row>
     <row r="143">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
     </row>
     <row r="144">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
     </row>
     <row r="145">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
     </row>
     <row r="146">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
     </row>
     <row r="147">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
     </row>
     <row r="148">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
     </row>
     <row r="149">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
     </row>
     <row r="150">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
     </row>
     <row r="151">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
     </row>
     <row r="152">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
     </row>
     <row r="153">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
     </row>
     <row r="154">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
     </row>
     <row r="155">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
     </row>
     <row r="156">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
     </row>
     <row r="157">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
     </row>
     <row r="158">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
     </row>
     <row r="159">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
     </row>
     <row r="160">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
     </row>
     <row r="161">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
     </row>
     <row r="162">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
     </row>
     <row r="163">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
     </row>
     <row r="164">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
     </row>
     <row r="165">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
     </row>
     <row r="166">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
     </row>
     <row r="167">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
     </row>
     <row r="168">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
     </row>
     <row r="169">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
     </row>
     <row r="170">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
     </row>
     <row r="171">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
     </row>
     <row r="172">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
     </row>
     <row r="173">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
     </row>
     <row r="174">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
     </row>
     <row r="175">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
     </row>
     <row r="176">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
     </row>
     <row r="177">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
     </row>
     <row r="178">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
     </row>
     <row r="179">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
     </row>
     <row r="180">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
     </row>
     <row r="181">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
     </row>
     <row r="182">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
     </row>
     <row r="183">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
     </row>
     <row r="184">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
     </row>
     <row r="185">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
     </row>
     <row r="186">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
     </row>
     <row r="187">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
     </row>
     <row r="188">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
     </row>
     <row r="189">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
     </row>
     <row r="190">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
     </row>
     <row r="191">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
     </row>
     <row r="192">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
     </row>
     <row r="193">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
     </row>
     <row r="194">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
     </row>
     <row r="195">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
     </row>
     <row r="196">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
     </row>
     <row r="197">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
     </row>
     <row r="198">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
     </row>
     <row r="199">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
     </row>
     <row r="200">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
     </row>
     <row r="201">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
     </row>
     <row r="202">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
     </row>
     <row r="203">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
     </row>
     <row r="204">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
     </row>
     <row r="205">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
+      <c r="A205" s="12"/>
+      <c r="B205" s="12"/>
     </row>
     <row r="206">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
+      <c r="A206" s="12"/>
+      <c r="B206" s="12"/>
     </row>
     <row r="207">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="12"/>
+      <c r="B207" s="12"/>
     </row>
     <row r="208">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
+      <c r="A208" s="12"/>
+      <c r="B208" s="12"/>
     </row>
     <row r="209">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
+      <c r="A209" s="12"/>
+      <c r="B209" s="12"/>
     </row>
     <row r="210">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
     </row>
     <row r="211">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
+      <c r="A211" s="12"/>
+      <c r="B211" s="12"/>
     </row>
     <row r="212">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
+      <c r="A212" s="12"/>
+      <c r="B212" s="12"/>
     </row>
     <row r="213">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
+      <c r="A213" s="12"/>
+      <c r="B213" s="12"/>
     </row>
     <row r="214">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
     </row>
     <row r="215">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
+      <c r="A215" s="12"/>
+      <c r="B215" s="12"/>
     </row>
     <row r="216">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
+      <c r="A216" s="12"/>
+      <c r="B216" s="12"/>
     </row>
     <row r="217">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
+      <c r="A217" s="12"/>
+      <c r="B217" s="12"/>
     </row>
     <row r="218">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
+      <c r="A218" s="12"/>
+      <c r="B218" s="12"/>
     </row>
     <row r="219">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
+      <c r="A219" s="12"/>
+      <c r="B219" s="12"/>
     </row>
     <row r="220">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
+      <c r="A220" s="12"/>
+      <c r="B220" s="12"/>
     </row>
     <row r="221">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
+      <c r="A221" s="12"/>
+      <c r="B221" s="12"/>
     </row>
     <row r="222">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
+      <c r="A222" s="12"/>
+      <c r="B222" s="12"/>
     </row>
     <row r="223">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
+      <c r="A223" s="12"/>
+      <c r="B223" s="12"/>
     </row>
     <row r="224">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
+      <c r="A224" s="12"/>
+      <c r="B224" s="12"/>
     </row>
     <row r="225">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
+      <c r="A225" s="12"/>
+      <c r="B225" s="12"/>
     </row>
     <row r="226">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
+      <c r="A226" s="12"/>
+      <c r="B226" s="12"/>
     </row>
     <row r="227">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
+      <c r="A227" s="12"/>
+      <c r="B227" s="12"/>
     </row>
     <row r="228">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
+      <c r="A228" s="12"/>
+      <c r="B228" s="12"/>
     </row>
     <row r="229">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
+      <c r="A229" s="12"/>
+      <c r="B229" s="12"/>
     </row>
     <row r="230">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
     </row>
     <row r="231">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
+      <c r="A231" s="12"/>
+      <c r="B231" s="12"/>
     </row>
     <row r="232">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
+      <c r="A232" s="12"/>
+      <c r="B232" s="12"/>
     </row>
     <row r="233">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
+      <c r="A233" s="12"/>
+      <c r="B233" s="12"/>
     </row>
     <row r="234">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
     </row>
     <row r="235">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
+      <c r="A235" s="12"/>
+      <c r="B235" s="12"/>
     </row>
     <row r="236">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
+      <c r="A236" s="12"/>
+      <c r="B236" s="12"/>
     </row>
     <row r="237">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
+      <c r="A237" s="12"/>
+      <c r="B237" s="12"/>
     </row>
     <row r="238">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
+      <c r="A238" s="12"/>
+      <c r="B238" s="12"/>
     </row>
     <row r="239">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
+      <c r="A239" s="12"/>
+      <c r="B239" s="12"/>
     </row>
     <row r="240">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
     </row>
     <row r="241">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
+      <c r="A241" s="12"/>
+      <c r="B241" s="12"/>
     </row>
     <row r="242">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
+      <c r="A242" s="12"/>
+      <c r="B242" s="12"/>
     </row>
     <row r="243">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
+      <c r="A243" s="12"/>
+      <c r="B243" s="12"/>
     </row>
     <row r="244">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
+      <c r="A244" s="12"/>
+      <c r="B244" s="12"/>
     </row>
     <row r="245">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
+      <c r="A245" s="12"/>
+      <c r="B245" s="12"/>
     </row>
     <row r="246">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
+      <c r="A246" s="12"/>
+      <c r="B246" s="12"/>
     </row>
     <row r="247">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
     </row>
     <row r="248">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
     </row>
     <row r="249">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
+      <c r="A249" s="12"/>
+      <c r="B249" s="12"/>
     </row>
     <row r="250">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
     </row>
     <row r="251">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
     </row>
     <row r="252">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
+      <c r="A252" s="12"/>
+      <c r="B252" s="12"/>
     </row>
     <row r="253">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
+      <c r="A253" s="12"/>
+      <c r="B253" s="12"/>
     </row>
     <row r="254">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
+      <c r="A254" s="12"/>
+      <c r="B254" s="12"/>
     </row>
     <row r="255">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
+      <c r="A255" s="12"/>
+      <c r="B255" s="12"/>
     </row>
     <row r="256">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
+      <c r="A256" s="12"/>
+      <c r="B256" s="12"/>
     </row>
     <row r="257">
-      <c r="A257" s="11"/>
-      <c r="B257" s="11"/>
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
     </row>
     <row r="258">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
+      <c r="A258" s="12"/>
+      <c r="B258" s="12"/>
     </row>
     <row r="259">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
     </row>
     <row r="260">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
     </row>
     <row r="261">
-      <c r="A261" s="11"/>
-      <c r="B261" s="11"/>
+      <c r="A261" s="12"/>
+      <c r="B261" s="12"/>
     </row>
     <row r="262">
-      <c r="A262" s="11"/>
-      <c r="B262" s="11"/>
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
     </row>
     <row r="263">
-      <c r="A263" s="11"/>
-      <c r="B263" s="11"/>
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
     </row>
     <row r="264">
-      <c r="A264" s="11"/>
-      <c r="B264" s="11"/>
+      <c r="A264" s="12"/>
+      <c r="B264" s="12"/>
     </row>
     <row r="265">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
     </row>
     <row r="266">
-      <c r="A266" s="11"/>
-      <c r="B266" s="11"/>
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
     </row>
     <row r="267">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
+      <c r="A267" s="12"/>
+      <c r="B267" s="12"/>
     </row>
     <row r="268">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
+      <c r="A268" s="12"/>
+      <c r="B268" s="12"/>
     </row>
     <row r="269">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
     </row>
     <row r="270">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
     </row>
     <row r="271">
-      <c r="A271" s="11"/>
-      <c r="B271" s="11"/>
+      <c r="A271" s="12"/>
+      <c r="B271" s="12"/>
     </row>
     <row r="272">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
+      <c r="A272" s="12"/>
+      <c r="B272" s="12"/>
     </row>
     <row r="273">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
+      <c r="A273" s="12"/>
+      <c r="B273" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6426,813 +6443,813 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="36">
+        <v>43068.0</v>
+      </c>
+      <c r="F5" s="36">
+        <v>43069.0</v>
+      </c>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="B6" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="C6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="E6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="F13" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="D15" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="D16" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34" t="s">
+      <c r="D17" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="40">
-        <v>43068.0</v>
-      </c>
-      <c r="F5" s="40">
-        <v>43069.0</v>
-      </c>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="D18" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="E19" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
+      <c r="F19" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="34" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="34" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="B25" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="34" t="s">
+      <c r="B26" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="37"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="34"/>
     </row>
     <row r="27">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
     </row>
     <row r="42">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
     </row>
     <row r="43">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
     </row>
     <row r="49">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
     </row>
     <row r="60">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
     </row>
     <row r="62">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
     </row>
     <row r="63">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
     </row>
     <row r="64">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
     </row>
     <row r="65">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F4 E6:F12 E15:F20 E22:F22 E24:F26">
@@ -7302,12 +7319,12 @@
   <sheetData>
     <row r="7">
       <c r="D7" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="41" t="s">
-        <v>299</v>
+      <c r="D9" s="37" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -7338,14 +7355,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>300</v>
+      <c r="A1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>304</v>
       </c>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
@@ -7362,8 +7379,8 @@
       <c r="A2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>112</v>
+      <c r="B2" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="46">
         <f>COUNTIF(B16:B38,"=1")</f>
@@ -7372,10 +7389,10 @@
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>112</v>
+        <v>48</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="C3" s="47">
         <f>COUNTIF(C16:C38,"=1")</f>
@@ -7384,10 +7401,10 @@
     </row>
     <row r="4">
       <c r="A4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="C4" s="46">
         <f>COUNTIF(D16:D38,"=1")</f>
@@ -7396,10 +7413,10 @@
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="47">
         <f>COUNTIF(E16:E38,"=1")</f>
@@ -7407,11 +7424,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>112</v>
+      <c r="A6" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="47">
         <f>COUNTIF(F16:F38,"=1")</f>
@@ -7419,11 +7436,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>112</v>
+      <c r="A7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="47">
         <f>COUNTIF(G16:G38,"=1")</f>
@@ -7431,11 +7448,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>112</v>
+      <c r="A8" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="C8" s="47">
         <f>COUNTIF(H16:H38,"=1")</f>
@@ -7455,86 +7472,86 @@
       <c r="C12" s="46"/>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>58</v>
+      <c r="C15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>43045.0</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>43046.0</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>43047.0</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>43048.0</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="H19" s="11">
+      <c r="D19" s="12"/>
+      <c r="H19" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>43049.0</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>1.0</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>1.0</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>1.0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>1.0</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="12">
         <v>1.0</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="12">
         <v>1.0</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>43050.0</v>
       </c>
       <c r="B21" s="56"/>
@@ -7546,7 +7563,7 @@
       <c r="H21" s="56"/>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>43051.0</v>
       </c>
       <c r="B22" s="56"/>
@@ -7558,44 +7575,44 @@
       <c r="H22" s="56"/>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>43052.0</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>43053.0</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="G24" s="11">
+      <c r="D24" s="12"/>
+      <c r="G24" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="4">
         <v>43054.0</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="4">
         <v>43055.0</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>43056.0</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="H27" s="11">
+      <c r="D27" s="12"/>
+      <c r="H27" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="4">
         <v>43057.0</v>
       </c>
       <c r="B28" s="56"/>
@@ -7607,7 +7624,7 @@
       <c r="H28" s="56"/>
     </row>
     <row r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="4">
         <v>43058.0</v>
       </c>
       <c r="B29" s="56"/>
@@ -7619,44 +7636,44 @@
       <c r="H29" s="56"/>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="4">
         <v>43059.0</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="4">
         <v>43060.0</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="G31" s="11">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="G31" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="4">
         <v>43061.0</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>43062.0</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="4">
         <v>43063.0</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="12">
         <v>1.0</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="4">
         <v>43064.0</v>
       </c>
       <c r="B35" s="56"/>
@@ -7668,7 +7685,7 @@
       <c r="H35" s="56"/>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="4">
         <v>43065.0</v>
       </c>
       <c r="B36" s="56"/>
@@ -7680,36 +7697,36 @@
       <c r="H36" s="56"/>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="4">
         <v>43066.0</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="12">
         <v>1.0</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="4">
         <v>43067.0</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="7"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="4"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40">
-      <c r="A40" s="7"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="4"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="7"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="4"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="7"/>
+      <c r="A42" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7731,222 +7748,222 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="G1" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>255</v>
+      <c r="H2" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>268</v>
+      <c r="H3" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>244</v>
+      <c r="C4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>284</v>
+        <v>105</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>262</v>
+      <c r="A6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15"/>
-      <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>80</v>
+      <c r="B7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15"/>
-      <c r="B8" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>311</v>
+      <c r="B8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>111</v>
+      <c r="C9" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>132</v>
+      <c r="A10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="11" t="s">
-        <v>137</v>
+      <c r="C11" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="11" t="s">
-        <v>142</v>
+      <c r="C12" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="11" t="s">
-        <v>312</v>
+      <c r="C15" s="12" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="11" t="s">
-        <v>199</v>
+      <c r="C17" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="11" t="s">
-        <v>212</v>
+      <c r="C18" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="11" t="s">
-        <v>226</v>
+      <c r="C19" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="11" t="s">
-        <v>313</v>
+      <c r="C20" s="12" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="11" t="s">
-        <v>63</v>
+      <c r="C21" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="11"/>
+      <c r="C22" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
